--- a/botCode/workWithExcelFile/excelDatabase/8class/М-8-2-1, Ф-8-2.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/8class/М-8-2-1, Ф-8-2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="42">
   <si>
     <t>Понедельник</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Учитель</t>
   </si>
   <si>
-    <t>Кабинет</t>
+    <t>Zoom</t>
   </si>
   <si>
     <t>Калиберова Вероника Дмитриевна</t>
@@ -62,16 +62,10 @@
     <t>Киселева/Дятлов</t>
   </si>
   <si>
-    <t>402/501</t>
-  </si>
-  <si>
     <t>английский</t>
   </si>
   <si>
     <t>А-8-1,2</t>
-  </si>
-  <si>
-    <t>202/302/303/504/505</t>
   </si>
   <si>
     <t>Геометрия</t>
@@ -86,25 +80,22 @@
     <t>Вторник</t>
   </si>
   <si>
-    <t>М-8-2-1</t>
-  </si>
-  <si>
-    <t>Панькина</t>
-  </si>
-  <si>
     <t>физика</t>
   </si>
   <si>
     <t>Тимошенко</t>
   </si>
   <si>
-    <t>Русский язык</t>
+    <t>Четверг</t>
   </si>
   <si>
-    <t>Андреева</t>
+    <t>Урок для практических занятий (классрум на время)</t>
   </si>
   <si>
-    <t>Четверг</t>
+    <t>Classroom+Zoom</t>
+  </si>
+  <si>
+    <t>Спецмат</t>
   </si>
   <si>
     <t>история</t>
@@ -116,16 +107,16 @@
     <t>общага</t>
   </si>
   <si>
-    <t>физ-ра</t>
+    <t>Русский язык</t>
   </si>
   <si>
-    <t>спорт.зал</t>
+    <t>Андреева</t>
   </si>
   <si>
     <t>Пятница</t>
   </si>
   <si>
-    <t>Киселева</t>
+    <t>Физика</t>
   </si>
   <si>
     <t>химия</t>
@@ -134,25 +125,19 @@
     <t>Поболелова</t>
   </si>
   <si>
-    <t>Булатова/Панькина</t>
-  </si>
-  <si>
-    <t>403/201</t>
-  </si>
-  <si>
-    <t>ОКНО</t>
+    <t>Английский язык</t>
   </si>
   <si>
     <t>Суббота</t>
   </si>
   <si>
-    <t>Литература</t>
+    <t>География</t>
   </si>
   <si>
-    <t>биология</t>
+    <t>Корнилова</t>
   </si>
   <si>
-    <t>Смолянова</t>
+    <t>Литература</t>
   </si>
   <si>
     <t>МХК</t>
@@ -161,46 +146,17 @@
     <t>Хамидова</t>
   </si>
   <si>
-    <t>География</t>
+    <t>биология</t>
   </si>
   <si>
-    <t>Английский язык по группам</t>
-  </si>
-  <si>
-    <t>Демин М.С. (каб.505)</t>
-  </si>
-  <si>
-    <t>Ширяева В.А. (каб.202)</t>
-  </si>
-  <si>
-    <t>Будникова О.С. (каб.504)</t>
-  </si>
-  <si>
-    <t>Штойк М.С. (каб.302)</t>
-  </si>
-  <si>
-    <t>Напольских М.Р. (каб.303)</t>
-  </si>
-  <si>
-    <t>5 урок</t>
-  </si>
-  <si>
-    <t>7 урок</t>
+    <t>Смолянова</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d\.m"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,28 +166,76 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,17 +244,62 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -267,9 +316,7 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -318,6 +365,19 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -327,90 +387,126 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color rgb="FF000000"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -691,11 +787,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист5"/>
-  <dimension ref="A1:G1000"/>
+  <sheetPr codeName="Лист6"/>
+  <dimension ref="A1:G991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -703,9 +799,9 @@
     <col min="1" max="1" width="11.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="30.625" style="2" customWidth="1"/>
     <col min="8" max="26" width="7.625" style="2" customWidth="1"/>
     <col min="27" max="16384" width="12.625" style="2"/>
@@ -755,8 +851,8 @@
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10">
-        <v>203</v>
+      <c r="E4" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
@@ -775,8 +871,8 @@
       <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="11">
-        <v>203</v>
+      <c r="E5" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -792,8 +888,8 @@
       <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>12</v>
+      <c r="E6" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -809,8 +905,8 @@
       <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>12</v>
+      <c r="E7" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -818,14 +914,14 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="8" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -833,45 +929,37 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="8">
-        <v>203</v>
+      <c r="E9" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="8">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -889,178 +977,155 @@
       <c r="D13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10">
-        <v>203</v>
-      </c>
+      <c r="E14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="11">
-        <v>203</v>
+      <c r="E15" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>3</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="11">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>4</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="11">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>5</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="8"/>
+      <c r="B18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="E18" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>6</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="10">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>7</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="11">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>8</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="11">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>9</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="11">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>26</v>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
         <v>1</v>
@@ -1071,159 +1136,152 @@
       <c r="D25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>1</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="F26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="11">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>2</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="11">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>3</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="11">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>4</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="11">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>5</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="11">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>6</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="11">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>7</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="11">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>8</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>32</v>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
         <v>1</v>
@@ -1234,4199 +1292,4022 @@
       <c r="D36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>1</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="11">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>2</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>3</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="11">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>4</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
+        <v>5</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>6</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>7</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="36"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>1</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="11">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>5</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="C47" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>6</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>7</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="8" t="s">
+      <c r="E47" s="30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>1</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="13">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="11">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>3</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="11">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>4</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="11">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>5</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="11">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>6</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="11">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="16"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>7</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="11">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="16"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>8</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="16"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="22">
-        <v>43838</v>
-      </c>
-      <c r="D58" s="22">
-        <v>43869</v>
-      </c>
-      <c r="E58" s="23">
-        <v>43898</v>
-      </c>
-      <c r="F58" s="22">
-        <v>43929</v>
-      </c>
-      <c r="G58" s="22">
-        <v>43959</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="26"/>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="22">
-        <v>43838</v>
-      </c>
-      <c r="D61" s="22">
-        <v>43869</v>
-      </c>
-      <c r="E61" s="23">
-        <v>43898</v>
-      </c>
-      <c r="F61" s="22">
-        <v>43929</v>
-      </c>
-      <c r="G61" s="22">
-        <v>43959</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="26"/>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="22">
-        <v>43838</v>
-      </c>
-      <c r="D64" s="22">
-        <v>43869</v>
-      </c>
-      <c r="E64" s="23">
-        <v>43898</v>
-      </c>
-      <c r="F64" s="22">
-        <v>43929</v>
-      </c>
-      <c r="G64" s="22">
-        <v>43959</v>
-      </c>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="A65" s="11"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="11"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="11"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="11"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+      <c r="A69" s="11"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="11"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="11"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="11"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="A73" s="11"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" s="11"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="A75" s="11"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="A76" s="11"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="A77" s="11"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="A78" s="11"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="A79" s="11"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A80" s="11"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
+      <c r="A81" s="11"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
+      <c r="A82" s="11"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="A83" s="11"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="A84" s="11"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="A85" s="11"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
+      <c r="A86" s="11"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="A87" s="11"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="A88" s="11"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+      <c r="A89" s="11"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="A90" s="11"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="A91" s="11"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" s="11"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="A93" s="11"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+      <c r="A94" s="11"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+      <c r="A95" s="11"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
+      <c r="A96" s="11"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
+      <c r="A97" s="11"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
+      <c r="A98" s="11"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
+      <c r="A99" s="11"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
+      <c r="A100" s="11"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
+      <c r="A101" s="11"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
+      <c r="A102" s="11"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
+      <c r="A103" s="11"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
+      <c r="A104" s="11"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
+      <c r="A105" s="11"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
+      <c r="A106" s="11"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
+      <c r="A107" s="11"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
+      <c r="A108" s="11"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
+      <c r="A109" s="11"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
+      <c r="A110" s="11"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
+      <c r="A111" s="11"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
+      <c r="A112" s="11"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
+      <c r="A113" s="11"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
+      <c r="A114" s="11"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
+      <c r="A115" s="11"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
+      <c r="A116" s="11"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
+      <c r="A117" s="11"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
+      <c r="A118" s="11"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
+      <c r="A119" s="11"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
+      <c r="A120" s="11"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
+      <c r="A121" s="11"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
+      <c r="A122" s="11"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
+      <c r="A123" s="11"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
+      <c r="A124" s="11"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
+      <c r="A125" s="11"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
+      <c r="A126" s="11"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
+      <c r="A127" s="11"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
+      <c r="A128" s="11"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
+      <c r="A129" s="11"/>
       <c r="E129" s="3"/>
     </row>
     <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
+      <c r="A130" s="11"/>
       <c r="E130" s="3"/>
     </row>
     <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
+      <c r="A131" s="11"/>
       <c r="E131" s="3"/>
     </row>
     <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
+      <c r="A132" s="11"/>
       <c r="E132" s="3"/>
     </row>
     <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
+      <c r="A133" s="11"/>
       <c r="E133" s="3"/>
     </row>
     <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
+      <c r="A134" s="11"/>
       <c r="E134" s="3"/>
     </row>
     <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
+      <c r="A135" s="11"/>
       <c r="E135" s="3"/>
     </row>
     <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
+      <c r="A136" s="11"/>
       <c r="E136" s="3"/>
     </row>
     <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
+      <c r="A137" s="11"/>
       <c r="E137" s="3"/>
     </row>
     <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
+      <c r="A138" s="11"/>
       <c r="E138" s="3"/>
     </row>
     <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
+      <c r="A139" s="11"/>
       <c r="E139" s="3"/>
     </row>
     <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
+      <c r="A140" s="11"/>
       <c r="E140" s="3"/>
     </row>
     <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
+      <c r="A141" s="11"/>
       <c r="E141" s="3"/>
     </row>
     <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
+      <c r="A142" s="11"/>
       <c r="E142" s="3"/>
     </row>
     <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
+      <c r="A143" s="11"/>
       <c r="E143" s="3"/>
     </row>
     <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
+      <c r="A144" s="11"/>
       <c r="E144" s="3"/>
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
+      <c r="A145" s="11"/>
       <c r="E145" s="3"/>
     </row>
     <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
+      <c r="A146" s="11"/>
       <c r="E146" s="3"/>
     </row>
     <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
+      <c r="A147" s="11"/>
       <c r="E147" s="3"/>
     </row>
     <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
+      <c r="A148" s="11"/>
       <c r="E148" s="3"/>
     </row>
     <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
+      <c r="A149" s="11"/>
       <c r="E149" s="3"/>
     </row>
     <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
+      <c r="A150" s="11"/>
       <c r="E150" s="3"/>
     </row>
     <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
+      <c r="A151" s="11"/>
       <c r="E151" s="3"/>
     </row>
     <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
+      <c r="A152" s="11"/>
       <c r="E152" s="3"/>
     </row>
     <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
+      <c r="A153" s="11"/>
       <c r="E153" s="3"/>
     </row>
     <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
+      <c r="A154" s="11"/>
       <c r="E154" s="3"/>
     </row>
     <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
+      <c r="A155" s="11"/>
       <c r="E155" s="3"/>
     </row>
     <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
+      <c r="A156" s="11"/>
       <c r="E156" s="3"/>
     </row>
     <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
+      <c r="A157" s="11"/>
       <c r="E157" s="3"/>
     </row>
     <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
+      <c r="A158" s="11"/>
       <c r="E158" s="3"/>
     </row>
     <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
+      <c r="A159" s="11"/>
       <c r="E159" s="3"/>
     </row>
     <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
+      <c r="A160" s="11"/>
       <c r="E160" s="3"/>
     </row>
     <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
+      <c r="A161" s="11"/>
       <c r="E161" s="3"/>
     </row>
     <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
+      <c r="A162" s="11"/>
       <c r="E162" s="3"/>
     </row>
     <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
+      <c r="A163" s="11"/>
       <c r="E163" s="3"/>
     </row>
     <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
+      <c r="A164" s="11"/>
       <c r="E164" s="3"/>
     </row>
     <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
+      <c r="A165" s="11"/>
       <c r="E165" s="3"/>
     </row>
     <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
+      <c r="A166" s="11"/>
       <c r="E166" s="3"/>
     </row>
     <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
+      <c r="A167" s="11"/>
       <c r="E167" s="3"/>
     </row>
     <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
+      <c r="A168" s="11"/>
       <c r="E168" s="3"/>
     </row>
     <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
+      <c r="A169" s="11"/>
       <c r="E169" s="3"/>
     </row>
     <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
+      <c r="A170" s="11"/>
       <c r="E170" s="3"/>
     </row>
     <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
+      <c r="A171" s="11"/>
       <c r="E171" s="3"/>
     </row>
     <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
+      <c r="A172" s="11"/>
       <c r="E172" s="3"/>
     </row>
     <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
+      <c r="A173" s="11"/>
       <c r="E173" s="3"/>
     </row>
     <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
+      <c r="A174" s="11"/>
       <c r="E174" s="3"/>
     </row>
     <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
+      <c r="A175" s="11"/>
       <c r="E175" s="3"/>
     </row>
     <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
+      <c r="A176" s="11"/>
       <c r="E176" s="3"/>
     </row>
     <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
+      <c r="A177" s="11"/>
       <c r="E177" s="3"/>
     </row>
     <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
+      <c r="A178" s="11"/>
       <c r="E178" s="3"/>
     </row>
     <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
+      <c r="A179" s="11"/>
       <c r="E179" s="3"/>
     </row>
     <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
+      <c r="A180" s="11"/>
       <c r="E180" s="3"/>
     </row>
     <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
+      <c r="A181" s="11"/>
       <c r="E181" s="3"/>
     </row>
     <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
+      <c r="A182" s="11"/>
       <c r="E182" s="3"/>
     </row>
     <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
+      <c r="A183" s="11"/>
       <c r="E183" s="3"/>
     </row>
     <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
+      <c r="A184" s="11"/>
       <c r="E184" s="3"/>
     </row>
     <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
+      <c r="A185" s="11"/>
       <c r="E185" s="3"/>
     </row>
     <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
+      <c r="A186" s="11"/>
       <c r="E186" s="3"/>
     </row>
     <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
+      <c r="A187" s="11"/>
       <c r="E187" s="3"/>
     </row>
     <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
+      <c r="A188" s="11"/>
       <c r="E188" s="3"/>
     </row>
     <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
+      <c r="A189" s="11"/>
       <c r="E189" s="3"/>
     </row>
     <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
+      <c r="A190" s="11"/>
       <c r="E190" s="3"/>
     </row>
     <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
+      <c r="A191" s="11"/>
       <c r="E191" s="3"/>
     </row>
     <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
+      <c r="A192" s="11"/>
       <c r="E192" s="3"/>
     </row>
     <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
+      <c r="A193" s="11"/>
       <c r="E193" s="3"/>
     </row>
     <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
+      <c r="A194" s="11"/>
       <c r="E194" s="3"/>
     </row>
     <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
+      <c r="A195" s="11"/>
       <c r="E195" s="3"/>
     </row>
     <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
+      <c r="A196" s="11"/>
       <c r="E196" s="3"/>
     </row>
     <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
+      <c r="A197" s="11"/>
       <c r="E197" s="3"/>
     </row>
     <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
+      <c r="A198" s="11"/>
       <c r="E198" s="3"/>
     </row>
     <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
+      <c r="A199" s="11"/>
       <c r="E199" s="3"/>
     </row>
     <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
+      <c r="A200" s="11"/>
       <c r="E200" s="3"/>
     </row>
     <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
+      <c r="A201" s="11"/>
       <c r="E201" s="3"/>
     </row>
     <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
+      <c r="A202" s="11"/>
       <c r="E202" s="3"/>
     </row>
     <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
+      <c r="A203" s="11"/>
       <c r="E203" s="3"/>
     </row>
     <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
+      <c r="A204" s="11"/>
       <c r="E204" s="3"/>
     </row>
     <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
+      <c r="A205" s="11"/>
       <c r="E205" s="3"/>
     </row>
     <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
+      <c r="A206" s="11"/>
       <c r="E206" s="3"/>
     </row>
     <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
+      <c r="A207" s="11"/>
       <c r="E207" s="3"/>
     </row>
     <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
+      <c r="A208" s="11"/>
       <c r="E208" s="3"/>
     </row>
     <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
+      <c r="A209" s="11"/>
       <c r="E209" s="3"/>
     </row>
     <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
+      <c r="A210" s="11"/>
       <c r="E210" s="3"/>
     </row>
     <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
+      <c r="A211" s="11"/>
       <c r="E211" s="3"/>
     </row>
     <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
+      <c r="A212" s="11"/>
       <c r="E212" s="3"/>
     </row>
     <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
+      <c r="A213" s="11"/>
       <c r="E213" s="3"/>
     </row>
     <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
+      <c r="A214" s="11"/>
       <c r="E214" s="3"/>
     </row>
     <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
+      <c r="A215" s="11"/>
       <c r="E215" s="3"/>
     </row>
     <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
+      <c r="A216" s="11"/>
       <c r="E216" s="3"/>
     </row>
     <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
+      <c r="A217" s="11"/>
       <c r="E217" s="3"/>
     </row>
     <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
+      <c r="A218" s="11"/>
       <c r="E218" s="3"/>
     </row>
     <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
+      <c r="A219" s="11"/>
       <c r="E219" s="3"/>
     </row>
     <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
+      <c r="A220" s="11"/>
       <c r="E220" s="3"/>
     </row>
     <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
+      <c r="A221" s="11"/>
       <c r="E221" s="3"/>
     </row>
     <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
+      <c r="A222" s="11"/>
       <c r="E222" s="3"/>
     </row>
     <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
+      <c r="A223" s="11"/>
       <c r="E223" s="3"/>
     </row>
     <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
+      <c r="A224" s="11"/>
       <c r="E224" s="3"/>
     </row>
     <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
+      <c r="A225" s="11"/>
       <c r="E225" s="3"/>
     </row>
     <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
+      <c r="A226" s="11"/>
       <c r="E226" s="3"/>
     </row>
     <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
+      <c r="A227" s="11"/>
       <c r="E227" s="3"/>
     </row>
     <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
+      <c r="A228" s="11"/>
       <c r="E228" s="3"/>
     </row>
     <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
+      <c r="A229" s="11"/>
       <c r="E229" s="3"/>
     </row>
     <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
+      <c r="A230" s="11"/>
       <c r="E230" s="3"/>
     </row>
     <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
+      <c r="A231" s="11"/>
       <c r="E231" s="3"/>
     </row>
     <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
+      <c r="A232" s="11"/>
       <c r="E232" s="3"/>
     </row>
     <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
+      <c r="A233" s="11"/>
       <c r="E233" s="3"/>
     </row>
     <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
+      <c r="A234" s="11"/>
       <c r="E234" s="3"/>
     </row>
     <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
+      <c r="A235" s="11"/>
       <c r="E235" s="3"/>
     </row>
     <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
+      <c r="A236" s="11"/>
       <c r="E236" s="3"/>
     </row>
     <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
+      <c r="A237" s="11"/>
       <c r="E237" s="3"/>
     </row>
     <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
+      <c r="A238" s="11"/>
       <c r="E238" s="3"/>
     </row>
     <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
+      <c r="A239" s="11"/>
       <c r="E239" s="3"/>
     </row>
     <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
+      <c r="A240" s="11"/>
       <c r="E240" s="3"/>
     </row>
     <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
+      <c r="A241" s="11"/>
       <c r="E241" s="3"/>
     </row>
     <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1"/>
+      <c r="A242" s="11"/>
       <c r="E242" s="3"/>
     </row>
     <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
+      <c r="A243" s="11"/>
       <c r="E243" s="3"/>
     </row>
     <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="1"/>
+      <c r="A244" s="11"/>
       <c r="E244" s="3"/>
     </row>
     <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
+      <c r="A245" s="11"/>
       <c r="E245" s="3"/>
     </row>
     <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
+      <c r="A246" s="11"/>
       <c r="E246" s="3"/>
     </row>
     <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
+      <c r="A247" s="11"/>
       <c r="E247" s="3"/>
     </row>
     <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="11"/>
       <c r="E248" s="3"/>
     </row>
     <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
+      <c r="A249" s="11"/>
       <c r="E249" s="3"/>
     </row>
     <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
+      <c r="A250" s="11"/>
       <c r="E250" s="3"/>
     </row>
     <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
+      <c r="A251" s="11"/>
       <c r="E251" s="3"/>
     </row>
     <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
+      <c r="A252" s="11"/>
       <c r="E252" s="3"/>
     </row>
     <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="1"/>
+      <c r="A253" s="11"/>
       <c r="E253" s="3"/>
     </row>
     <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="11"/>
       <c r="E254" s="3"/>
     </row>
     <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="11"/>
       <c r="E255" s="3"/>
     </row>
     <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="1"/>
+      <c r="A256" s="11"/>
       <c r="E256" s="3"/>
     </row>
     <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
+      <c r="A257" s="11"/>
       <c r="E257" s="3"/>
     </row>
     <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="11"/>
       <c r="E258" s="3"/>
     </row>
     <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="11"/>
       <c r="E259" s="3"/>
     </row>
     <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="1"/>
+      <c r="A260" s="11"/>
       <c r="E260" s="3"/>
     </row>
     <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
+      <c r="A261" s="11"/>
       <c r="E261" s="3"/>
     </row>
     <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
+      <c r="A262" s="11"/>
       <c r="E262" s="3"/>
     </row>
     <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="1"/>
+      <c r="A263" s="11"/>
       <c r="E263" s="3"/>
     </row>
     <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
+      <c r="A264" s="11"/>
       <c r="E264" s="3"/>
     </row>
     <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="1"/>
+      <c r="A265" s="11"/>
       <c r="E265" s="3"/>
     </row>
     <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
+      <c r="A266" s="11"/>
       <c r="E266" s="3"/>
     </row>
     <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1"/>
+      <c r="A267" s="11"/>
       <c r="E267" s="3"/>
     </row>
     <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="1"/>
+      <c r="A268" s="11"/>
       <c r="E268" s="3"/>
     </row>
     <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="1"/>
+      <c r="A269" s="11"/>
       <c r="E269" s="3"/>
     </row>
     <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="1"/>
+      <c r="A270" s="11"/>
       <c r="E270" s="3"/>
     </row>
     <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="1"/>
+      <c r="A271" s="11"/>
       <c r="E271" s="3"/>
     </row>
     <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1"/>
+      <c r="A272" s="11"/>
       <c r="E272" s="3"/>
     </row>
     <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
+      <c r="A273" s="11"/>
       <c r="E273" s="3"/>
     </row>
     <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="1"/>
+      <c r="A274" s="11"/>
       <c r="E274" s="3"/>
     </row>
     <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="1"/>
+      <c r="A275" s="11"/>
       <c r="E275" s="3"/>
     </row>
     <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="1"/>
+      <c r="A276" s="11"/>
       <c r="E276" s="3"/>
     </row>
     <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
+      <c r="A277" s="11"/>
       <c r="E277" s="3"/>
     </row>
     <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
+      <c r="A278" s="11"/>
       <c r="E278" s="3"/>
     </row>
     <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="1"/>
+      <c r="A279" s="11"/>
       <c r="E279" s="3"/>
     </row>
     <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
+      <c r="A280" s="11"/>
       <c r="E280" s="3"/>
     </row>
     <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
+      <c r="A281" s="11"/>
       <c r="E281" s="3"/>
     </row>
     <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
+      <c r="A282" s="11"/>
       <c r="E282" s="3"/>
     </row>
     <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="1"/>
+      <c r="A283" s="11"/>
       <c r="E283" s="3"/>
     </row>
     <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
+      <c r="A284" s="11"/>
       <c r="E284" s="3"/>
     </row>
     <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
+      <c r="A285" s="11"/>
       <c r="E285" s="3"/>
     </row>
     <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="1"/>
+      <c r="A286" s="11"/>
       <c r="E286" s="3"/>
     </row>
     <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
+      <c r="A287" s="11"/>
       <c r="E287" s="3"/>
     </row>
     <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
+      <c r="A288" s="11"/>
       <c r="E288" s="3"/>
     </row>
     <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="1"/>
+      <c r="A289" s="11"/>
       <c r="E289" s="3"/>
     </row>
     <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="1"/>
+      <c r="A290" s="11"/>
       <c r="E290" s="3"/>
     </row>
     <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="1"/>
+      <c r="A291" s="11"/>
       <c r="E291" s="3"/>
     </row>
     <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="1"/>
+      <c r="A292" s="11"/>
       <c r="E292" s="3"/>
     </row>
     <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="1"/>
+      <c r="A293" s="11"/>
       <c r="E293" s="3"/>
     </row>
     <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="1"/>
+      <c r="A294" s="11"/>
       <c r="E294" s="3"/>
     </row>
     <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="1"/>
+      <c r="A295" s="11"/>
       <c r="E295" s="3"/>
     </row>
     <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="1"/>
+      <c r="A296" s="11"/>
       <c r="E296" s="3"/>
     </row>
     <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="1"/>
+      <c r="A297" s="11"/>
       <c r="E297" s="3"/>
     </row>
     <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="1"/>
+      <c r="A298" s="11"/>
       <c r="E298" s="3"/>
     </row>
     <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="1"/>
+      <c r="A299" s="11"/>
       <c r="E299" s="3"/>
     </row>
     <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="1"/>
+      <c r="A300" s="11"/>
       <c r="E300" s="3"/>
     </row>
     <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="1"/>
+      <c r="A301" s="11"/>
       <c r="E301" s="3"/>
     </row>
     <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="1"/>
+      <c r="A302" s="11"/>
       <c r="E302" s="3"/>
     </row>
     <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="1"/>
+      <c r="A303" s="11"/>
       <c r="E303" s="3"/>
     </row>
     <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="1"/>
+      <c r="A304" s="11"/>
       <c r="E304" s="3"/>
     </row>
     <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="1"/>
+      <c r="A305" s="11"/>
       <c r="E305" s="3"/>
     </row>
     <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="1"/>
+      <c r="A306" s="11"/>
       <c r="E306" s="3"/>
     </row>
     <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="1"/>
+      <c r="A307" s="11"/>
       <c r="E307" s="3"/>
     </row>
     <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="1"/>
+      <c r="A308" s="11"/>
       <c r="E308" s="3"/>
     </row>
     <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="1"/>
+      <c r="A309" s="11"/>
       <c r="E309" s="3"/>
     </row>
     <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="1"/>
+      <c r="A310" s="11"/>
       <c r="E310" s="3"/>
     </row>
     <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="1"/>
+      <c r="A311" s="11"/>
       <c r="E311" s="3"/>
     </row>
     <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="1"/>
+      <c r="A312" s="11"/>
       <c r="E312" s="3"/>
     </row>
     <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="1"/>
+      <c r="A313" s="11"/>
       <c r="E313" s="3"/>
     </row>
     <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="1"/>
+      <c r="A314" s="11"/>
       <c r="E314" s="3"/>
     </row>
     <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="1"/>
+      <c r="A315" s="11"/>
       <c r="E315" s="3"/>
     </row>
     <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="1"/>
+      <c r="A316" s="11"/>
       <c r="E316" s="3"/>
     </row>
     <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="1"/>
+      <c r="A317" s="11"/>
       <c r="E317" s="3"/>
     </row>
     <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="1"/>
+      <c r="A318" s="11"/>
       <c r="E318" s="3"/>
     </row>
     <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="1"/>
+      <c r="A319" s="11"/>
       <c r="E319" s="3"/>
     </row>
     <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="1"/>
+      <c r="A320" s="11"/>
       <c r="E320" s="3"/>
     </row>
     <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="1"/>
+      <c r="A321" s="11"/>
       <c r="E321" s="3"/>
     </row>
     <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="1"/>
+      <c r="A322" s="11"/>
       <c r="E322" s="3"/>
     </row>
     <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="1"/>
+      <c r="A323" s="11"/>
       <c r="E323" s="3"/>
     </row>
     <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="1"/>
+      <c r="A324" s="11"/>
       <c r="E324" s="3"/>
     </row>
     <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="1"/>
+      <c r="A325" s="11"/>
       <c r="E325" s="3"/>
     </row>
     <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="1"/>
+      <c r="A326" s="11"/>
       <c r="E326" s="3"/>
     </row>
     <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="1"/>
+      <c r="A327" s="11"/>
       <c r="E327" s="3"/>
     </row>
     <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="1"/>
+      <c r="A328" s="11"/>
       <c r="E328" s="3"/>
     </row>
     <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="1"/>
+      <c r="A329" s="11"/>
       <c r="E329" s="3"/>
     </row>
     <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="1"/>
+      <c r="A330" s="11"/>
       <c r="E330" s="3"/>
     </row>
     <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="1"/>
+      <c r="A331" s="11"/>
       <c r="E331" s="3"/>
     </row>
     <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="1"/>
+      <c r="A332" s="11"/>
       <c r="E332" s="3"/>
     </row>
     <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="1"/>
+      <c r="A333" s="11"/>
       <c r="E333" s="3"/>
     </row>
     <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="1"/>
+      <c r="A334" s="11"/>
       <c r="E334" s="3"/>
     </row>
     <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="1"/>
+      <c r="A335" s="11"/>
       <c r="E335" s="3"/>
     </row>
     <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="1"/>
+      <c r="A336" s="11"/>
       <c r="E336" s="3"/>
     </row>
     <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="1"/>
+      <c r="A337" s="11"/>
       <c r="E337" s="3"/>
     </row>
     <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="1"/>
+      <c r="A338" s="11"/>
       <c r="E338" s="3"/>
     </row>
     <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="1"/>
+      <c r="A339" s="11"/>
       <c r="E339" s="3"/>
     </row>
     <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="1"/>
+      <c r="A340" s="11"/>
       <c r="E340" s="3"/>
     </row>
     <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="1"/>
+      <c r="A341" s="11"/>
       <c r="E341" s="3"/>
     </row>
     <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="1"/>
+      <c r="A342" s="11"/>
       <c r="E342" s="3"/>
     </row>
     <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="1"/>
+      <c r="A343" s="11"/>
       <c r="E343" s="3"/>
     </row>
     <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="1"/>
+      <c r="A344" s="11"/>
       <c r="E344" s="3"/>
     </row>
     <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="1"/>
+      <c r="A345" s="11"/>
       <c r="E345" s="3"/>
     </row>
     <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="1"/>
+      <c r="A346" s="11"/>
       <c r="E346" s="3"/>
     </row>
     <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="1"/>
+      <c r="A347" s="11"/>
       <c r="E347" s="3"/>
     </row>
     <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="1"/>
+      <c r="A348" s="11"/>
       <c r="E348" s="3"/>
     </row>
     <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="1"/>
+      <c r="A349" s="11"/>
       <c r="E349" s="3"/>
     </row>
     <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="1"/>
+      <c r="A350" s="11"/>
       <c r="E350" s="3"/>
     </row>
     <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="1"/>
+      <c r="A351" s="11"/>
       <c r="E351" s="3"/>
     </row>
     <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="1"/>
+      <c r="A352" s="11"/>
       <c r="E352" s="3"/>
     </row>
     <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="1"/>
+      <c r="A353" s="11"/>
       <c r="E353" s="3"/>
     </row>
     <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="1"/>
+      <c r="A354" s="11"/>
       <c r="E354" s="3"/>
     </row>
     <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="1"/>
+      <c r="A355" s="11"/>
       <c r="E355" s="3"/>
     </row>
     <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="1"/>
+      <c r="A356" s="11"/>
       <c r="E356" s="3"/>
     </row>
     <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="1"/>
+      <c r="A357" s="11"/>
       <c r="E357" s="3"/>
     </row>
     <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="1"/>
+      <c r="A358" s="11"/>
       <c r="E358" s="3"/>
     </row>
     <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="1"/>
+      <c r="A359" s="11"/>
       <c r="E359" s="3"/>
     </row>
     <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="1"/>
+      <c r="A360" s="11"/>
       <c r="E360" s="3"/>
     </row>
     <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="1"/>
+      <c r="A361" s="11"/>
       <c r="E361" s="3"/>
     </row>
     <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="1"/>
+      <c r="A362" s="11"/>
       <c r="E362" s="3"/>
     </row>
     <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="1"/>
+      <c r="A363" s="11"/>
       <c r="E363" s="3"/>
     </row>
     <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="1"/>
+      <c r="A364" s="11"/>
       <c r="E364" s="3"/>
     </row>
     <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="1"/>
+      <c r="A365" s="11"/>
       <c r="E365" s="3"/>
     </row>
     <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="1"/>
+      <c r="A366" s="11"/>
       <c r="E366" s="3"/>
     </row>
     <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="1"/>
+      <c r="A367" s="11"/>
       <c r="E367" s="3"/>
     </row>
     <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="1"/>
+      <c r="A368" s="11"/>
       <c r="E368" s="3"/>
     </row>
     <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="1"/>
+      <c r="A369" s="11"/>
       <c r="E369" s="3"/>
     </row>
     <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="1"/>
+      <c r="A370" s="11"/>
       <c r="E370" s="3"/>
     </row>
     <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="1"/>
+      <c r="A371" s="11"/>
       <c r="E371" s="3"/>
     </row>
     <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="1"/>
+      <c r="A372" s="11"/>
       <c r="E372" s="3"/>
     </row>
     <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="1"/>
+      <c r="A373" s="11"/>
       <c r="E373" s="3"/>
     </row>
     <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="1"/>
+      <c r="A374" s="11"/>
       <c r="E374" s="3"/>
     </row>
     <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="1"/>
+      <c r="A375" s="11"/>
       <c r="E375" s="3"/>
     </row>
     <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="1"/>
+      <c r="A376" s="11"/>
       <c r="E376" s="3"/>
     </row>
     <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="1"/>
+      <c r="A377" s="11"/>
       <c r="E377" s="3"/>
     </row>
     <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="1"/>
+      <c r="A378" s="11"/>
       <c r="E378" s="3"/>
     </row>
     <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="1"/>
+      <c r="A379" s="11"/>
       <c r="E379" s="3"/>
     </row>
     <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="1"/>
+      <c r="A380" s="11"/>
       <c r="E380" s="3"/>
     </row>
     <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="1"/>
+      <c r="A381" s="11"/>
       <c r="E381" s="3"/>
     </row>
     <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="1"/>
+      <c r="A382" s="11"/>
       <c r="E382" s="3"/>
     </row>
     <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="1"/>
+      <c r="A383" s="11"/>
       <c r="E383" s="3"/>
     </row>
     <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="1"/>
+      <c r="A384" s="11"/>
       <c r="E384" s="3"/>
     </row>
     <row r="385" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="1"/>
+      <c r="A385" s="11"/>
       <c r="E385" s="3"/>
     </row>
     <row r="386" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="1"/>
+      <c r="A386" s="11"/>
       <c r="E386" s="3"/>
     </row>
     <row r="387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="1"/>
+      <c r="A387" s="11"/>
       <c r="E387" s="3"/>
     </row>
     <row r="388" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="1"/>
+      <c r="A388" s="11"/>
       <c r="E388" s="3"/>
     </row>
     <row r="389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="1"/>
+      <c r="A389" s="11"/>
       <c r="E389" s="3"/>
     </row>
     <row r="390" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="1"/>
+      <c r="A390" s="11"/>
       <c r="E390" s="3"/>
     </row>
     <row r="391" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="1"/>
+      <c r="A391" s="11"/>
       <c r="E391" s="3"/>
     </row>
     <row r="392" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="1"/>
+      <c r="A392" s="11"/>
       <c r="E392" s="3"/>
     </row>
     <row r="393" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="1"/>
+      <c r="A393" s="11"/>
       <c r="E393" s="3"/>
     </row>
     <row r="394" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="1"/>
+      <c r="A394" s="11"/>
       <c r="E394" s="3"/>
     </row>
     <row r="395" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="1"/>
+      <c r="A395" s="11"/>
       <c r="E395" s="3"/>
     </row>
     <row r="396" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="1"/>
+      <c r="A396" s="11"/>
       <c r="E396" s="3"/>
     </row>
     <row r="397" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="1"/>
+      <c r="A397" s="11"/>
       <c r="E397" s="3"/>
     </row>
     <row r="398" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="1"/>
+      <c r="A398" s="11"/>
       <c r="E398" s="3"/>
     </row>
     <row r="399" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="1"/>
+      <c r="A399" s="11"/>
       <c r="E399" s="3"/>
     </row>
     <row r="400" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="1"/>
+      <c r="A400" s="11"/>
       <c r="E400" s="3"/>
     </row>
     <row r="401" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="1"/>
+      <c r="A401" s="11"/>
       <c r="E401" s="3"/>
     </row>
     <row r="402" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="1"/>
+      <c r="A402" s="11"/>
       <c r="E402" s="3"/>
     </row>
     <row r="403" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="1"/>
+      <c r="A403" s="11"/>
       <c r="E403" s="3"/>
     </row>
     <row r="404" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="1"/>
+      <c r="A404" s="11"/>
       <c r="E404" s="3"/>
     </row>
     <row r="405" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="1"/>
+      <c r="A405" s="11"/>
       <c r="E405" s="3"/>
     </row>
     <row r="406" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="1"/>
+      <c r="A406" s="11"/>
       <c r="E406" s="3"/>
     </row>
     <row r="407" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="1"/>
+      <c r="A407" s="11"/>
       <c r="E407" s="3"/>
     </row>
     <row r="408" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="1"/>
+      <c r="A408" s="11"/>
       <c r="E408" s="3"/>
     </row>
     <row r="409" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="1"/>
+      <c r="A409" s="11"/>
       <c r="E409" s="3"/>
     </row>
     <row r="410" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="1"/>
+      <c r="A410" s="11"/>
       <c r="E410" s="3"/>
     </row>
     <row r="411" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="1"/>
+      <c r="A411" s="11"/>
       <c r="E411" s="3"/>
     </row>
     <row r="412" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="1"/>
+      <c r="A412" s="11"/>
       <c r="E412" s="3"/>
     </row>
     <row r="413" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="1"/>
+      <c r="A413" s="11"/>
       <c r="E413" s="3"/>
     </row>
     <row r="414" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="1"/>
+      <c r="A414" s="11"/>
       <c r="E414" s="3"/>
     </row>
     <row r="415" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="1"/>
+      <c r="A415" s="11"/>
       <c r="E415" s="3"/>
     </row>
     <row r="416" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="1"/>
+      <c r="A416" s="11"/>
       <c r="E416" s="3"/>
     </row>
     <row r="417" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="1"/>
+      <c r="A417" s="11"/>
       <c r="E417" s="3"/>
     </row>
     <row r="418" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="1"/>
+      <c r="A418" s="11"/>
       <c r="E418" s="3"/>
     </row>
     <row r="419" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="1"/>
+      <c r="A419" s="11"/>
       <c r="E419" s="3"/>
     </row>
     <row r="420" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="1"/>
+      <c r="A420" s="11"/>
       <c r="E420" s="3"/>
     </row>
     <row r="421" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="1"/>
+      <c r="A421" s="11"/>
       <c r="E421" s="3"/>
     </row>
     <row r="422" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="1"/>
+      <c r="A422" s="11"/>
       <c r="E422" s="3"/>
     </row>
     <row r="423" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="1"/>
+      <c r="A423" s="11"/>
       <c r="E423" s="3"/>
     </row>
     <row r="424" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="1"/>
+      <c r="A424" s="11"/>
       <c r="E424" s="3"/>
     </row>
     <row r="425" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="1"/>
+      <c r="A425" s="11"/>
       <c r="E425" s="3"/>
     </row>
     <row r="426" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="1"/>
+      <c r="A426" s="11"/>
       <c r="E426" s="3"/>
     </row>
     <row r="427" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="1"/>
+      <c r="A427" s="11"/>
       <c r="E427" s="3"/>
     </row>
     <row r="428" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="1"/>
+      <c r="A428" s="11"/>
       <c r="E428" s="3"/>
     </row>
     <row r="429" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="1"/>
+      <c r="A429" s="11"/>
       <c r="E429" s="3"/>
     </row>
     <row r="430" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="1"/>
+      <c r="A430" s="11"/>
       <c r="E430" s="3"/>
     </row>
     <row r="431" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="1"/>
+      <c r="A431" s="11"/>
       <c r="E431" s="3"/>
     </row>
     <row r="432" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="1"/>
+      <c r="A432" s="11"/>
       <c r="E432" s="3"/>
     </row>
     <row r="433" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="1"/>
+      <c r="A433" s="11"/>
       <c r="E433" s="3"/>
     </row>
     <row r="434" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="1"/>
+      <c r="A434" s="11"/>
       <c r="E434" s="3"/>
     </row>
     <row r="435" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="1"/>
+      <c r="A435" s="11"/>
       <c r="E435" s="3"/>
     </row>
     <row r="436" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="1"/>
+      <c r="A436" s="11"/>
       <c r="E436" s="3"/>
     </row>
     <row r="437" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="1"/>
+      <c r="A437" s="11"/>
       <c r="E437" s="3"/>
     </row>
     <row r="438" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="1"/>
+      <c r="A438" s="11"/>
       <c r="E438" s="3"/>
     </row>
     <row r="439" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="1"/>
+      <c r="A439" s="11"/>
       <c r="E439" s="3"/>
     </row>
     <row r="440" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="1"/>
+      <c r="A440" s="11"/>
       <c r="E440" s="3"/>
     </row>
     <row r="441" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="1"/>
+      <c r="A441" s="11"/>
       <c r="E441" s="3"/>
     </row>
     <row r="442" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="1"/>
+      <c r="A442" s="11"/>
       <c r="E442" s="3"/>
     </row>
     <row r="443" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="1"/>
+      <c r="A443" s="11"/>
       <c r="E443" s="3"/>
     </row>
     <row r="444" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="1"/>
+      <c r="A444" s="11"/>
       <c r="E444" s="3"/>
     </row>
     <row r="445" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="1"/>
+      <c r="A445" s="11"/>
       <c r="E445" s="3"/>
     </row>
     <row r="446" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="1"/>
+      <c r="A446" s="11"/>
       <c r="E446" s="3"/>
     </row>
     <row r="447" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="1"/>
+      <c r="A447" s="11"/>
       <c r="E447" s="3"/>
     </row>
     <row r="448" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="1"/>
+      <c r="A448" s="11"/>
       <c r="E448" s="3"/>
     </row>
     <row r="449" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="1"/>
+      <c r="A449" s="11"/>
       <c r="E449" s="3"/>
     </row>
     <row r="450" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="1"/>
+      <c r="A450" s="11"/>
       <c r="E450" s="3"/>
     </row>
     <row r="451" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="1"/>
+      <c r="A451" s="11"/>
       <c r="E451" s="3"/>
     </row>
     <row r="452" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="1"/>
+      <c r="A452" s="11"/>
       <c r="E452" s="3"/>
     </row>
     <row r="453" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="1"/>
+      <c r="A453" s="11"/>
       <c r="E453" s="3"/>
     </row>
     <row r="454" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="1"/>
+      <c r="A454" s="11"/>
       <c r="E454" s="3"/>
     </row>
     <row r="455" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="1"/>
+      <c r="A455" s="11"/>
       <c r="E455" s="3"/>
     </row>
     <row r="456" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="1"/>
+      <c r="A456" s="11"/>
       <c r="E456" s="3"/>
     </row>
     <row r="457" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="1"/>
+      <c r="A457" s="11"/>
       <c r="E457" s="3"/>
     </row>
     <row r="458" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="1"/>
+      <c r="A458" s="11"/>
       <c r="E458" s="3"/>
     </row>
     <row r="459" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="1"/>
+      <c r="A459" s="11"/>
       <c r="E459" s="3"/>
     </row>
     <row r="460" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="1"/>
+      <c r="A460" s="11"/>
       <c r="E460" s="3"/>
     </row>
     <row r="461" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="1"/>
+      <c r="A461" s="11"/>
       <c r="E461" s="3"/>
     </row>
     <row r="462" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="1"/>
+      <c r="A462" s="11"/>
       <c r="E462" s="3"/>
     </row>
     <row r="463" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="1"/>
+      <c r="A463" s="11"/>
       <c r="E463" s="3"/>
     </row>
     <row r="464" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="1"/>
+      <c r="A464" s="11"/>
       <c r="E464" s="3"/>
     </row>
     <row r="465" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="1"/>
+      <c r="A465" s="11"/>
       <c r="E465" s="3"/>
     </row>
     <row r="466" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="1"/>
+      <c r="A466" s="11"/>
       <c r="E466" s="3"/>
     </row>
     <row r="467" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="1"/>
+      <c r="A467" s="11"/>
       <c r="E467" s="3"/>
     </row>
     <row r="468" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="1"/>
+      <c r="A468" s="11"/>
       <c r="E468" s="3"/>
     </row>
     <row r="469" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="1"/>
+      <c r="A469" s="11"/>
       <c r="E469" s="3"/>
     </row>
     <row r="470" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="1"/>
+      <c r="A470" s="11"/>
       <c r="E470" s="3"/>
     </row>
     <row r="471" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="1"/>
+      <c r="A471" s="11"/>
       <c r="E471" s="3"/>
     </row>
     <row r="472" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="1"/>
+      <c r="A472" s="11"/>
       <c r="E472" s="3"/>
     </row>
     <row r="473" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="1"/>
+      <c r="A473" s="11"/>
       <c r="E473" s="3"/>
     </row>
     <row r="474" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="1"/>
+      <c r="A474" s="11"/>
       <c r="E474" s="3"/>
     </row>
     <row r="475" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="1"/>
+      <c r="A475" s="11"/>
       <c r="E475" s="3"/>
     </row>
     <row r="476" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="1"/>
+      <c r="A476" s="11"/>
       <c r="E476" s="3"/>
     </row>
     <row r="477" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="1"/>
+      <c r="A477" s="11"/>
       <c r="E477" s="3"/>
     </row>
     <row r="478" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="1"/>
+      <c r="A478" s="11"/>
       <c r="E478" s="3"/>
     </row>
     <row r="479" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="1"/>
+      <c r="A479" s="11"/>
       <c r="E479" s="3"/>
     </row>
     <row r="480" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="1"/>
+      <c r="A480" s="11"/>
       <c r="E480" s="3"/>
     </row>
     <row r="481" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="1"/>
+      <c r="A481" s="11"/>
       <c r="E481" s="3"/>
     </row>
     <row r="482" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="1"/>
+      <c r="A482" s="11"/>
       <c r="E482" s="3"/>
     </row>
     <row r="483" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="1"/>
+      <c r="A483" s="11"/>
       <c r="E483" s="3"/>
     </row>
     <row r="484" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="1"/>
+      <c r="A484" s="11"/>
       <c r="E484" s="3"/>
     </row>
     <row r="485" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="1"/>
+      <c r="A485" s="11"/>
       <c r="E485" s="3"/>
     </row>
     <row r="486" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="1"/>
+      <c r="A486" s="11"/>
       <c r="E486" s="3"/>
     </row>
     <row r="487" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="1"/>
+      <c r="A487" s="11"/>
       <c r="E487" s="3"/>
     </row>
     <row r="488" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="1"/>
+      <c r="A488" s="11"/>
       <c r="E488" s="3"/>
     </row>
     <row r="489" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="1"/>
+      <c r="A489" s="11"/>
       <c r="E489" s="3"/>
     </row>
     <row r="490" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="1"/>
+      <c r="A490" s="11"/>
       <c r="E490" s="3"/>
     </row>
     <row r="491" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="1"/>
+      <c r="A491" s="11"/>
       <c r="E491" s="3"/>
     </row>
     <row r="492" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="1"/>
+      <c r="A492" s="11"/>
       <c r="E492" s="3"/>
     </row>
     <row r="493" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="1"/>
+      <c r="A493" s="11"/>
       <c r="E493" s="3"/>
     </row>
     <row r="494" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="1"/>
+      <c r="A494" s="11"/>
       <c r="E494" s="3"/>
     </row>
     <row r="495" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="1"/>
+      <c r="A495" s="11"/>
       <c r="E495" s="3"/>
     </row>
     <row r="496" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="1"/>
+      <c r="A496" s="11"/>
       <c r="E496" s="3"/>
     </row>
     <row r="497" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="1"/>
+      <c r="A497" s="11"/>
       <c r="E497" s="3"/>
     </row>
     <row r="498" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="1"/>
+      <c r="A498" s="11"/>
       <c r="E498" s="3"/>
     </row>
     <row r="499" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="1"/>
+      <c r="A499" s="11"/>
       <c r="E499" s="3"/>
     </row>
     <row r="500" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="1"/>
+      <c r="A500" s="11"/>
       <c r="E500" s="3"/>
     </row>
     <row r="501" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="1"/>
+      <c r="A501" s="11"/>
       <c r="E501" s="3"/>
     </row>
     <row r="502" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="1"/>
+      <c r="A502" s="11"/>
       <c r="E502" s="3"/>
     </row>
     <row r="503" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="1"/>
+      <c r="A503" s="11"/>
       <c r="E503" s="3"/>
     </row>
     <row r="504" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="1"/>
+      <c r="A504" s="11"/>
       <c r="E504" s="3"/>
     </row>
     <row r="505" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="1"/>
+      <c r="A505" s="11"/>
       <c r="E505" s="3"/>
     </row>
     <row r="506" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="1"/>
+      <c r="A506" s="11"/>
       <c r="E506" s="3"/>
     </row>
     <row r="507" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="1"/>
+      <c r="A507" s="11"/>
       <c r="E507" s="3"/>
     </row>
     <row r="508" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="1"/>
+      <c r="A508" s="11"/>
       <c r="E508" s="3"/>
     </row>
     <row r="509" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="1"/>
+      <c r="A509" s="11"/>
       <c r="E509" s="3"/>
     </row>
     <row r="510" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="1"/>
+      <c r="A510" s="11"/>
       <c r="E510" s="3"/>
     </row>
     <row r="511" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="1"/>
+      <c r="A511" s="11"/>
       <c r="E511" s="3"/>
     </row>
     <row r="512" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="1"/>
+      <c r="A512" s="11"/>
       <c r="E512" s="3"/>
     </row>
     <row r="513" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="1"/>
+      <c r="A513" s="11"/>
       <c r="E513" s="3"/>
     </row>
     <row r="514" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="1"/>
+      <c r="A514" s="11"/>
       <c r="E514" s="3"/>
     </row>
     <row r="515" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="1"/>
+      <c r="A515" s="11"/>
       <c r="E515" s="3"/>
     </row>
     <row r="516" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="1"/>
+      <c r="A516" s="11"/>
       <c r="E516" s="3"/>
     </row>
     <row r="517" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="1"/>
+      <c r="A517" s="11"/>
       <c r="E517" s="3"/>
     </row>
     <row r="518" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="1"/>
+      <c r="A518" s="11"/>
       <c r="E518" s="3"/>
     </row>
     <row r="519" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="1"/>
+      <c r="A519" s="11"/>
       <c r="E519" s="3"/>
     </row>
     <row r="520" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="1"/>
+      <c r="A520" s="11"/>
       <c r="E520" s="3"/>
     </row>
     <row r="521" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="1"/>
+      <c r="A521" s="11"/>
       <c r="E521" s="3"/>
     </row>
     <row r="522" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="1"/>
+      <c r="A522" s="11"/>
       <c r="E522" s="3"/>
     </row>
     <row r="523" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="1"/>
+      <c r="A523" s="11"/>
       <c r="E523" s="3"/>
     </row>
     <row r="524" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="1"/>
+      <c r="A524" s="11"/>
       <c r="E524" s="3"/>
     </row>
     <row r="525" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="1"/>
+      <c r="A525" s="11"/>
       <c r="E525" s="3"/>
     </row>
     <row r="526" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="1"/>
+      <c r="A526" s="11"/>
       <c r="E526" s="3"/>
     </row>
     <row r="527" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="1"/>
+      <c r="A527" s="11"/>
       <c r="E527" s="3"/>
     </row>
     <row r="528" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="1"/>
+      <c r="A528" s="11"/>
       <c r="E528" s="3"/>
     </row>
     <row r="529" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="1"/>
+      <c r="A529" s="11"/>
       <c r="E529" s="3"/>
     </row>
     <row r="530" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="1"/>
+      <c r="A530" s="11"/>
       <c r="E530" s="3"/>
     </row>
     <row r="531" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="1"/>
+      <c r="A531" s="11"/>
       <c r="E531" s="3"/>
     </row>
     <row r="532" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="1"/>
+      <c r="A532" s="11"/>
       <c r="E532" s="3"/>
     </row>
     <row r="533" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="1"/>
+      <c r="A533" s="11"/>
       <c r="E533" s="3"/>
     </row>
     <row r="534" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="1"/>
+      <c r="A534" s="11"/>
       <c r="E534" s="3"/>
     </row>
     <row r="535" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="1"/>
+      <c r="A535" s="11"/>
       <c r="E535" s="3"/>
     </row>
     <row r="536" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="1"/>
+      <c r="A536" s="11"/>
       <c r="E536" s="3"/>
     </row>
     <row r="537" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="1"/>
+      <c r="A537" s="11"/>
       <c r="E537" s="3"/>
     </row>
     <row r="538" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="1"/>
+      <c r="A538" s="11"/>
       <c r="E538" s="3"/>
     </row>
     <row r="539" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="1"/>
+      <c r="A539" s="11"/>
       <c r="E539" s="3"/>
     </row>
     <row r="540" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="1"/>
+      <c r="A540" s="11"/>
       <c r="E540" s="3"/>
     </row>
     <row r="541" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="1"/>
+      <c r="A541" s="11"/>
       <c r="E541" s="3"/>
     </row>
     <row r="542" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="1"/>
+      <c r="A542" s="11"/>
       <c r="E542" s="3"/>
     </row>
     <row r="543" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="1"/>
+      <c r="A543" s="11"/>
       <c r="E543" s="3"/>
     </row>
     <row r="544" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="1"/>
+      <c r="A544" s="11"/>
       <c r="E544" s="3"/>
     </row>
     <row r="545" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="1"/>
+      <c r="A545" s="11"/>
       <c r="E545" s="3"/>
     </row>
     <row r="546" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="1"/>
+      <c r="A546" s="11"/>
       <c r="E546" s="3"/>
     </row>
     <row r="547" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="1"/>
+      <c r="A547" s="11"/>
       <c r="E547" s="3"/>
     </row>
     <row r="548" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="1"/>
+      <c r="A548" s="11"/>
       <c r="E548" s="3"/>
     </row>
     <row r="549" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="1"/>
+      <c r="A549" s="11"/>
       <c r="E549" s="3"/>
     </row>
     <row r="550" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="1"/>
+      <c r="A550" s="11"/>
       <c r="E550" s="3"/>
     </row>
     <row r="551" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="1"/>
+      <c r="A551" s="11"/>
       <c r="E551" s="3"/>
     </row>
     <row r="552" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="1"/>
+      <c r="A552" s="11"/>
       <c r="E552" s="3"/>
     </row>
     <row r="553" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="1"/>
+      <c r="A553" s="11"/>
       <c r="E553" s="3"/>
     </row>
     <row r="554" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="1"/>
+      <c r="A554" s="11"/>
       <c r="E554" s="3"/>
     </row>
     <row r="555" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="1"/>
+      <c r="A555" s="11"/>
       <c r="E555" s="3"/>
     </row>
     <row r="556" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="1"/>
+      <c r="A556" s="11"/>
       <c r="E556" s="3"/>
     </row>
     <row r="557" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="1"/>
+      <c r="A557" s="11"/>
       <c r="E557" s="3"/>
     </row>
     <row r="558" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="1"/>
+      <c r="A558" s="11"/>
       <c r="E558" s="3"/>
     </row>
     <row r="559" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="1"/>
+      <c r="A559" s="11"/>
       <c r="E559" s="3"/>
     </row>
     <row r="560" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="1"/>
+      <c r="A560" s="11"/>
       <c r="E560" s="3"/>
     </row>
     <row r="561" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="1"/>
+      <c r="A561" s="11"/>
       <c r="E561" s="3"/>
     </row>
     <row r="562" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="1"/>
+      <c r="A562" s="11"/>
       <c r="E562" s="3"/>
     </row>
     <row r="563" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="1"/>
+      <c r="A563" s="11"/>
       <c r="E563" s="3"/>
     </row>
     <row r="564" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="1"/>
+      <c r="A564" s="11"/>
       <c r="E564" s="3"/>
     </row>
     <row r="565" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="1"/>
+      <c r="A565" s="11"/>
       <c r="E565" s="3"/>
     </row>
     <row r="566" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="1"/>
+      <c r="A566" s="11"/>
       <c r="E566" s="3"/>
     </row>
     <row r="567" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="1"/>
+      <c r="A567" s="11"/>
       <c r="E567" s="3"/>
     </row>
     <row r="568" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A568" s="1"/>
+      <c r="A568" s="11"/>
       <c r="E568" s="3"/>
     </row>
     <row r="569" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="1"/>
+      <c r="A569" s="11"/>
       <c r="E569" s="3"/>
     </row>
     <row r="570" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="1"/>
+      <c r="A570" s="11"/>
       <c r="E570" s="3"/>
     </row>
     <row r="571" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A571" s="1"/>
+      <c r="A571" s="11"/>
       <c r="E571" s="3"/>
     </row>
     <row r="572" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="1"/>
+      <c r="A572" s="11"/>
       <c r="E572" s="3"/>
     </row>
     <row r="573" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="1"/>
+      <c r="A573" s="11"/>
       <c r="E573" s="3"/>
     </row>
     <row r="574" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="1"/>
+      <c r="A574" s="11"/>
       <c r="E574" s="3"/>
     </row>
     <row r="575" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="1"/>
+      <c r="A575" s="11"/>
       <c r="E575" s="3"/>
     </row>
     <row r="576" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="1"/>
+      <c r="A576" s="11"/>
       <c r="E576" s="3"/>
     </row>
     <row r="577" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="1"/>
+      <c r="A577" s="11"/>
       <c r="E577" s="3"/>
     </row>
     <row r="578" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="1"/>
+      <c r="A578" s="11"/>
       <c r="E578" s="3"/>
     </row>
     <row r="579" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="1"/>
+      <c r="A579" s="11"/>
       <c r="E579" s="3"/>
     </row>
     <row r="580" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="1"/>
+      <c r="A580" s="11"/>
       <c r="E580" s="3"/>
     </row>
     <row r="581" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="1"/>
+      <c r="A581" s="11"/>
       <c r="E581" s="3"/>
     </row>
     <row r="582" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="1"/>
+      <c r="A582" s="11"/>
       <c r="E582" s="3"/>
     </row>
     <row r="583" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="1"/>
+      <c r="A583" s="11"/>
       <c r="E583" s="3"/>
     </row>
     <row r="584" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="1"/>
+      <c r="A584" s="11"/>
       <c r="E584" s="3"/>
     </row>
     <row r="585" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="1"/>
+      <c r="A585" s="11"/>
       <c r="E585" s="3"/>
     </row>
     <row r="586" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="1"/>
+      <c r="A586" s="11"/>
       <c r="E586" s="3"/>
     </row>
     <row r="587" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="1"/>
+      <c r="A587" s="11"/>
       <c r="E587" s="3"/>
     </row>
     <row r="588" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="1"/>
+      <c r="A588" s="11"/>
       <c r="E588" s="3"/>
     </row>
     <row r="589" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="1"/>
+      <c r="A589" s="11"/>
       <c r="E589" s="3"/>
     </row>
     <row r="590" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="1"/>
+      <c r="A590" s="11"/>
       <c r="E590" s="3"/>
     </row>
     <row r="591" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A591" s="1"/>
+      <c r="A591" s="11"/>
       <c r="E591" s="3"/>
     </row>
     <row r="592" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A592" s="1"/>
+      <c r="A592" s="11"/>
       <c r="E592" s="3"/>
     </row>
     <row r="593" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="1"/>
+      <c r="A593" s="11"/>
       <c r="E593" s="3"/>
     </row>
     <row r="594" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A594" s="1"/>
+      <c r="A594" s="11"/>
       <c r="E594" s="3"/>
     </row>
     <row r="595" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="1"/>
+      <c r="A595" s="11"/>
       <c r="E595" s="3"/>
     </row>
     <row r="596" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A596" s="1"/>
+      <c r="A596" s="11"/>
       <c r="E596" s="3"/>
     </row>
     <row r="597" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A597" s="1"/>
+      <c r="A597" s="11"/>
       <c r="E597" s="3"/>
     </row>
     <row r="598" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="1"/>
+      <c r="A598" s="11"/>
       <c r="E598" s="3"/>
     </row>
     <row r="599" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="1"/>
+      <c r="A599" s="11"/>
       <c r="E599" s="3"/>
     </row>
     <row r="600" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="1"/>
+      <c r="A600" s="11"/>
       <c r="E600" s="3"/>
     </row>
     <row r="601" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="1"/>
+      <c r="A601" s="11"/>
       <c r="E601" s="3"/>
     </row>
     <row r="602" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A602" s="1"/>
+      <c r="A602" s="11"/>
       <c r="E602" s="3"/>
     </row>
     <row r="603" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A603" s="1"/>
+      <c r="A603" s="11"/>
       <c r="E603" s="3"/>
     </row>
     <row r="604" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A604" s="1"/>
+      <c r="A604" s="11"/>
       <c r="E604" s="3"/>
     </row>
     <row r="605" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A605" s="1"/>
+      <c r="A605" s="11"/>
       <c r="E605" s="3"/>
     </row>
     <row r="606" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A606" s="1"/>
+      <c r="A606" s="11"/>
       <c r="E606" s="3"/>
     </row>
     <row r="607" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A607" s="1"/>
+      <c r="A607" s="11"/>
       <c r="E607" s="3"/>
     </row>
     <row r="608" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A608" s="1"/>
+      <c r="A608" s="11"/>
       <c r="E608" s="3"/>
     </row>
     <row r="609" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A609" s="1"/>
+      <c r="A609" s="11"/>
       <c r="E609" s="3"/>
     </row>
     <row r="610" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A610" s="1"/>
+      <c r="A610" s="11"/>
       <c r="E610" s="3"/>
     </row>
     <row r="611" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A611" s="1"/>
+      <c r="A611" s="11"/>
       <c r="E611" s="3"/>
     </row>
     <row r="612" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A612" s="1"/>
+      <c r="A612" s="11"/>
       <c r="E612" s="3"/>
     </row>
     <row r="613" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A613" s="1"/>
+      <c r="A613" s="11"/>
       <c r="E613" s="3"/>
     </row>
     <row r="614" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="1"/>
+      <c r="A614" s="11"/>
       <c r="E614" s="3"/>
     </row>
     <row r="615" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="1"/>
+      <c r="A615" s="11"/>
       <c r="E615" s="3"/>
     </row>
     <row r="616" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A616" s="1"/>
+      <c r="A616" s="11"/>
       <c r="E616" s="3"/>
     </row>
     <row r="617" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A617" s="1"/>
+      <c r="A617" s="11"/>
       <c r="E617" s="3"/>
     </row>
     <row r="618" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A618" s="1"/>
+      <c r="A618" s="11"/>
       <c r="E618" s="3"/>
     </row>
     <row r="619" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A619" s="1"/>
+      <c r="A619" s="11"/>
       <c r="E619" s="3"/>
     </row>
     <row r="620" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A620" s="1"/>
+      <c r="A620" s="11"/>
       <c r="E620" s="3"/>
     </row>
     <row r="621" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A621" s="1"/>
+      <c r="A621" s="11"/>
       <c r="E621" s="3"/>
     </row>
     <row r="622" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A622" s="1"/>
+      <c r="A622" s="11"/>
       <c r="E622" s="3"/>
     </row>
     <row r="623" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A623" s="1"/>
+      <c r="A623" s="11"/>
       <c r="E623" s="3"/>
     </row>
     <row r="624" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A624" s="1"/>
+      <c r="A624" s="11"/>
       <c r="E624" s="3"/>
     </row>
     <row r="625" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A625" s="1"/>
+      <c r="A625" s="11"/>
       <c r="E625" s="3"/>
     </row>
     <row r="626" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A626" s="1"/>
+      <c r="A626" s="11"/>
       <c r="E626" s="3"/>
     </row>
     <row r="627" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A627" s="1"/>
+      <c r="A627" s="11"/>
       <c r="E627" s="3"/>
     </row>
     <row r="628" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A628" s="1"/>
+      <c r="A628" s="11"/>
       <c r="E628" s="3"/>
     </row>
     <row r="629" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A629" s="1"/>
+      <c r="A629" s="11"/>
       <c r="E629" s="3"/>
     </row>
     <row r="630" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A630" s="1"/>
+      <c r="A630" s="11"/>
       <c r="E630" s="3"/>
     </row>
     <row r="631" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A631" s="1"/>
+      <c r="A631" s="11"/>
       <c r="E631" s="3"/>
     </row>
     <row r="632" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A632" s="1"/>
+      <c r="A632" s="11"/>
       <c r="E632" s="3"/>
     </row>
     <row r="633" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A633" s="1"/>
+      <c r="A633" s="11"/>
       <c r="E633" s="3"/>
     </row>
     <row r="634" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A634" s="1"/>
+      <c r="A634" s="11"/>
       <c r="E634" s="3"/>
     </row>
     <row r="635" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A635" s="1"/>
+      <c r="A635" s="11"/>
       <c r="E635" s="3"/>
     </row>
     <row r="636" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A636" s="1"/>
+      <c r="A636" s="11"/>
       <c r="E636" s="3"/>
     </row>
     <row r="637" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A637" s="1"/>
+      <c r="A637" s="11"/>
       <c r="E637" s="3"/>
     </row>
     <row r="638" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A638" s="1"/>
+      <c r="A638" s="11"/>
       <c r="E638" s="3"/>
     </row>
     <row r="639" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A639" s="1"/>
+      <c r="A639" s="11"/>
       <c r="E639" s="3"/>
     </row>
     <row r="640" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A640" s="1"/>
+      <c r="A640" s="11"/>
       <c r="E640" s="3"/>
     </row>
     <row r="641" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A641" s="1"/>
+      <c r="A641" s="11"/>
       <c r="E641" s="3"/>
     </row>
     <row r="642" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A642" s="1"/>
+      <c r="A642" s="11"/>
       <c r="E642" s="3"/>
     </row>
     <row r="643" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A643" s="1"/>
+      <c r="A643" s="11"/>
       <c r="E643" s="3"/>
     </row>
     <row r="644" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A644" s="1"/>
+      <c r="A644" s="11"/>
       <c r="E644" s="3"/>
     </row>
     <row r="645" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A645" s="1"/>
+      <c r="A645" s="11"/>
       <c r="E645" s="3"/>
     </row>
     <row r="646" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A646" s="1"/>
+      <c r="A646" s="11"/>
       <c r="E646" s="3"/>
     </row>
     <row r="647" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A647" s="1"/>
+      <c r="A647" s="11"/>
       <c r="E647" s="3"/>
     </row>
     <row r="648" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A648" s="1"/>
+      <c r="A648" s="11"/>
       <c r="E648" s="3"/>
     </row>
     <row r="649" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A649" s="1"/>
+      <c r="A649" s="11"/>
       <c r="E649" s="3"/>
     </row>
     <row r="650" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A650" s="1"/>
+      <c r="A650" s="11"/>
       <c r="E650" s="3"/>
     </row>
     <row r="651" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A651" s="1"/>
+      <c r="A651" s="11"/>
       <c r="E651" s="3"/>
     </row>
     <row r="652" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A652" s="1"/>
+      <c r="A652" s="11"/>
       <c r="E652" s="3"/>
     </row>
     <row r="653" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A653" s="1"/>
+      <c r="A653" s="11"/>
       <c r="E653" s="3"/>
     </row>
     <row r="654" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A654" s="1"/>
+      <c r="A654" s="11"/>
       <c r="E654" s="3"/>
     </row>
     <row r="655" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A655" s="1"/>
+      <c r="A655" s="11"/>
       <c r="E655" s="3"/>
     </row>
     <row r="656" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A656" s="1"/>
+      <c r="A656" s="11"/>
       <c r="E656" s="3"/>
     </row>
     <row r="657" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A657" s="1"/>
+      <c r="A657" s="11"/>
       <c r="E657" s="3"/>
     </row>
     <row r="658" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A658" s="1"/>
+      <c r="A658" s="11"/>
       <c r="E658" s="3"/>
     </row>
     <row r="659" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A659" s="1"/>
+      <c r="A659" s="11"/>
       <c r="E659" s="3"/>
     </row>
     <row r="660" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A660" s="1"/>
+      <c r="A660" s="11"/>
       <c r="E660" s="3"/>
     </row>
     <row r="661" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A661" s="1"/>
+      <c r="A661" s="11"/>
       <c r="E661" s="3"/>
     </row>
     <row r="662" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A662" s="1"/>
+      <c r="A662" s="11"/>
       <c r="E662" s="3"/>
     </row>
     <row r="663" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A663" s="1"/>
+      <c r="A663" s="11"/>
       <c r="E663" s="3"/>
     </row>
     <row r="664" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A664" s="1"/>
+      <c r="A664" s="11"/>
       <c r="E664" s="3"/>
     </row>
     <row r="665" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A665" s="1"/>
+      <c r="A665" s="11"/>
       <c r="E665" s="3"/>
     </row>
     <row r="666" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A666" s="1"/>
+      <c r="A666" s="11"/>
       <c r="E666" s="3"/>
     </row>
     <row r="667" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A667" s="1"/>
+      <c r="A667" s="11"/>
       <c r="E667" s="3"/>
     </row>
     <row r="668" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A668" s="1"/>
+      <c r="A668" s="11"/>
       <c r="E668" s="3"/>
     </row>
     <row r="669" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A669" s="1"/>
+      <c r="A669" s="11"/>
       <c r="E669" s="3"/>
     </row>
     <row r="670" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A670" s="1"/>
+      <c r="A670" s="11"/>
       <c r="E670" s="3"/>
     </row>
     <row r="671" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A671" s="1"/>
+      <c r="A671" s="11"/>
       <c r="E671" s="3"/>
     </row>
     <row r="672" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A672" s="1"/>
+      <c r="A672" s="11"/>
       <c r="E672" s="3"/>
     </row>
     <row r="673" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A673" s="1"/>
+      <c r="A673" s="11"/>
       <c r="E673" s="3"/>
     </row>
     <row r="674" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A674" s="1"/>
+      <c r="A674" s="11"/>
       <c r="E674" s="3"/>
     </row>
     <row r="675" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A675" s="1"/>
+      <c r="A675" s="11"/>
       <c r="E675" s="3"/>
     </row>
     <row r="676" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A676" s="1"/>
+      <c r="A676" s="11"/>
       <c r="E676" s="3"/>
     </row>
     <row r="677" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A677" s="1"/>
+      <c r="A677" s="11"/>
       <c r="E677" s="3"/>
     </row>
     <row r="678" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A678" s="1"/>
+      <c r="A678" s="11"/>
       <c r="E678" s="3"/>
     </row>
     <row r="679" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A679" s="1"/>
+      <c r="A679" s="11"/>
       <c r="E679" s="3"/>
     </row>
     <row r="680" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A680" s="1"/>
+      <c r="A680" s="11"/>
       <c r="E680" s="3"/>
     </row>
     <row r="681" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A681" s="1"/>
+      <c r="A681" s="11"/>
       <c r="E681" s="3"/>
     </row>
     <row r="682" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A682" s="1"/>
+      <c r="A682" s="11"/>
       <c r="E682" s="3"/>
     </row>
     <row r="683" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A683" s="1"/>
+      <c r="A683" s="11"/>
       <c r="E683" s="3"/>
     </row>
     <row r="684" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A684" s="1"/>
+      <c r="A684" s="11"/>
       <c r="E684" s="3"/>
     </row>
     <row r="685" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A685" s="1"/>
+      <c r="A685" s="11"/>
       <c r="E685" s="3"/>
     </row>
     <row r="686" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A686" s="1"/>
+      <c r="A686" s="11"/>
       <c r="E686" s="3"/>
     </row>
     <row r="687" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A687" s="1"/>
+      <c r="A687" s="11"/>
       <c r="E687" s="3"/>
     </row>
     <row r="688" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A688" s="1"/>
+      <c r="A688" s="11"/>
       <c r="E688" s="3"/>
     </row>
     <row r="689" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A689" s="1"/>
+      <c r="A689" s="11"/>
       <c r="E689" s="3"/>
     </row>
     <row r="690" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A690" s="1"/>
+      <c r="A690" s="11"/>
       <c r="E690" s="3"/>
     </row>
     <row r="691" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A691" s="1"/>
+      <c r="A691" s="11"/>
       <c r="E691" s="3"/>
     </row>
     <row r="692" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A692" s="1"/>
+      <c r="A692" s="11"/>
       <c r="E692" s="3"/>
     </row>
     <row r="693" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A693" s="1"/>
+      <c r="A693" s="11"/>
       <c r="E693" s="3"/>
     </row>
     <row r="694" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A694" s="1"/>
+      <c r="A694" s="11"/>
       <c r="E694" s="3"/>
     </row>
     <row r="695" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A695" s="1"/>
+      <c r="A695" s="11"/>
       <c r="E695" s="3"/>
     </row>
     <row r="696" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A696" s="1"/>
+      <c r="A696" s="11"/>
       <c r="E696" s="3"/>
     </row>
     <row r="697" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A697" s="1"/>
+      <c r="A697" s="11"/>
       <c r="E697" s="3"/>
     </row>
     <row r="698" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A698" s="1"/>
+      <c r="A698" s="11"/>
       <c r="E698" s="3"/>
     </row>
     <row r="699" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A699" s="1"/>
+      <c r="A699" s="11"/>
       <c r="E699" s="3"/>
     </row>
     <row r="700" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A700" s="1"/>
+      <c r="A700" s="11"/>
       <c r="E700" s="3"/>
     </row>
     <row r="701" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A701" s="1"/>
+      <c r="A701" s="11"/>
       <c r="E701" s="3"/>
     </row>
     <row r="702" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A702" s="1"/>
+      <c r="A702" s="11"/>
       <c r="E702" s="3"/>
     </row>
     <row r="703" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A703" s="1"/>
+      <c r="A703" s="11"/>
       <c r="E703" s="3"/>
     </row>
     <row r="704" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A704" s="1"/>
+      <c r="A704" s="11"/>
       <c r="E704" s="3"/>
     </row>
     <row r="705" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A705" s="1"/>
+      <c r="A705" s="11"/>
       <c r="E705" s="3"/>
     </row>
     <row r="706" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A706" s="1"/>
+      <c r="A706" s="11"/>
       <c r="E706" s="3"/>
     </row>
     <row r="707" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A707" s="1"/>
+      <c r="A707" s="11"/>
       <c r="E707" s="3"/>
     </row>
     <row r="708" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A708" s="1"/>
+      <c r="A708" s="11"/>
       <c r="E708" s="3"/>
     </row>
     <row r="709" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A709" s="1"/>
+      <c r="A709" s="11"/>
       <c r="E709" s="3"/>
     </row>
     <row r="710" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A710" s="1"/>
+      <c r="A710" s="11"/>
       <c r="E710" s="3"/>
     </row>
     <row r="711" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A711" s="1"/>
+      <c r="A711" s="11"/>
       <c r="E711" s="3"/>
     </row>
     <row r="712" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A712" s="1"/>
+      <c r="A712" s="11"/>
       <c r="E712" s="3"/>
     </row>
     <row r="713" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A713" s="1"/>
+      <c r="A713" s="11"/>
       <c r="E713" s="3"/>
     </row>
     <row r="714" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A714" s="1"/>
+      <c r="A714" s="11"/>
       <c r="E714" s="3"/>
     </row>
     <row r="715" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A715" s="1"/>
+      <c r="A715" s="11"/>
       <c r="E715" s="3"/>
     </row>
     <row r="716" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A716" s="1"/>
+      <c r="A716" s="11"/>
       <c r="E716" s="3"/>
     </row>
     <row r="717" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A717" s="1"/>
+      <c r="A717" s="11"/>
       <c r="E717" s="3"/>
     </row>
     <row r="718" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A718" s="1"/>
+      <c r="A718" s="11"/>
       <c r="E718" s="3"/>
     </row>
     <row r="719" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A719" s="1"/>
+      <c r="A719" s="11"/>
       <c r="E719" s="3"/>
     </row>
     <row r="720" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A720" s="1"/>
+      <c r="A720" s="11"/>
       <c r="E720" s="3"/>
     </row>
     <row r="721" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A721" s="1"/>
+      <c r="A721" s="11"/>
       <c r="E721" s="3"/>
     </row>
     <row r="722" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A722" s="1"/>
+      <c r="A722" s="11"/>
       <c r="E722" s="3"/>
     </row>
     <row r="723" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A723" s="1"/>
+      <c r="A723" s="11"/>
       <c r="E723" s="3"/>
     </row>
     <row r="724" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A724" s="1"/>
+      <c r="A724" s="11"/>
       <c r="E724" s="3"/>
     </row>
     <row r="725" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A725" s="1"/>
+      <c r="A725" s="11"/>
       <c r="E725" s="3"/>
     </row>
     <row r="726" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A726" s="1"/>
+      <c r="A726" s="11"/>
       <c r="E726" s="3"/>
     </row>
     <row r="727" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A727" s="1"/>
+      <c r="A727" s="11"/>
       <c r="E727" s="3"/>
     </row>
     <row r="728" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A728" s="1"/>
+      <c r="A728" s="11"/>
       <c r="E728" s="3"/>
     </row>
     <row r="729" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A729" s="1"/>
+      <c r="A729" s="11"/>
       <c r="E729" s="3"/>
     </row>
     <row r="730" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A730" s="1"/>
+      <c r="A730" s="11"/>
       <c r="E730" s="3"/>
     </row>
     <row r="731" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A731" s="1"/>
+      <c r="A731" s="11"/>
       <c r="E731" s="3"/>
     </row>
     <row r="732" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A732" s="1"/>
+      <c r="A732" s="11"/>
       <c r="E732" s="3"/>
     </row>
     <row r="733" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A733" s="1"/>
+      <c r="A733" s="11"/>
       <c r="E733" s="3"/>
     </row>
     <row r="734" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A734" s="1"/>
+      <c r="A734" s="11"/>
       <c r="E734" s="3"/>
     </row>
     <row r="735" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A735" s="1"/>
+      <c r="A735" s="11"/>
       <c r="E735" s="3"/>
     </row>
     <row r="736" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A736" s="1"/>
+      <c r="A736" s="11"/>
       <c r="E736" s="3"/>
     </row>
     <row r="737" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A737" s="1"/>
+      <c r="A737" s="11"/>
       <c r="E737" s="3"/>
     </row>
     <row r="738" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A738" s="1"/>
+      <c r="A738" s="11"/>
       <c r="E738" s="3"/>
     </row>
     <row r="739" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A739" s="1"/>
+      <c r="A739" s="11"/>
       <c r="E739" s="3"/>
     </row>
     <row r="740" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A740" s="1"/>
+      <c r="A740" s="11"/>
       <c r="E740" s="3"/>
     </row>
     <row r="741" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A741" s="1"/>
+      <c r="A741" s="11"/>
       <c r="E741" s="3"/>
     </row>
     <row r="742" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A742" s="1"/>
+      <c r="A742" s="11"/>
       <c r="E742" s="3"/>
     </row>
     <row r="743" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A743" s="1"/>
+      <c r="A743" s="11"/>
       <c r="E743" s="3"/>
     </row>
     <row r="744" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A744" s="1"/>
+      <c r="A744" s="11"/>
       <c r="E744" s="3"/>
     </row>
     <row r="745" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A745" s="1"/>
+      <c r="A745" s="11"/>
       <c r="E745" s="3"/>
     </row>
     <row r="746" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A746" s="1"/>
+      <c r="A746" s="11"/>
       <c r="E746" s="3"/>
     </row>
     <row r="747" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A747" s="1"/>
+      <c r="A747" s="11"/>
       <c r="E747" s="3"/>
     </row>
     <row r="748" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A748" s="1"/>
+      <c r="A748" s="11"/>
       <c r="E748" s="3"/>
     </row>
     <row r="749" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A749" s="1"/>
+      <c r="A749" s="11"/>
       <c r="E749" s="3"/>
     </row>
     <row r="750" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A750" s="1"/>
+      <c r="A750" s="11"/>
       <c r="E750" s="3"/>
     </row>
     <row r="751" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A751" s="1"/>
+      <c r="A751" s="11"/>
       <c r="E751" s="3"/>
     </row>
     <row r="752" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A752" s="1"/>
+      <c r="A752" s="11"/>
       <c r="E752" s="3"/>
     </row>
     <row r="753" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A753" s="1"/>
+      <c r="A753" s="11"/>
       <c r="E753" s="3"/>
     </row>
     <row r="754" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A754" s="1"/>
+      <c r="A754" s="11"/>
       <c r="E754" s="3"/>
     </row>
     <row r="755" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A755" s="1"/>
+      <c r="A755" s="11"/>
       <c r="E755" s="3"/>
     </row>
     <row r="756" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A756" s="1"/>
+      <c r="A756" s="11"/>
       <c r="E756" s="3"/>
     </row>
     <row r="757" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A757" s="1"/>
+      <c r="A757" s="11"/>
       <c r="E757" s="3"/>
     </row>
     <row r="758" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A758" s="1"/>
+      <c r="A758" s="11"/>
       <c r="E758" s="3"/>
     </row>
     <row r="759" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A759" s="1"/>
+      <c r="A759" s="11"/>
       <c r="E759" s="3"/>
     </row>
     <row r="760" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A760" s="1"/>
+      <c r="A760" s="11"/>
       <c r="E760" s="3"/>
     </row>
     <row r="761" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A761" s="1"/>
+      <c r="A761" s="11"/>
       <c r="E761" s="3"/>
     </row>
     <row r="762" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A762" s="1"/>
+      <c r="A762" s="11"/>
       <c r="E762" s="3"/>
     </row>
     <row r="763" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A763" s="1"/>
+      <c r="A763" s="11"/>
       <c r="E763" s="3"/>
     </row>
     <row r="764" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A764" s="1"/>
+      <c r="A764" s="11"/>
       <c r="E764" s="3"/>
     </row>
     <row r="765" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A765" s="1"/>
+      <c r="A765" s="11"/>
       <c r="E765" s="3"/>
     </row>
     <row r="766" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A766" s="1"/>
+      <c r="A766" s="11"/>
       <c r="E766" s="3"/>
     </row>
     <row r="767" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A767" s="1"/>
+      <c r="A767" s="11"/>
       <c r="E767" s="3"/>
     </row>
     <row r="768" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A768" s="1"/>
+      <c r="A768" s="11"/>
       <c r="E768" s="3"/>
     </row>
     <row r="769" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A769" s="1"/>
+      <c r="A769" s="11"/>
       <c r="E769" s="3"/>
     </row>
     <row r="770" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A770" s="1"/>
+      <c r="A770" s="11"/>
       <c r="E770" s="3"/>
     </row>
     <row r="771" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A771" s="1"/>
+      <c r="A771" s="11"/>
       <c r="E771" s="3"/>
     </row>
     <row r="772" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A772" s="1"/>
+      <c r="A772" s="11"/>
       <c r="E772" s="3"/>
     </row>
     <row r="773" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A773" s="1"/>
+      <c r="A773" s="11"/>
       <c r="E773" s="3"/>
     </row>
     <row r="774" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A774" s="1"/>
+      <c r="A774" s="11"/>
       <c r="E774" s="3"/>
     </row>
     <row r="775" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A775" s="1"/>
+      <c r="A775" s="11"/>
       <c r="E775" s="3"/>
     </row>
     <row r="776" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A776" s="1"/>
+      <c r="A776" s="11"/>
       <c r="E776" s="3"/>
     </row>
     <row r="777" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A777" s="1"/>
+      <c r="A777" s="11"/>
       <c r="E777" s="3"/>
     </row>
     <row r="778" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A778" s="1"/>
+      <c r="A778" s="11"/>
       <c r="E778" s="3"/>
     </row>
     <row r="779" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A779" s="1"/>
+      <c r="A779" s="11"/>
       <c r="E779" s="3"/>
     </row>
     <row r="780" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A780" s="1"/>
+      <c r="A780" s="11"/>
       <c r="E780" s="3"/>
     </row>
     <row r="781" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A781" s="1"/>
+      <c r="A781" s="11"/>
       <c r="E781" s="3"/>
     </row>
     <row r="782" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A782" s="1"/>
+      <c r="A782" s="11"/>
       <c r="E782" s="3"/>
     </row>
     <row r="783" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A783" s="1"/>
+      <c r="A783" s="11"/>
       <c r="E783" s="3"/>
     </row>
     <row r="784" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A784" s="1"/>
+      <c r="A784" s="11"/>
       <c r="E784" s="3"/>
     </row>
     <row r="785" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A785" s="1"/>
+      <c r="A785" s="11"/>
       <c r="E785" s="3"/>
     </row>
     <row r="786" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A786" s="1"/>
+      <c r="A786" s="11"/>
       <c r="E786" s="3"/>
     </row>
     <row r="787" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A787" s="1"/>
+      <c r="A787" s="11"/>
       <c r="E787" s="3"/>
     </row>
     <row r="788" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A788" s="1"/>
+      <c r="A788" s="11"/>
       <c r="E788" s="3"/>
     </row>
     <row r="789" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A789" s="1"/>
+      <c r="A789" s="11"/>
       <c r="E789" s="3"/>
     </row>
     <row r="790" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A790" s="1"/>
+      <c r="A790" s="11"/>
       <c r="E790" s="3"/>
     </row>
     <row r="791" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A791" s="1"/>
+      <c r="A791" s="11"/>
       <c r="E791" s="3"/>
     </row>
     <row r="792" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A792" s="1"/>
+      <c r="A792" s="11"/>
       <c r="E792" s="3"/>
     </row>
     <row r="793" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A793" s="1"/>
+      <c r="A793" s="11"/>
       <c r="E793" s="3"/>
     </row>
     <row r="794" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A794" s="1"/>
+      <c r="A794" s="11"/>
       <c r="E794" s="3"/>
     </row>
     <row r="795" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A795" s="1"/>
+      <c r="A795" s="11"/>
       <c r="E795" s="3"/>
     </row>
     <row r="796" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A796" s="1"/>
+      <c r="A796" s="11"/>
       <c r="E796" s="3"/>
     </row>
     <row r="797" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A797" s="1"/>
+      <c r="A797" s="11"/>
       <c r="E797" s="3"/>
     </row>
     <row r="798" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A798" s="1"/>
+      <c r="A798" s="11"/>
       <c r="E798" s="3"/>
     </row>
     <row r="799" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A799" s="1"/>
+      <c r="A799" s="11"/>
       <c r="E799" s="3"/>
     </row>
     <row r="800" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A800" s="1"/>
+      <c r="A800" s="11"/>
       <c r="E800" s="3"/>
     </row>
     <row r="801" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A801" s="1"/>
+      <c r="A801" s="11"/>
       <c r="E801" s="3"/>
     </row>
     <row r="802" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A802" s="1"/>
+      <c r="A802" s="11"/>
       <c r="E802" s="3"/>
     </row>
     <row r="803" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A803" s="1"/>
+      <c r="A803" s="11"/>
       <c r="E803" s="3"/>
     </row>
     <row r="804" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A804" s="1"/>
+      <c r="A804" s="11"/>
       <c r="E804" s="3"/>
     </row>
     <row r="805" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A805" s="1"/>
+      <c r="A805" s="11"/>
       <c r="E805" s="3"/>
     </row>
     <row r="806" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A806" s="1"/>
+      <c r="A806" s="11"/>
       <c r="E806" s="3"/>
     </row>
     <row r="807" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A807" s="1"/>
+      <c r="A807" s="11"/>
       <c r="E807" s="3"/>
     </row>
     <row r="808" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A808" s="1"/>
+      <c r="A808" s="11"/>
       <c r="E808" s="3"/>
     </row>
     <row r="809" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A809" s="1"/>
+      <c r="A809" s="11"/>
       <c r="E809" s="3"/>
     </row>
     <row r="810" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A810" s="1"/>
+      <c r="A810" s="11"/>
       <c r="E810" s="3"/>
     </row>
     <row r="811" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A811" s="1"/>
+      <c r="A811" s="11"/>
       <c r="E811" s="3"/>
     </row>
     <row r="812" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A812" s="1"/>
+      <c r="A812" s="11"/>
       <c r="E812" s="3"/>
     </row>
     <row r="813" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A813" s="1"/>
+      <c r="A813" s="11"/>
       <c r="E813" s="3"/>
     </row>
     <row r="814" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A814" s="1"/>
+      <c r="A814" s="11"/>
       <c r="E814" s="3"/>
     </row>
     <row r="815" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A815" s="1"/>
+      <c r="A815" s="11"/>
       <c r="E815" s="3"/>
     </row>
     <row r="816" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A816" s="1"/>
+      <c r="A816" s="11"/>
       <c r="E816" s="3"/>
     </row>
     <row r="817" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A817" s="1"/>
+      <c r="A817" s="11"/>
       <c r="E817" s="3"/>
     </row>
     <row r="818" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A818" s="1"/>
+      <c r="A818" s="11"/>
       <c r="E818" s="3"/>
     </row>
     <row r="819" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A819" s="1"/>
+      <c r="A819" s="11"/>
       <c r="E819" s="3"/>
     </row>
     <row r="820" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A820" s="1"/>
+      <c r="A820" s="11"/>
       <c r="E820" s="3"/>
     </row>
     <row r="821" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A821" s="1"/>
+      <c r="A821" s="11"/>
       <c r="E821" s="3"/>
     </row>
     <row r="822" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A822" s="1"/>
+      <c r="A822" s="11"/>
       <c r="E822" s="3"/>
     </row>
     <row r="823" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A823" s="1"/>
+      <c r="A823" s="11"/>
       <c r="E823" s="3"/>
     </row>
     <row r="824" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A824" s="1"/>
+      <c r="A824" s="11"/>
       <c r="E824" s="3"/>
     </row>
     <row r="825" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A825" s="1"/>
+      <c r="A825" s="11"/>
       <c r="E825" s="3"/>
     </row>
     <row r="826" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A826" s="1"/>
+      <c r="A826" s="11"/>
       <c r="E826" s="3"/>
     </row>
     <row r="827" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A827" s="1"/>
+      <c r="A827" s="11"/>
       <c r="E827" s="3"/>
     </row>
     <row r="828" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A828" s="1"/>
+      <c r="A828" s="11"/>
       <c r="E828" s="3"/>
     </row>
     <row r="829" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A829" s="1"/>
+      <c r="A829" s="11"/>
       <c r="E829" s="3"/>
     </row>
     <row r="830" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A830" s="1"/>
+      <c r="A830" s="11"/>
       <c r="E830" s="3"/>
     </row>
     <row r="831" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A831" s="1"/>
+      <c r="A831" s="11"/>
       <c r="E831" s="3"/>
     </row>
     <row r="832" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A832" s="1"/>
+      <c r="A832" s="11"/>
       <c r="E832" s="3"/>
     </row>
     <row r="833" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A833" s="1"/>
+      <c r="A833" s="11"/>
       <c r="E833" s="3"/>
     </row>
     <row r="834" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A834" s="1"/>
+      <c r="A834" s="11"/>
       <c r="E834" s="3"/>
     </row>
     <row r="835" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A835" s="1"/>
+      <c r="A835" s="11"/>
       <c r="E835" s="3"/>
     </row>
     <row r="836" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A836" s="1"/>
+      <c r="A836" s="11"/>
       <c r="E836" s="3"/>
     </row>
     <row r="837" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A837" s="1"/>
+      <c r="A837" s="11"/>
       <c r="E837" s="3"/>
     </row>
     <row r="838" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A838" s="1"/>
+      <c r="A838" s="11"/>
       <c r="E838" s="3"/>
     </row>
     <row r="839" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A839" s="1"/>
+      <c r="A839" s="11"/>
       <c r="E839" s="3"/>
     </row>
     <row r="840" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A840" s="1"/>
+      <c r="A840" s="11"/>
       <c r="E840" s="3"/>
     </row>
     <row r="841" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A841" s="1"/>
+      <c r="A841" s="11"/>
       <c r="E841" s="3"/>
     </row>
     <row r="842" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A842" s="1"/>
+      <c r="A842" s="11"/>
       <c r="E842" s="3"/>
     </row>
     <row r="843" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A843" s="1"/>
+      <c r="A843" s="11"/>
       <c r="E843" s="3"/>
     </row>
     <row r="844" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A844" s="1"/>
+      <c r="A844" s="11"/>
       <c r="E844" s="3"/>
     </row>
     <row r="845" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A845" s="1"/>
+      <c r="A845" s="11"/>
       <c r="E845" s="3"/>
     </row>
     <row r="846" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A846" s="1"/>
+      <c r="A846" s="11"/>
       <c r="E846" s="3"/>
     </row>
     <row r="847" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A847" s="1"/>
+      <c r="A847" s="11"/>
       <c r="E847" s="3"/>
     </row>
     <row r="848" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A848" s="1"/>
+      <c r="A848" s="11"/>
       <c r="E848" s="3"/>
     </row>
     <row r="849" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A849" s="1"/>
+      <c r="A849" s="11"/>
       <c r="E849" s="3"/>
     </row>
     <row r="850" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A850" s="1"/>
+      <c r="A850" s="11"/>
       <c r="E850" s="3"/>
     </row>
     <row r="851" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A851" s="1"/>
+      <c r="A851" s="11"/>
       <c r="E851" s="3"/>
     </row>
     <row r="852" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A852" s="1"/>
+      <c r="A852" s="11"/>
       <c r="E852" s="3"/>
     </row>
     <row r="853" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A853" s="1"/>
+      <c r="A853" s="11"/>
       <c r="E853" s="3"/>
     </row>
     <row r="854" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A854" s="1"/>
+      <c r="A854" s="11"/>
       <c r="E854" s="3"/>
     </row>
     <row r="855" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A855" s="1"/>
+      <c r="A855" s="11"/>
       <c r="E855" s="3"/>
     </row>
     <row r="856" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A856" s="1"/>
+      <c r="A856" s="11"/>
       <c r="E856" s="3"/>
     </row>
     <row r="857" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A857" s="1"/>
+      <c r="A857" s="11"/>
       <c r="E857" s="3"/>
     </row>
     <row r="858" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A858" s="1"/>
+      <c r="A858" s="11"/>
       <c r="E858" s="3"/>
     </row>
     <row r="859" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A859" s="1"/>
+      <c r="A859" s="11"/>
       <c r="E859" s="3"/>
     </row>
     <row r="860" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A860" s="1"/>
+      <c r="A860" s="11"/>
       <c r="E860" s="3"/>
     </row>
     <row r="861" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A861" s="1"/>
+      <c r="A861" s="11"/>
       <c r="E861" s="3"/>
     </row>
     <row r="862" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A862" s="1"/>
+      <c r="A862" s="11"/>
       <c r="E862" s="3"/>
     </row>
     <row r="863" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A863" s="1"/>
+      <c r="A863" s="11"/>
       <c r="E863" s="3"/>
     </row>
     <row r="864" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A864" s="1"/>
+      <c r="A864" s="11"/>
       <c r="E864" s="3"/>
     </row>
     <row r="865" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A865" s="1"/>
+      <c r="A865" s="11"/>
       <c r="E865" s="3"/>
     </row>
     <row r="866" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A866" s="1"/>
+      <c r="A866" s="11"/>
       <c r="E866" s="3"/>
     </row>
     <row r="867" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A867" s="1"/>
+      <c r="A867" s="11"/>
       <c r="E867" s="3"/>
     </row>
     <row r="868" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A868" s="1"/>
+      <c r="A868" s="11"/>
       <c r="E868" s="3"/>
     </row>
     <row r="869" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A869" s="1"/>
+      <c r="A869" s="11"/>
       <c r="E869" s="3"/>
     </row>
     <row r="870" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A870" s="1"/>
+      <c r="A870" s="11"/>
       <c r="E870" s="3"/>
     </row>
     <row r="871" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A871" s="1"/>
+      <c r="A871" s="11"/>
       <c r="E871" s="3"/>
     </row>
     <row r="872" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A872" s="1"/>
+      <c r="A872" s="11"/>
       <c r="E872" s="3"/>
     </row>
     <row r="873" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A873" s="1"/>
+      <c r="A873" s="11"/>
       <c r="E873" s="3"/>
     </row>
     <row r="874" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A874" s="1"/>
+      <c r="A874" s="11"/>
       <c r="E874" s="3"/>
     </row>
     <row r="875" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A875" s="1"/>
+      <c r="A875" s="11"/>
       <c r="E875" s="3"/>
     </row>
     <row r="876" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A876" s="1"/>
+      <c r="A876" s="11"/>
       <c r="E876" s="3"/>
     </row>
     <row r="877" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A877" s="1"/>
+      <c r="A877" s="11"/>
       <c r="E877" s="3"/>
     </row>
     <row r="878" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A878" s="1"/>
+      <c r="A878" s="11"/>
       <c r="E878" s="3"/>
     </row>
     <row r="879" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A879" s="1"/>
+      <c r="A879" s="11"/>
       <c r="E879" s="3"/>
     </row>
     <row r="880" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A880" s="1"/>
+      <c r="A880" s="11"/>
       <c r="E880" s="3"/>
     </row>
     <row r="881" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A881" s="1"/>
+      <c r="A881" s="11"/>
       <c r="E881" s="3"/>
     </row>
     <row r="882" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A882" s="1"/>
+      <c r="A882" s="11"/>
       <c r="E882" s="3"/>
     </row>
     <row r="883" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A883" s="1"/>
+      <c r="A883" s="11"/>
       <c r="E883" s="3"/>
     </row>
     <row r="884" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A884" s="1"/>
+      <c r="A884" s="11"/>
       <c r="E884" s="3"/>
     </row>
     <row r="885" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A885" s="1"/>
+      <c r="A885" s="11"/>
       <c r="E885" s="3"/>
     </row>
     <row r="886" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A886" s="1"/>
+      <c r="A886" s="11"/>
       <c r="E886" s="3"/>
     </row>
     <row r="887" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A887" s="1"/>
+      <c r="A887" s="11"/>
       <c r="E887" s="3"/>
     </row>
     <row r="888" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A888" s="1"/>
+      <c r="A888" s="11"/>
       <c r="E888" s="3"/>
     </row>
     <row r="889" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A889" s="1"/>
+      <c r="A889" s="11"/>
       <c r="E889" s="3"/>
     </row>
     <row r="890" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A890" s="1"/>
+      <c r="A890" s="11"/>
       <c r="E890" s="3"/>
     </row>
     <row r="891" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A891" s="1"/>
+      <c r="A891" s="11"/>
       <c r="E891" s="3"/>
     </row>
     <row r="892" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A892" s="1"/>
+      <c r="A892" s="11"/>
       <c r="E892" s="3"/>
     </row>
     <row r="893" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A893" s="1"/>
+      <c r="A893" s="11"/>
       <c r="E893" s="3"/>
     </row>
     <row r="894" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A894" s="1"/>
+      <c r="A894" s="11"/>
       <c r="E894" s="3"/>
     </row>
     <row r="895" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A895" s="1"/>
+      <c r="A895" s="11"/>
       <c r="E895" s="3"/>
     </row>
     <row r="896" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A896" s="1"/>
+      <c r="A896" s="11"/>
       <c r="E896" s="3"/>
     </row>
     <row r="897" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A897" s="1"/>
+      <c r="A897" s="11"/>
       <c r="E897" s="3"/>
     </row>
     <row r="898" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A898" s="1"/>
+      <c r="A898" s="11"/>
       <c r="E898" s="3"/>
     </row>
     <row r="899" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A899" s="1"/>
+      <c r="A899" s="11"/>
       <c r="E899" s="3"/>
     </row>
     <row r="900" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A900" s="1"/>
+      <c r="A900" s="11"/>
       <c r="E900" s="3"/>
     </row>
     <row r="901" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A901" s="1"/>
+      <c r="A901" s="11"/>
       <c r="E901" s="3"/>
     </row>
     <row r="902" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A902" s="1"/>
+      <c r="A902" s="11"/>
       <c r="E902" s="3"/>
     </row>
     <row r="903" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A903" s="1"/>
+      <c r="A903" s="11"/>
       <c r="E903" s="3"/>
     </row>
     <row r="904" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A904" s="1"/>
+      <c r="A904" s="11"/>
       <c r="E904" s="3"/>
     </row>
     <row r="905" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A905" s="1"/>
+      <c r="A905" s="11"/>
       <c r="E905" s="3"/>
     </row>
     <row r="906" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A906" s="1"/>
+      <c r="A906" s="11"/>
       <c r="E906" s="3"/>
     </row>
     <row r="907" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A907" s="1"/>
+      <c r="A907" s="11"/>
       <c r="E907" s="3"/>
     </row>
     <row r="908" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A908" s="1"/>
+      <c r="A908" s="11"/>
       <c r="E908" s="3"/>
     </row>
     <row r="909" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A909" s="1"/>
+      <c r="A909" s="11"/>
       <c r="E909" s="3"/>
     </row>
     <row r="910" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A910" s="1"/>
+      <c r="A910" s="11"/>
       <c r="E910" s="3"/>
     </row>
     <row r="911" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A911" s="1"/>
+      <c r="A911" s="11"/>
       <c r="E911" s="3"/>
     </row>
     <row r="912" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A912" s="1"/>
+      <c r="A912" s="11"/>
       <c r="E912" s="3"/>
     </row>
     <row r="913" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A913" s="1"/>
+      <c r="A913" s="11"/>
       <c r="E913" s="3"/>
     </row>
     <row r="914" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A914" s="1"/>
+      <c r="A914" s="11"/>
       <c r="E914" s="3"/>
     </row>
     <row r="915" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A915" s="1"/>
+      <c r="A915" s="11"/>
       <c r="E915" s="3"/>
     </row>
     <row r="916" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A916" s="1"/>
+      <c r="A916" s="11"/>
       <c r="E916" s="3"/>
     </row>
     <row r="917" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A917" s="1"/>
+      <c r="A917" s="11"/>
       <c r="E917" s="3"/>
     </row>
     <row r="918" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A918" s="1"/>
+      <c r="A918" s="11"/>
       <c r="E918" s="3"/>
     </row>
     <row r="919" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A919" s="1"/>
+      <c r="A919" s="11"/>
       <c r="E919" s="3"/>
     </row>
     <row r="920" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A920" s="1"/>
+      <c r="A920" s="11"/>
       <c r="E920" s="3"/>
     </row>
     <row r="921" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A921" s="1"/>
+      <c r="A921" s="11"/>
       <c r="E921" s="3"/>
     </row>
     <row r="922" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A922" s="1"/>
+      <c r="A922" s="11"/>
       <c r="E922" s="3"/>
     </row>
     <row r="923" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A923" s="1"/>
+      <c r="A923" s="11"/>
       <c r="E923" s="3"/>
     </row>
     <row r="924" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A924" s="1"/>
+      <c r="A924" s="11"/>
       <c r="E924" s="3"/>
     </row>
     <row r="925" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A925" s="1"/>
+      <c r="A925" s="11"/>
       <c r="E925" s="3"/>
     </row>
     <row r="926" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A926" s="1"/>
+      <c r="A926" s="11"/>
       <c r="E926" s="3"/>
     </row>
     <row r="927" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A927" s="1"/>
+      <c r="A927" s="11"/>
       <c r="E927" s="3"/>
     </row>
     <row r="928" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A928" s="1"/>
+      <c r="A928" s="11"/>
       <c r="E928" s="3"/>
     </row>
     <row r="929" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A929" s="1"/>
+      <c r="A929" s="11"/>
       <c r="E929" s="3"/>
     </row>
     <row r="930" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A930" s="1"/>
+      <c r="A930" s="11"/>
       <c r="E930" s="3"/>
     </row>
     <row r="931" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A931" s="1"/>
+      <c r="A931" s="11"/>
       <c r="E931" s="3"/>
     </row>
     <row r="932" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A932" s="1"/>
+      <c r="A932" s="11"/>
       <c r="E932" s="3"/>
     </row>
     <row r="933" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A933" s="1"/>
+      <c r="A933" s="11"/>
       <c r="E933" s="3"/>
     </row>
     <row r="934" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A934" s="1"/>
+      <c r="A934" s="11"/>
       <c r="E934" s="3"/>
     </row>
     <row r="935" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A935" s="1"/>
+      <c r="A935" s="11"/>
       <c r="E935" s="3"/>
     </row>
     <row r="936" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A936" s="1"/>
+      <c r="A936" s="11"/>
       <c r="E936" s="3"/>
     </row>
     <row r="937" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A937" s="1"/>
+      <c r="A937" s="11"/>
       <c r="E937" s="3"/>
     </row>
     <row r="938" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A938" s="1"/>
+      <c r="A938" s="11"/>
       <c r="E938" s="3"/>
     </row>
     <row r="939" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A939" s="1"/>
+      <c r="A939" s="11"/>
       <c r="E939" s="3"/>
     </row>
     <row r="940" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A940" s="1"/>
+      <c r="A940" s="11"/>
       <c r="E940" s="3"/>
     </row>
     <row r="941" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A941" s="1"/>
+      <c r="A941" s="11"/>
       <c r="E941" s="3"/>
     </row>
     <row r="942" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A942" s="1"/>
+      <c r="A942" s="11"/>
       <c r="E942" s="3"/>
     </row>
     <row r="943" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A943" s="1"/>
+      <c r="A943" s="11"/>
       <c r="E943" s="3"/>
     </row>
     <row r="944" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A944" s="1"/>
+      <c r="A944" s="11"/>
       <c r="E944" s="3"/>
     </row>
     <row r="945" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A945" s="1"/>
+      <c r="A945" s="11"/>
       <c r="E945" s="3"/>
     </row>
     <row r="946" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A946" s="1"/>
+      <c r="A946" s="11"/>
       <c r="E946" s="3"/>
     </row>
     <row r="947" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A947" s="1"/>
+      <c r="A947" s="11"/>
       <c r="E947" s="3"/>
     </row>
     <row r="948" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A948" s="1"/>
+      <c r="A948" s="11"/>
       <c r="E948" s="3"/>
     </row>
     <row r="949" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A949" s="1"/>
+      <c r="A949" s="11"/>
       <c r="E949" s="3"/>
     </row>
     <row r="950" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A950" s="1"/>
+      <c r="A950" s="11"/>
       <c r="E950" s="3"/>
     </row>
     <row r="951" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A951" s="1"/>
+      <c r="A951" s="11"/>
       <c r="E951" s="3"/>
     </row>
     <row r="952" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A952" s="1"/>
+      <c r="A952" s="11"/>
       <c r="E952" s="3"/>
     </row>
     <row r="953" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A953" s="1"/>
+      <c r="A953" s="11"/>
       <c r="E953" s="3"/>
     </row>
     <row r="954" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A954" s="1"/>
+      <c r="A954" s="11"/>
       <c r="E954" s="3"/>
     </row>
     <row r="955" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A955" s="1"/>
+      <c r="A955" s="11"/>
       <c r="E955" s="3"/>
     </row>
     <row r="956" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A956" s="1"/>
+      <c r="A956" s="11"/>
       <c r="E956" s="3"/>
     </row>
     <row r="957" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A957" s="1"/>
+      <c r="A957" s="11"/>
       <c r="E957" s="3"/>
     </row>
     <row r="958" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A958" s="1"/>
+      <c r="A958" s="11"/>
       <c r="E958" s="3"/>
     </row>
     <row r="959" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A959" s="1"/>
+      <c r="A959" s="11"/>
       <c r="E959" s="3"/>
     </row>
     <row r="960" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A960" s="1"/>
+      <c r="A960" s="11"/>
       <c r="E960" s="3"/>
     </row>
     <row r="961" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A961" s="1"/>
+      <c r="A961" s="11"/>
       <c r="E961" s="3"/>
     </row>
     <row r="962" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A962" s="1"/>
+      <c r="A962" s="11"/>
       <c r="E962" s="3"/>
     </row>
     <row r="963" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A963" s="1"/>
+      <c r="A963" s="11"/>
       <c r="E963" s="3"/>
     </row>
     <row r="964" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A964" s="1"/>
+      <c r="A964" s="11"/>
       <c r="E964" s="3"/>
     </row>
     <row r="965" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A965" s="1"/>
+      <c r="A965" s="11"/>
       <c r="E965" s="3"/>
     </row>
     <row r="966" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A966" s="1"/>
+      <c r="A966" s="11"/>
       <c r="E966" s="3"/>
     </row>
     <row r="967" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A967" s="1"/>
+      <c r="A967" s="11"/>
       <c r="E967" s="3"/>
     </row>
     <row r="968" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A968" s="1"/>
+      <c r="A968" s="11"/>
       <c r="E968" s="3"/>
     </row>
     <row r="969" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A969" s="1"/>
+      <c r="A969" s="11"/>
       <c r="E969" s="3"/>
     </row>
     <row r="970" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A970" s="1"/>
+      <c r="A970" s="11"/>
       <c r="E970" s="3"/>
     </row>
     <row r="971" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A971" s="1"/>
+      <c r="A971" s="11"/>
       <c r="E971" s="3"/>
     </row>
     <row r="972" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A972" s="1"/>
+      <c r="A972" s="11"/>
       <c r="E972" s="3"/>
     </row>
     <row r="973" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A973" s="1"/>
+      <c r="A973" s="11"/>
       <c r="E973" s="3"/>
     </row>
     <row r="974" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A974" s="1"/>
+      <c r="A974" s="11"/>
       <c r="E974" s="3"/>
     </row>
     <row r="975" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A975" s="1"/>
+      <c r="A975" s="11"/>
       <c r="E975" s="3"/>
     </row>
     <row r="976" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A976" s="1"/>
+      <c r="A976" s="11"/>
       <c r="E976" s="3"/>
     </row>
     <row r="977" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A977" s="1"/>
+      <c r="A977" s="11"/>
       <c r="E977" s="3"/>
     </row>
     <row r="978" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A978" s="1"/>
+      <c r="A978" s="11"/>
       <c r="E978" s="3"/>
     </row>
     <row r="979" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A979" s="1"/>
+      <c r="A979" s="11"/>
       <c r="E979" s="3"/>
     </row>
     <row r="980" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A980" s="1"/>
+      <c r="A980" s="11"/>
       <c r="E980" s="3"/>
     </row>
     <row r="981" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A981" s="1"/>
+      <c r="A981" s="11"/>
       <c r="E981" s="3"/>
     </row>
     <row r="982" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A982" s="1"/>
+      <c r="A982" s="11"/>
       <c r="E982" s="3"/>
     </row>
     <row r="983" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A983" s="1"/>
+      <c r="A983" s="11"/>
       <c r="E983" s="3"/>
     </row>
     <row r="984" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A984" s="1"/>
+      <c r="A984" s="11"/>
       <c r="E984" s="3"/>
     </row>
     <row r="985" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A985" s="1"/>
+      <c r="A985" s="11"/>
       <c r="E985" s="3"/>
     </row>
     <row r="986" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A986" s="1"/>
+      <c r="A986" s="11"/>
       <c r="E986" s="3"/>
     </row>
     <row r="987" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A987" s="1"/>
+      <c r="A987" s="11"/>
       <c r="E987" s="3"/>
     </row>
     <row r="988" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A988" s="1"/>
+      <c r="A988" s="11"/>
       <c r="E988" s="3"/>
     </row>
     <row r="989" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A989" s="1"/>
+      <c r="A989" s="11"/>
       <c r="E989" s="3"/>
     </row>
     <row r="990" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A990" s="1"/>
+      <c r="A990" s="11"/>
       <c r="E990" s="3"/>
     </row>
     <row r="991" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A991" s="1"/>
+      <c r="A991" s="11"/>
       <c r="E991" s="3"/>
     </row>
-    <row r="992" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A992" s="1"/>
-      <c r="E992" s="3"/>
-    </row>
-    <row r="993" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A993" s="1"/>
-      <c r="E993" s="3"/>
-    </row>
-    <row r="994" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A994" s="1"/>
-      <c r="E994" s="3"/>
-    </row>
-    <row r="995" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A995" s="1"/>
-      <c r="E995" s="3"/>
-    </row>
-    <row r="996" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A996" s="1"/>
-      <c r="E996" s="3"/>
-    </row>
-    <row r="997" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A997" s="1"/>
-      <c r="E997" s="3"/>
-    </row>
-    <row r="998" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A998" s="1"/>
-      <c r="E998" s="3"/>
-    </row>
-    <row r="999" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A999" s="1"/>
-      <c r="E999" s="3"/>
-    </row>
-    <row r="1000" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="1"/>
-      <c r="E1000" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A62:G62"/>
+  <mergeCells count="11">
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="B49:D49"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="B37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/botCode/workWithExcelFile/excelDatabase/8class/М-8-2-1, Ф-8-2.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/8class/М-8-2-1, Ф-8-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="М-8-2-1, Ф-8-2" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="43">
   <si>
     <t>Понедельник</t>
   </si>
@@ -44,19 +44,19 @@
     <t>Калиберова Вероника Дмитриевна</t>
   </si>
   <si>
-    <t>алгебра</t>
+    <t>Урок для практических занятий (классрум на время)</t>
   </si>
   <si>
-    <t>М-8-2</t>
+    <t>Classroom+Zoom</t>
   </si>
   <si>
-    <t>Булатова</t>
+    <t>Информатика</t>
   </si>
   <si>
     <t>Сетдеков Михаил Рашидович</t>
   </si>
   <si>
-    <t>Информатика</t>
+    <t>М-8-2</t>
   </si>
   <si>
     <t>Киселева/Дятлов</t>
@@ -86,16 +86,16 @@
     <t>Тимошенко</t>
   </si>
   <si>
+    <t>алгебра</t>
+  </si>
+  <si>
+    <t>Булатова</t>
+  </si>
+  <si>
     <t>Четверг</t>
   </si>
   <si>
-    <t>Урок для практических занятий (классрум на время)</t>
-  </si>
-  <si>
-    <t>Classroom+Zoom</t>
-  </si>
-  <si>
-    <t>Спецмат</t>
+    <t>ОТДЫХ</t>
   </si>
   <si>
     <t>история</t>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Поболелова</t>
+  </si>
+  <si>
+    <t>Спецмат</t>
   </si>
   <si>
     <t>Английский язык</t>
@@ -181,6 +184,21 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -196,21 +214,6 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -244,12 +247,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -262,7 +259,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -436,43 +439,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -488,22 +500,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -790,8 +802,8 @@
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:G991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -842,17 +854,16 @@
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
@@ -862,17 +873,16 @@
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="F5" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -880,10 +890,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
@@ -897,10 +907,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -919,7 +929,7 @@
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
@@ -948,17 +958,17 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="5"/>
@@ -977,7 +987,7 @@
       <c r="D13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -995,19 +1005,19 @@
       <c r="E14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -1018,114 +1028,114 @@
       <c r="A16" s="7">
         <v>3</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="18" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>4</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="18" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>5</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>8</v>
+      <c r="B18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>6</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>8</v>
+      <c r="B19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>7</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>8</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>9</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>20</v>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
         <v>1</v>
@@ -1136,25 +1146,20 @@
       <c r="D25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>1</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="19" t="s">
+      <c r="B26" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>2</v>
       </c>
@@ -1164,65 +1169,65 @@
       <c r="C27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>3</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="20" t="s">
+      <c r="C28" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>4</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>8</v>
+      <c r="B29" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>5</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="23" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>6</v>
       </c>
@@ -1230,29 +1235,29 @@
         <v>27</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>7</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="23" t="s">
+      <c r="C32" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="27" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1262,18 +1267,18 @@
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="5"/>
@@ -1292,21 +1297,21 @@
       <c r="D36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="10"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>1</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="19" t="s">
+      <c r="B37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1314,15 +1319,15 @@
       <c r="A38" s="7">
         <v>2</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="19" t="s">
+      <c r="B38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1334,9 +1339,9 @@
         <v>31</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E39" s="8" t="s">
@@ -1347,109 +1352,109 @@
       <c r="A40" s="7">
         <v>4</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18">
+        <v>5</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18">
+        <v>6</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
-        <v>5</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="30" t="s">
+      <c r="E42" s="33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18">
+        <v>7</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="15" t="s">
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
-        <v>7</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>33</v>
+      <c r="F43" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="35"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
+      <c r="A45" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="36"/>
+      <c r="E46" s="39"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
+      <c r="A47" s="18">
         <v>1</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="15" t="s">
+      <c r="B47" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="30" t="s">
+      <c r="D47" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="33" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1458,10 +1463,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>28</v>
@@ -1474,16 +1479,16 @@
       <c r="A49" s="7">
         <v>3</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>10</v>
+      <c r="B49" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1491,13 +1496,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>4</v>
@@ -1508,13 +1513,13 @@
         <v>5</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>4</v>
@@ -1526,8 +1531,8 @@
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="16"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="19"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
@@ -1535,3779 +1540,3781 @@
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="16"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="19"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>8</v>
       </c>
       <c r="B54" s="7"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="16"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="19"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
+      <c r="A55" s="14"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
+      <c r="A56" s="14"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
+      <c r="A57" s="14"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
+      <c r="A58" s="14"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
+      <c r="A59" s="14"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
+      <c r="A60" s="14"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
+      <c r="A61" s="14"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
+      <c r="A62" s="14"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
+      <c r="A63" s="14"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
+      <c r="A64" s="14"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
+      <c r="A65" s="14"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+      <c r="A66" s="14"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
+      <c r="A67" s="14"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
+      <c r="A68" s="14"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
+      <c r="A69" s="14"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
+      <c r="A70" s="14"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
+      <c r="A71" s="14"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
+      <c r="A72" s="14"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
+      <c r="A73" s="14"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
+      <c r="A74" s="14"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
+      <c r="A75" s="14"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
+      <c r="A76" s="14"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
+      <c r="A77" s="14"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
+      <c r="A78" s="14"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
+      <c r="A79" s="14"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
+      <c r="A80" s="14"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
+      <c r="A81" s="14"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
+      <c r="A82" s="14"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
+      <c r="A83" s="14"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
+      <c r="A84" s="14"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
+      <c r="A85" s="14"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
+      <c r="A86" s="14"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
+      <c r="A87" s="14"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
+      <c r="A88" s="14"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
+      <c r="A89" s="14"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
+      <c r="A90" s="14"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
+      <c r="A91" s="14"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
+      <c r="A92" s="14"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
+      <c r="A93" s="14"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
+      <c r="A94" s="14"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
+      <c r="A95" s="14"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
+      <c r="A96" s="14"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
+      <c r="A97" s="14"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
+      <c r="A98" s="14"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
+      <c r="A99" s="14"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
+      <c r="A100" s="14"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
+      <c r="A101" s="14"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
+      <c r="A102" s="14"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
+      <c r="A103" s="14"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
+      <c r="A104" s="14"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
+      <c r="A105" s="14"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
+      <c r="A106" s="14"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
+      <c r="A107" s="14"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
+      <c r="A108" s="14"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
+      <c r="A109" s="14"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
+      <c r="A110" s="14"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
+      <c r="A111" s="14"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
+      <c r="A112" s="14"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
+      <c r="A113" s="14"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="11"/>
+      <c r="A114" s="14"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="11"/>
+      <c r="A115" s="14"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="11"/>
+      <c r="A116" s="14"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
+      <c r="A117" s="14"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
+      <c r="A118" s="14"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="11"/>
+      <c r="A119" s="14"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="11"/>
+      <c r="A120" s="14"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
+      <c r="A121" s="14"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="11"/>
+      <c r="A122" s="14"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="11"/>
+      <c r="A123" s="14"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
+      <c r="A124" s="14"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
+      <c r="A125" s="14"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="11"/>
+      <c r="A126" s="14"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="11"/>
+      <c r="A127" s="14"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="11"/>
+      <c r="A128" s="14"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="11"/>
+      <c r="A129" s="14"/>
       <c r="E129" s="3"/>
     </row>
     <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="11"/>
+      <c r="A130" s="14"/>
       <c r="E130" s="3"/>
     </row>
     <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="11"/>
+      <c r="A131" s="14"/>
       <c r="E131" s="3"/>
     </row>
     <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="11"/>
+      <c r="A132" s="14"/>
       <c r="E132" s="3"/>
     </row>
     <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="11"/>
+      <c r="A133" s="14"/>
       <c r="E133" s="3"/>
     </row>
     <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="11"/>
+      <c r="A134" s="14"/>
       <c r="E134" s="3"/>
     </row>
     <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="11"/>
+      <c r="A135" s="14"/>
       <c r="E135" s="3"/>
     </row>
     <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="11"/>
+      <c r="A136" s="14"/>
       <c r="E136" s="3"/>
     </row>
     <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="11"/>
+      <c r="A137" s="14"/>
       <c r="E137" s="3"/>
     </row>
     <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
+      <c r="A138" s="14"/>
       <c r="E138" s="3"/>
     </row>
     <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="11"/>
+      <c r="A139" s="14"/>
       <c r="E139" s="3"/>
     </row>
     <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
+      <c r="A140" s="14"/>
       <c r="E140" s="3"/>
     </row>
     <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="11"/>
+      <c r="A141" s="14"/>
       <c r="E141" s="3"/>
     </row>
     <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="11"/>
+      <c r="A142" s="14"/>
       <c r="E142" s="3"/>
     </row>
     <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="11"/>
+      <c r="A143" s="14"/>
       <c r="E143" s="3"/>
     </row>
     <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="11"/>
+      <c r="A144" s="14"/>
       <c r="E144" s="3"/>
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="11"/>
+      <c r="A145" s="14"/>
       <c r="E145" s="3"/>
     </row>
     <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="11"/>
+      <c r="A146" s="14"/>
       <c r="E146" s="3"/>
     </row>
     <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="11"/>
+      <c r="A147" s="14"/>
       <c r="E147" s="3"/>
     </row>
     <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="11"/>
+      <c r="A148" s="14"/>
       <c r="E148" s="3"/>
     </row>
     <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="11"/>
+      <c r="A149" s="14"/>
       <c r="E149" s="3"/>
     </row>
     <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="11"/>
+      <c r="A150" s="14"/>
       <c r="E150" s="3"/>
     </row>
     <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="11"/>
+      <c r="A151" s="14"/>
       <c r="E151" s="3"/>
     </row>
     <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="11"/>
+      <c r="A152" s="14"/>
       <c r="E152" s="3"/>
     </row>
     <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="11"/>
+      <c r="A153" s="14"/>
       <c r="E153" s="3"/>
     </row>
     <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="11"/>
+      <c r="A154" s="14"/>
       <c r="E154" s="3"/>
     </row>
     <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="11"/>
+      <c r="A155" s="14"/>
       <c r="E155" s="3"/>
     </row>
     <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="11"/>
+      <c r="A156" s="14"/>
       <c r="E156" s="3"/>
     </row>
     <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="11"/>
+      <c r="A157" s="14"/>
       <c r="E157" s="3"/>
     </row>
     <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="11"/>
+      <c r="A158" s="14"/>
       <c r="E158" s="3"/>
     </row>
     <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="11"/>
+      <c r="A159" s="14"/>
       <c r="E159" s="3"/>
     </row>
     <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="11"/>
+      <c r="A160" s="14"/>
       <c r="E160" s="3"/>
     </row>
     <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="11"/>
+      <c r="A161" s="14"/>
       <c r="E161" s="3"/>
     </row>
     <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="11"/>
+      <c r="A162" s="14"/>
       <c r="E162" s="3"/>
     </row>
     <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="11"/>
+      <c r="A163" s="14"/>
       <c r="E163" s="3"/>
     </row>
     <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="11"/>
+      <c r="A164" s="14"/>
       <c r="E164" s="3"/>
     </row>
     <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="11"/>
+      <c r="A165" s="14"/>
       <c r="E165" s="3"/>
     </row>
     <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="11"/>
+      <c r="A166" s="14"/>
       <c r="E166" s="3"/>
     </row>
     <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="11"/>
+      <c r="A167" s="14"/>
       <c r="E167" s="3"/>
     </row>
     <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="11"/>
+      <c r="A168" s="14"/>
       <c r="E168" s="3"/>
     </row>
     <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="11"/>
+      <c r="A169" s="14"/>
       <c r="E169" s="3"/>
     </row>
     <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="11"/>
+      <c r="A170" s="14"/>
       <c r="E170" s="3"/>
     </row>
     <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="11"/>
+      <c r="A171" s="14"/>
       <c r="E171" s="3"/>
     </row>
     <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="11"/>
+      <c r="A172" s="14"/>
       <c r="E172" s="3"/>
     </row>
     <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="11"/>
+      <c r="A173" s="14"/>
       <c r="E173" s="3"/>
     </row>
     <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="11"/>
+      <c r="A174" s="14"/>
       <c r="E174" s="3"/>
     </row>
     <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="11"/>
+      <c r="A175" s="14"/>
       <c r="E175" s="3"/>
     </row>
     <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="11"/>
+      <c r="A176" s="14"/>
       <c r="E176" s="3"/>
     </row>
     <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="11"/>
+      <c r="A177" s="14"/>
       <c r="E177" s="3"/>
     </row>
     <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="11"/>
+      <c r="A178" s="14"/>
       <c r="E178" s="3"/>
     </row>
     <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="11"/>
+      <c r="A179" s="14"/>
       <c r="E179" s="3"/>
     </row>
     <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="11"/>
+      <c r="A180" s="14"/>
       <c r="E180" s="3"/>
     </row>
     <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="11"/>
+      <c r="A181" s="14"/>
       <c r="E181" s="3"/>
     </row>
     <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="11"/>
+      <c r="A182" s="14"/>
       <c r="E182" s="3"/>
     </row>
     <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="11"/>
+      <c r="A183" s="14"/>
       <c r="E183" s="3"/>
     </row>
     <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="11"/>
+      <c r="A184" s="14"/>
       <c r="E184" s="3"/>
     </row>
     <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="11"/>
+      <c r="A185" s="14"/>
       <c r="E185" s="3"/>
     </row>
     <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="11"/>
+      <c r="A186" s="14"/>
       <c r="E186" s="3"/>
     </row>
     <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="11"/>
+      <c r="A187" s="14"/>
       <c r="E187" s="3"/>
     </row>
     <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="11"/>
+      <c r="A188" s="14"/>
       <c r="E188" s="3"/>
     </row>
     <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="11"/>
+      <c r="A189" s="14"/>
       <c r="E189" s="3"/>
     </row>
     <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="11"/>
+      <c r="A190" s="14"/>
       <c r="E190" s="3"/>
     </row>
     <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="11"/>
+      <c r="A191" s="14"/>
       <c r="E191" s="3"/>
     </row>
     <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="11"/>
+      <c r="A192" s="14"/>
       <c r="E192" s="3"/>
     </row>
     <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="11"/>
+      <c r="A193" s="14"/>
       <c r="E193" s="3"/>
     </row>
     <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="11"/>
+      <c r="A194" s="14"/>
       <c r="E194" s="3"/>
     </row>
     <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="11"/>
+      <c r="A195" s="14"/>
       <c r="E195" s="3"/>
     </row>
     <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="11"/>
+      <c r="A196" s="14"/>
       <c r="E196" s="3"/>
     </row>
     <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="11"/>
+      <c r="A197" s="14"/>
       <c r="E197" s="3"/>
     </row>
     <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="11"/>
+      <c r="A198" s="14"/>
       <c r="E198" s="3"/>
     </row>
     <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="11"/>
+      <c r="A199" s="14"/>
       <c r="E199" s="3"/>
     </row>
     <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="11"/>
+      <c r="A200" s="14"/>
       <c r="E200" s="3"/>
     </row>
     <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="11"/>
+      <c r="A201" s="14"/>
       <c r="E201" s="3"/>
     </row>
     <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="11"/>
+      <c r="A202" s="14"/>
       <c r="E202" s="3"/>
     </row>
     <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="11"/>
+      <c r="A203" s="14"/>
       <c r="E203" s="3"/>
     </row>
     <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="11"/>
+      <c r="A204" s="14"/>
       <c r="E204" s="3"/>
     </row>
     <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="11"/>
+      <c r="A205" s="14"/>
       <c r="E205" s="3"/>
     </row>
     <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="11"/>
+      <c r="A206" s="14"/>
       <c r="E206" s="3"/>
     </row>
     <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="11"/>
+      <c r="A207" s="14"/>
       <c r="E207" s="3"/>
     </row>
     <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="11"/>
+      <c r="A208" s="14"/>
       <c r="E208" s="3"/>
     </row>
     <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="11"/>
+      <c r="A209" s="14"/>
       <c r="E209" s="3"/>
     </row>
     <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="11"/>
+      <c r="A210" s="14"/>
       <c r="E210" s="3"/>
     </row>
     <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="11"/>
+      <c r="A211" s="14"/>
       <c r="E211" s="3"/>
     </row>
     <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="11"/>
+      <c r="A212" s="14"/>
       <c r="E212" s="3"/>
     </row>
     <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="11"/>
+      <c r="A213" s="14"/>
       <c r="E213" s="3"/>
     </row>
     <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="11"/>
+      <c r="A214" s="14"/>
       <c r="E214" s="3"/>
     </row>
     <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="11"/>
+      <c r="A215" s="14"/>
       <c r="E215" s="3"/>
     </row>
     <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="11"/>
+      <c r="A216" s="14"/>
       <c r="E216" s="3"/>
     </row>
     <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="11"/>
+      <c r="A217" s="14"/>
       <c r="E217" s="3"/>
     </row>
     <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="11"/>
+      <c r="A218" s="14"/>
       <c r="E218" s="3"/>
     </row>
     <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="11"/>
+      <c r="A219" s="14"/>
       <c r="E219" s="3"/>
     </row>
     <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="11"/>
+      <c r="A220" s="14"/>
       <c r="E220" s="3"/>
     </row>
     <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="11"/>
+      <c r="A221" s="14"/>
       <c r="E221" s="3"/>
     </row>
     <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="11"/>
+      <c r="A222" s="14"/>
       <c r="E222" s="3"/>
     </row>
     <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="11"/>
+      <c r="A223" s="14"/>
       <c r="E223" s="3"/>
     </row>
     <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="11"/>
+      <c r="A224" s="14"/>
       <c r="E224" s="3"/>
     </row>
     <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="11"/>
+      <c r="A225" s="14"/>
       <c r="E225" s="3"/>
     </row>
     <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="11"/>
+      <c r="A226" s="14"/>
       <c r="E226" s="3"/>
     </row>
     <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="11"/>
+      <c r="A227" s="14"/>
       <c r="E227" s="3"/>
     </row>
     <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="11"/>
+      <c r="A228" s="14"/>
       <c r="E228" s="3"/>
     </row>
     <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="11"/>
+      <c r="A229" s="14"/>
       <c r="E229" s="3"/>
     </row>
     <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="11"/>
+      <c r="A230" s="14"/>
       <c r="E230" s="3"/>
     </row>
     <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="11"/>
+      <c r="A231" s="14"/>
       <c r="E231" s="3"/>
     </row>
     <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="11"/>
+      <c r="A232" s="14"/>
       <c r="E232" s="3"/>
     </row>
     <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="11"/>
+      <c r="A233" s="14"/>
       <c r="E233" s="3"/>
     </row>
     <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="11"/>
+      <c r="A234" s="14"/>
       <c r="E234" s="3"/>
     </row>
     <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="11"/>
+      <c r="A235" s="14"/>
       <c r="E235" s="3"/>
     </row>
     <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="11"/>
+      <c r="A236" s="14"/>
       <c r="E236" s="3"/>
     </row>
     <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="11"/>
+      <c r="A237" s="14"/>
       <c r="E237" s="3"/>
     </row>
     <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="11"/>
+      <c r="A238" s="14"/>
       <c r="E238" s="3"/>
     </row>
     <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="11"/>
+      <c r="A239" s="14"/>
       <c r="E239" s="3"/>
     </row>
     <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="11"/>
+      <c r="A240" s="14"/>
       <c r="E240" s="3"/>
     </row>
     <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="11"/>
+      <c r="A241" s="14"/>
       <c r="E241" s="3"/>
     </row>
     <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="11"/>
+      <c r="A242" s="14"/>
       <c r="E242" s="3"/>
     </row>
     <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="11"/>
+      <c r="A243" s="14"/>
       <c r="E243" s="3"/>
     </row>
     <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="11"/>
+      <c r="A244" s="14"/>
       <c r="E244" s="3"/>
     </row>
     <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="11"/>
+      <c r="A245" s="14"/>
       <c r="E245" s="3"/>
     </row>
     <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="11"/>
+      <c r="A246" s="14"/>
       <c r="E246" s="3"/>
     </row>
     <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="11"/>
+      <c r="A247" s="14"/>
       <c r="E247" s="3"/>
     </row>
     <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="11"/>
+      <c r="A248" s="14"/>
       <c r="E248" s="3"/>
     </row>
     <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="11"/>
+      <c r="A249" s="14"/>
       <c r="E249" s="3"/>
     </row>
     <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="11"/>
+      <c r="A250" s="14"/>
       <c r="E250" s="3"/>
     </row>
     <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="11"/>
+      <c r="A251" s="14"/>
       <c r="E251" s="3"/>
     </row>
     <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="11"/>
+      <c r="A252" s="14"/>
       <c r="E252" s="3"/>
     </row>
     <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="11"/>
+      <c r="A253" s="14"/>
       <c r="E253" s="3"/>
     </row>
     <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="11"/>
+      <c r="A254" s="14"/>
       <c r="E254" s="3"/>
     </row>
     <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="11"/>
+      <c r="A255" s="14"/>
       <c r="E255" s="3"/>
     </row>
     <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="11"/>
+      <c r="A256" s="14"/>
       <c r="E256" s="3"/>
     </row>
     <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="11"/>
+      <c r="A257" s="14"/>
       <c r="E257" s="3"/>
     </row>
     <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="11"/>
+      <c r="A258" s="14"/>
       <c r="E258" s="3"/>
     </row>
     <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="11"/>
+      <c r="A259" s="14"/>
       <c r="E259" s="3"/>
     </row>
     <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="11"/>
+      <c r="A260" s="14"/>
       <c r="E260" s="3"/>
     </row>
     <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="11"/>
+      <c r="A261" s="14"/>
       <c r="E261" s="3"/>
     </row>
     <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="11"/>
+      <c r="A262" s="14"/>
       <c r="E262" s="3"/>
     </row>
     <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="11"/>
+      <c r="A263" s="14"/>
       <c r="E263" s="3"/>
     </row>
     <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="11"/>
+      <c r="A264" s="14"/>
       <c r="E264" s="3"/>
     </row>
     <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="11"/>
+      <c r="A265" s="14"/>
       <c r="E265" s="3"/>
     </row>
     <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="11"/>
+      <c r="A266" s="14"/>
       <c r="E266" s="3"/>
     </row>
     <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="11"/>
+      <c r="A267" s="14"/>
       <c r="E267" s="3"/>
     </row>
     <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="11"/>
+      <c r="A268" s="14"/>
       <c r="E268" s="3"/>
     </row>
     <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="11"/>
+      <c r="A269" s="14"/>
       <c r="E269" s="3"/>
     </row>
     <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="11"/>
+      <c r="A270" s="14"/>
       <c r="E270" s="3"/>
     </row>
     <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="11"/>
+      <c r="A271" s="14"/>
       <c r="E271" s="3"/>
     </row>
     <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="11"/>
+      <c r="A272" s="14"/>
       <c r="E272" s="3"/>
     </row>
     <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="11"/>
+      <c r="A273" s="14"/>
       <c r="E273" s="3"/>
     </row>
     <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="11"/>
+      <c r="A274" s="14"/>
       <c r="E274" s="3"/>
     </row>
     <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="11"/>
+      <c r="A275" s="14"/>
       <c r="E275" s="3"/>
     </row>
     <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="11"/>
+      <c r="A276" s="14"/>
       <c r="E276" s="3"/>
     </row>
     <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="11"/>
+      <c r="A277" s="14"/>
       <c r="E277" s="3"/>
     </row>
     <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="11"/>
+      <c r="A278" s="14"/>
       <c r="E278" s="3"/>
     </row>
     <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="11"/>
+      <c r="A279" s="14"/>
       <c r="E279" s="3"/>
     </row>
     <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="11"/>
+      <c r="A280" s="14"/>
       <c r="E280" s="3"/>
     </row>
     <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="11"/>
+      <c r="A281" s="14"/>
       <c r="E281" s="3"/>
     </row>
     <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="11"/>
+      <c r="A282" s="14"/>
       <c r="E282" s="3"/>
     </row>
     <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="11"/>
+      <c r="A283" s="14"/>
       <c r="E283" s="3"/>
     </row>
     <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="11"/>
+      <c r="A284" s="14"/>
       <c r="E284" s="3"/>
     </row>
     <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="11"/>
+      <c r="A285" s="14"/>
       <c r="E285" s="3"/>
     </row>
     <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="11"/>
+      <c r="A286" s="14"/>
       <c r="E286" s="3"/>
     </row>
     <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="11"/>
+      <c r="A287" s="14"/>
       <c r="E287" s="3"/>
     </row>
     <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="11"/>
+      <c r="A288" s="14"/>
       <c r="E288" s="3"/>
     </row>
     <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="11"/>
+      <c r="A289" s="14"/>
       <c r="E289" s="3"/>
     </row>
     <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="11"/>
+      <c r="A290" s="14"/>
       <c r="E290" s="3"/>
     </row>
     <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="11"/>
+      <c r="A291" s="14"/>
       <c r="E291" s="3"/>
     </row>
     <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="11"/>
+      <c r="A292" s="14"/>
       <c r="E292" s="3"/>
     </row>
     <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="11"/>
+      <c r="A293" s="14"/>
       <c r="E293" s="3"/>
     </row>
     <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="11"/>
+      <c r="A294" s="14"/>
       <c r="E294" s="3"/>
     </row>
     <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="11"/>
+      <c r="A295" s="14"/>
       <c r="E295" s="3"/>
     </row>
     <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="11"/>
+      <c r="A296" s="14"/>
       <c r="E296" s="3"/>
     </row>
     <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="11"/>
+      <c r="A297" s="14"/>
       <c r="E297" s="3"/>
     </row>
     <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="11"/>
+      <c r="A298" s="14"/>
       <c r="E298" s="3"/>
     </row>
     <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="11"/>
+      <c r="A299" s="14"/>
       <c r="E299" s="3"/>
     </row>
     <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="11"/>
+      <c r="A300" s="14"/>
       <c r="E300" s="3"/>
     </row>
     <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="11"/>
+      <c r="A301" s="14"/>
       <c r="E301" s="3"/>
     </row>
     <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="11"/>
+      <c r="A302" s="14"/>
       <c r="E302" s="3"/>
     </row>
     <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="11"/>
+      <c r="A303" s="14"/>
       <c r="E303" s="3"/>
     </row>
     <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="11"/>
+      <c r="A304" s="14"/>
       <c r="E304" s="3"/>
     </row>
     <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="11"/>
+      <c r="A305" s="14"/>
       <c r="E305" s="3"/>
     </row>
     <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="11"/>
+      <c r="A306" s="14"/>
       <c r="E306" s="3"/>
     </row>
     <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="11"/>
+      <c r="A307" s="14"/>
       <c r="E307" s="3"/>
     </row>
     <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="11"/>
+      <c r="A308" s="14"/>
       <c r="E308" s="3"/>
     </row>
     <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="11"/>
+      <c r="A309" s="14"/>
       <c r="E309" s="3"/>
     </row>
     <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="11"/>
+      <c r="A310" s="14"/>
       <c r="E310" s="3"/>
     </row>
     <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="11"/>
+      <c r="A311" s="14"/>
       <c r="E311" s="3"/>
     </row>
     <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="11"/>
+      <c r="A312" s="14"/>
       <c r="E312" s="3"/>
     </row>
     <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="11"/>
+      <c r="A313" s="14"/>
       <c r="E313" s="3"/>
     </row>
     <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="11"/>
+      <c r="A314" s="14"/>
       <c r="E314" s="3"/>
     </row>
     <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="11"/>
+      <c r="A315" s="14"/>
       <c r="E315" s="3"/>
     </row>
     <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="11"/>
+      <c r="A316" s="14"/>
       <c r="E316" s="3"/>
     </row>
     <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="11"/>
+      <c r="A317" s="14"/>
       <c r="E317" s="3"/>
     </row>
     <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="11"/>
+      <c r="A318" s="14"/>
       <c r="E318" s="3"/>
     </row>
     <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="11"/>
+      <c r="A319" s="14"/>
       <c r="E319" s="3"/>
     </row>
     <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="11"/>
+      <c r="A320" s="14"/>
       <c r="E320" s="3"/>
     </row>
     <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="11"/>
+      <c r="A321" s="14"/>
       <c r="E321" s="3"/>
     </row>
     <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="11"/>
+      <c r="A322" s="14"/>
       <c r="E322" s="3"/>
     </row>
     <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="11"/>
+      <c r="A323" s="14"/>
       <c r="E323" s="3"/>
     </row>
     <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="11"/>
+      <c r="A324" s="14"/>
       <c r="E324" s="3"/>
     </row>
     <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="11"/>
+      <c r="A325" s="14"/>
       <c r="E325" s="3"/>
     </row>
     <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="11"/>
+      <c r="A326" s="14"/>
       <c r="E326" s="3"/>
     </row>
     <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="11"/>
+      <c r="A327" s="14"/>
       <c r="E327" s="3"/>
     </row>
     <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="11"/>
+      <c r="A328" s="14"/>
       <c r="E328" s="3"/>
     </row>
     <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="11"/>
+      <c r="A329" s="14"/>
       <c r="E329" s="3"/>
     </row>
     <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="11"/>
+      <c r="A330" s="14"/>
       <c r="E330" s="3"/>
     </row>
     <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="11"/>
+      <c r="A331" s="14"/>
       <c r="E331" s="3"/>
     </row>
     <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="11"/>
+      <c r="A332" s="14"/>
       <c r="E332" s="3"/>
     </row>
     <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="11"/>
+      <c r="A333" s="14"/>
       <c r="E333" s="3"/>
     </row>
     <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="11"/>
+      <c r="A334" s="14"/>
       <c r="E334" s="3"/>
     </row>
     <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="11"/>
+      <c r="A335" s="14"/>
       <c r="E335" s="3"/>
     </row>
     <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="11"/>
+      <c r="A336" s="14"/>
       <c r="E336" s="3"/>
     </row>
     <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="11"/>
+      <c r="A337" s="14"/>
       <c r="E337" s="3"/>
     </row>
     <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="11"/>
+      <c r="A338" s="14"/>
       <c r="E338" s="3"/>
     </row>
     <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="11"/>
+      <c r="A339" s="14"/>
       <c r="E339" s="3"/>
     </row>
     <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="11"/>
+      <c r="A340" s="14"/>
       <c r="E340" s="3"/>
     </row>
     <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="11"/>
+      <c r="A341" s="14"/>
       <c r="E341" s="3"/>
     </row>
     <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="11"/>
+      <c r="A342" s="14"/>
       <c r="E342" s="3"/>
     </row>
     <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="11"/>
+      <c r="A343" s="14"/>
       <c r="E343" s="3"/>
     </row>
     <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="11"/>
+      <c r="A344" s="14"/>
       <c r="E344" s="3"/>
     </row>
     <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="11"/>
+      <c r="A345" s="14"/>
       <c r="E345" s="3"/>
     </row>
     <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="11"/>
+      <c r="A346" s="14"/>
       <c r="E346" s="3"/>
     </row>
     <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="11"/>
+      <c r="A347" s="14"/>
       <c r="E347" s="3"/>
     </row>
     <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="11"/>
+      <c r="A348" s="14"/>
       <c r="E348" s="3"/>
     </row>
     <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="11"/>
+      <c r="A349" s="14"/>
       <c r="E349" s="3"/>
     </row>
     <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="11"/>
+      <c r="A350" s="14"/>
       <c r="E350" s="3"/>
     </row>
     <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="11"/>
+      <c r="A351" s="14"/>
       <c r="E351" s="3"/>
     </row>
     <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="11"/>
+      <c r="A352" s="14"/>
       <c r="E352" s="3"/>
     </row>
     <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="11"/>
+      <c r="A353" s="14"/>
       <c r="E353" s="3"/>
     </row>
     <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="11"/>
+      <c r="A354" s="14"/>
       <c r="E354" s="3"/>
     </row>
     <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="11"/>
+      <c r="A355" s="14"/>
       <c r="E355" s="3"/>
     </row>
     <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="11"/>
+      <c r="A356" s="14"/>
       <c r="E356" s="3"/>
     </row>
     <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="11"/>
+      <c r="A357" s="14"/>
       <c r="E357" s="3"/>
     </row>
     <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="11"/>
+      <c r="A358" s="14"/>
       <c r="E358" s="3"/>
     </row>
     <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="11"/>
+      <c r="A359" s="14"/>
       <c r="E359" s="3"/>
     </row>
     <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="11"/>
+      <c r="A360" s="14"/>
       <c r="E360" s="3"/>
     </row>
     <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="11"/>
+      <c r="A361" s="14"/>
       <c r="E361" s="3"/>
     </row>
     <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="11"/>
+      <c r="A362" s="14"/>
       <c r="E362" s="3"/>
     </row>
     <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="11"/>
+      <c r="A363" s="14"/>
       <c r="E363" s="3"/>
     </row>
     <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="11"/>
+      <c r="A364" s="14"/>
       <c r="E364" s="3"/>
     </row>
     <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="11"/>
+      <c r="A365" s="14"/>
       <c r="E365" s="3"/>
     </row>
     <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="11"/>
+      <c r="A366" s="14"/>
       <c r="E366" s="3"/>
     </row>
     <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="11"/>
+      <c r="A367" s="14"/>
       <c r="E367" s="3"/>
     </row>
     <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="11"/>
+      <c r="A368" s="14"/>
       <c r="E368" s="3"/>
     </row>
     <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="11"/>
+      <c r="A369" s="14"/>
       <c r="E369" s="3"/>
     </row>
     <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="11"/>
+      <c r="A370" s="14"/>
       <c r="E370" s="3"/>
     </row>
     <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="11"/>
+      <c r="A371" s="14"/>
       <c r="E371" s="3"/>
     </row>
     <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="11"/>
+      <c r="A372" s="14"/>
       <c r="E372" s="3"/>
     </row>
     <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="11"/>
+      <c r="A373" s="14"/>
       <c r="E373" s="3"/>
     </row>
     <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="11"/>
+      <c r="A374" s="14"/>
       <c r="E374" s="3"/>
     </row>
     <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="11"/>
+      <c r="A375" s="14"/>
       <c r="E375" s="3"/>
     </row>
     <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="11"/>
+      <c r="A376" s="14"/>
       <c r="E376" s="3"/>
     </row>
     <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="11"/>
+      <c r="A377" s="14"/>
       <c r="E377" s="3"/>
     </row>
     <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="11"/>
+      <c r="A378" s="14"/>
       <c r="E378" s="3"/>
     </row>
     <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="11"/>
+      <c r="A379" s="14"/>
       <c r="E379" s="3"/>
     </row>
     <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="11"/>
+      <c r="A380" s="14"/>
       <c r="E380" s="3"/>
     </row>
     <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="11"/>
+      <c r="A381" s="14"/>
       <c r="E381" s="3"/>
     </row>
     <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="11"/>
+      <c r="A382" s="14"/>
       <c r="E382" s="3"/>
     </row>
     <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="11"/>
+      <c r="A383" s="14"/>
       <c r="E383" s="3"/>
     </row>
     <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="11"/>
+      <c r="A384" s="14"/>
       <c r="E384" s="3"/>
     </row>
     <row r="385" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="11"/>
+      <c r="A385" s="14"/>
       <c r="E385" s="3"/>
     </row>
     <row r="386" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="11"/>
+      <c r="A386" s="14"/>
       <c r="E386" s="3"/>
     </row>
     <row r="387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="11"/>
+      <c r="A387" s="14"/>
       <c r="E387" s="3"/>
     </row>
     <row r="388" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="11"/>
+      <c r="A388" s="14"/>
       <c r="E388" s="3"/>
     </row>
     <row r="389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="11"/>
+      <c r="A389" s="14"/>
       <c r="E389" s="3"/>
     </row>
     <row r="390" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="11"/>
+      <c r="A390" s="14"/>
       <c r="E390" s="3"/>
     </row>
     <row r="391" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="11"/>
+      <c r="A391" s="14"/>
       <c r="E391" s="3"/>
     </row>
     <row r="392" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="11"/>
+      <c r="A392" s="14"/>
       <c r="E392" s="3"/>
     </row>
     <row r="393" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="11"/>
+      <c r="A393" s="14"/>
       <c r="E393" s="3"/>
     </row>
     <row r="394" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="11"/>
+      <c r="A394" s="14"/>
       <c r="E394" s="3"/>
     </row>
     <row r="395" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="11"/>
+      <c r="A395" s="14"/>
       <c r="E395" s="3"/>
     </row>
     <row r="396" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="11"/>
+      <c r="A396" s="14"/>
       <c r="E396" s="3"/>
     </row>
     <row r="397" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="11"/>
+      <c r="A397" s="14"/>
       <c r="E397" s="3"/>
     </row>
     <row r="398" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="11"/>
+      <c r="A398" s="14"/>
       <c r="E398" s="3"/>
     </row>
     <row r="399" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="11"/>
+      <c r="A399" s="14"/>
       <c r="E399" s="3"/>
     </row>
     <row r="400" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="11"/>
+      <c r="A400" s="14"/>
       <c r="E400" s="3"/>
     </row>
     <row r="401" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="11"/>
+      <c r="A401" s="14"/>
       <c r="E401" s="3"/>
     </row>
     <row r="402" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="11"/>
+      <c r="A402" s="14"/>
       <c r="E402" s="3"/>
     </row>
     <row r="403" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="11"/>
+      <c r="A403" s="14"/>
       <c r="E403" s="3"/>
     </row>
     <row r="404" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="11"/>
+      <c r="A404" s="14"/>
       <c r="E404" s="3"/>
     </row>
     <row r="405" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="11"/>
+      <c r="A405" s="14"/>
       <c r="E405" s="3"/>
     </row>
     <row r="406" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="11"/>
+      <c r="A406" s="14"/>
       <c r="E406" s="3"/>
     </row>
     <row r="407" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="11"/>
+      <c r="A407" s="14"/>
       <c r="E407" s="3"/>
     </row>
     <row r="408" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="11"/>
+      <c r="A408" s="14"/>
       <c r="E408" s="3"/>
     </row>
     <row r="409" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="11"/>
+      <c r="A409" s="14"/>
       <c r="E409" s="3"/>
     </row>
     <row r="410" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="11"/>
+      <c r="A410" s="14"/>
       <c r="E410" s="3"/>
     </row>
     <row r="411" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="11"/>
+      <c r="A411" s="14"/>
       <c r="E411" s="3"/>
     </row>
     <row r="412" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="11"/>
+      <c r="A412" s="14"/>
       <c r="E412" s="3"/>
     </row>
     <row r="413" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="11"/>
+      <c r="A413" s="14"/>
       <c r="E413" s="3"/>
     </row>
     <row r="414" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="11"/>
+      <c r="A414" s="14"/>
       <c r="E414" s="3"/>
     </row>
     <row r="415" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="11"/>
+      <c r="A415" s="14"/>
       <c r="E415" s="3"/>
     </row>
     <row r="416" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="11"/>
+      <c r="A416" s="14"/>
       <c r="E416" s="3"/>
     </row>
     <row r="417" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="11"/>
+      <c r="A417" s="14"/>
       <c r="E417" s="3"/>
     </row>
     <row r="418" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="11"/>
+      <c r="A418" s="14"/>
       <c r="E418" s="3"/>
     </row>
     <row r="419" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="11"/>
+      <c r="A419" s="14"/>
       <c r="E419" s="3"/>
     </row>
     <row r="420" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="11"/>
+      <c r="A420" s="14"/>
       <c r="E420" s="3"/>
     </row>
     <row r="421" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="11"/>
+      <c r="A421" s="14"/>
       <c r="E421" s="3"/>
     </row>
     <row r="422" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="11"/>
+      <c r="A422" s="14"/>
       <c r="E422" s="3"/>
     </row>
     <row r="423" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="11"/>
+      <c r="A423" s="14"/>
       <c r="E423" s="3"/>
     </row>
     <row r="424" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="11"/>
+      <c r="A424" s="14"/>
       <c r="E424" s="3"/>
     </row>
     <row r="425" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="11"/>
+      <c r="A425" s="14"/>
       <c r="E425" s="3"/>
     </row>
     <row r="426" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="11"/>
+      <c r="A426" s="14"/>
       <c r="E426" s="3"/>
     </row>
     <row r="427" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="11"/>
+      <c r="A427" s="14"/>
       <c r="E427" s="3"/>
     </row>
     <row r="428" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="11"/>
+      <c r="A428" s="14"/>
       <c r="E428" s="3"/>
     </row>
     <row r="429" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="11"/>
+      <c r="A429" s="14"/>
       <c r="E429" s="3"/>
     </row>
     <row r="430" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="11"/>
+      <c r="A430" s="14"/>
       <c r="E430" s="3"/>
     </row>
     <row r="431" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="11"/>
+      <c r="A431" s="14"/>
       <c r="E431" s="3"/>
     </row>
     <row r="432" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="11"/>
+      <c r="A432" s="14"/>
       <c r="E432" s="3"/>
     </row>
     <row r="433" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="11"/>
+      <c r="A433" s="14"/>
       <c r="E433" s="3"/>
     </row>
     <row r="434" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="11"/>
+      <c r="A434" s="14"/>
       <c r="E434" s="3"/>
     </row>
     <row r="435" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="11"/>
+      <c r="A435" s="14"/>
       <c r="E435" s="3"/>
     </row>
     <row r="436" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="11"/>
+      <c r="A436" s="14"/>
       <c r="E436" s="3"/>
     </row>
     <row r="437" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="11"/>
+      <c r="A437" s="14"/>
       <c r="E437" s="3"/>
     </row>
     <row r="438" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="11"/>
+      <c r="A438" s="14"/>
       <c r="E438" s="3"/>
     </row>
     <row r="439" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="11"/>
+      <c r="A439" s="14"/>
       <c r="E439" s="3"/>
     </row>
     <row r="440" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="11"/>
+      <c r="A440" s="14"/>
       <c r="E440" s="3"/>
     </row>
     <row r="441" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="11"/>
+      <c r="A441" s="14"/>
       <c r="E441" s="3"/>
     </row>
     <row r="442" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="11"/>
+      <c r="A442" s="14"/>
       <c r="E442" s="3"/>
     </row>
     <row r="443" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="11"/>
+      <c r="A443" s="14"/>
       <c r="E443" s="3"/>
     </row>
     <row r="444" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="11"/>
+      <c r="A444" s="14"/>
       <c r="E444" s="3"/>
     </row>
     <row r="445" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="11"/>
+      <c r="A445" s="14"/>
       <c r="E445" s="3"/>
     </row>
     <row r="446" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="11"/>
+      <c r="A446" s="14"/>
       <c r="E446" s="3"/>
     </row>
     <row r="447" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="11"/>
+      <c r="A447" s="14"/>
       <c r="E447" s="3"/>
     </row>
     <row r="448" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="11"/>
+      <c r="A448" s="14"/>
       <c r="E448" s="3"/>
     </row>
     <row r="449" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="11"/>
+      <c r="A449" s="14"/>
       <c r="E449" s="3"/>
     </row>
     <row r="450" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="11"/>
+      <c r="A450" s="14"/>
       <c r="E450" s="3"/>
     </row>
     <row r="451" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="11"/>
+      <c r="A451" s="14"/>
       <c r="E451" s="3"/>
     </row>
     <row r="452" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="11"/>
+      <c r="A452" s="14"/>
       <c r="E452" s="3"/>
     </row>
     <row r="453" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="11"/>
+      <c r="A453" s="14"/>
       <c r="E453" s="3"/>
     </row>
     <row r="454" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="11"/>
+      <c r="A454" s="14"/>
       <c r="E454" s="3"/>
     </row>
     <row r="455" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="11"/>
+      <c r="A455" s="14"/>
       <c r="E455" s="3"/>
     </row>
     <row r="456" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="11"/>
+      <c r="A456" s="14"/>
       <c r="E456" s="3"/>
     </row>
     <row r="457" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="11"/>
+      <c r="A457" s="14"/>
       <c r="E457" s="3"/>
     </row>
     <row r="458" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="11"/>
+      <c r="A458" s="14"/>
       <c r="E458" s="3"/>
     </row>
     <row r="459" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="11"/>
+      <c r="A459" s="14"/>
       <c r="E459" s="3"/>
     </row>
     <row r="460" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="11"/>
+      <c r="A460" s="14"/>
       <c r="E460" s="3"/>
     </row>
     <row r="461" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="11"/>
+      <c r="A461" s="14"/>
       <c r="E461" s="3"/>
     </row>
     <row r="462" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="11"/>
+      <c r="A462" s="14"/>
       <c r="E462" s="3"/>
     </row>
     <row r="463" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="11"/>
+      <c r="A463" s="14"/>
       <c r="E463" s="3"/>
     </row>
     <row r="464" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="11"/>
+      <c r="A464" s="14"/>
       <c r="E464" s="3"/>
     </row>
     <row r="465" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="11"/>
+      <c r="A465" s="14"/>
       <c r="E465" s="3"/>
     </row>
     <row r="466" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="11"/>
+      <c r="A466" s="14"/>
       <c r="E466" s="3"/>
     </row>
     <row r="467" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="11"/>
+      <c r="A467" s="14"/>
       <c r="E467" s="3"/>
     </row>
     <row r="468" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="11"/>
+      <c r="A468" s="14"/>
       <c r="E468" s="3"/>
     </row>
     <row r="469" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="11"/>
+      <c r="A469" s="14"/>
       <c r="E469" s="3"/>
     </row>
     <row r="470" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="11"/>
+      <c r="A470" s="14"/>
       <c r="E470" s="3"/>
     </row>
     <row r="471" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="11"/>
+      <c r="A471" s="14"/>
       <c r="E471" s="3"/>
     </row>
     <row r="472" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="11"/>
+      <c r="A472" s="14"/>
       <c r="E472" s="3"/>
     </row>
     <row r="473" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="11"/>
+      <c r="A473" s="14"/>
       <c r="E473" s="3"/>
     </row>
     <row r="474" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="11"/>
+      <c r="A474" s="14"/>
       <c r="E474" s="3"/>
     </row>
     <row r="475" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="11"/>
+      <c r="A475" s="14"/>
       <c r="E475" s="3"/>
     </row>
     <row r="476" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="11"/>
+      <c r="A476" s="14"/>
       <c r="E476" s="3"/>
     </row>
     <row r="477" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="11"/>
+      <c r="A477" s="14"/>
       <c r="E477" s="3"/>
     </row>
     <row r="478" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="11"/>
+      <c r="A478" s="14"/>
       <c r="E478" s="3"/>
     </row>
     <row r="479" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="11"/>
+      <c r="A479" s="14"/>
       <c r="E479" s="3"/>
     </row>
     <row r="480" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="11"/>
+      <c r="A480" s="14"/>
       <c r="E480" s="3"/>
     </row>
     <row r="481" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="11"/>
+      <c r="A481" s="14"/>
       <c r="E481" s="3"/>
     </row>
     <row r="482" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="11"/>
+      <c r="A482" s="14"/>
       <c r="E482" s="3"/>
     </row>
     <row r="483" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="11"/>
+      <c r="A483" s="14"/>
       <c r="E483" s="3"/>
     </row>
     <row r="484" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="11"/>
+      <c r="A484" s="14"/>
       <c r="E484" s="3"/>
     </row>
     <row r="485" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="11"/>
+      <c r="A485" s="14"/>
       <c r="E485" s="3"/>
     </row>
     <row r="486" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="11"/>
+      <c r="A486" s="14"/>
       <c r="E486" s="3"/>
     </row>
     <row r="487" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="11"/>
+      <c r="A487" s="14"/>
       <c r="E487" s="3"/>
     </row>
     <row r="488" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="11"/>
+      <c r="A488" s="14"/>
       <c r="E488" s="3"/>
     </row>
     <row r="489" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="11"/>
+      <c r="A489" s="14"/>
       <c r="E489" s="3"/>
     </row>
     <row r="490" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="11"/>
+      <c r="A490" s="14"/>
       <c r="E490" s="3"/>
     </row>
     <row r="491" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="11"/>
+      <c r="A491" s="14"/>
       <c r="E491" s="3"/>
     </row>
     <row r="492" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="11"/>
+      <c r="A492" s="14"/>
       <c r="E492" s="3"/>
     </row>
     <row r="493" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="11"/>
+      <c r="A493" s="14"/>
       <c r="E493" s="3"/>
     </row>
     <row r="494" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="11"/>
+      <c r="A494" s="14"/>
       <c r="E494" s="3"/>
     </row>
     <row r="495" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="11"/>
+      <c r="A495" s="14"/>
       <c r="E495" s="3"/>
     </row>
     <row r="496" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="11"/>
+      <c r="A496" s="14"/>
       <c r="E496" s="3"/>
     </row>
     <row r="497" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="11"/>
+      <c r="A497" s="14"/>
       <c r="E497" s="3"/>
     </row>
     <row r="498" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="11"/>
+      <c r="A498" s="14"/>
       <c r="E498" s="3"/>
     </row>
     <row r="499" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="11"/>
+      <c r="A499" s="14"/>
       <c r="E499" s="3"/>
     </row>
     <row r="500" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="11"/>
+      <c r="A500" s="14"/>
       <c r="E500" s="3"/>
     </row>
     <row r="501" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="11"/>
+      <c r="A501" s="14"/>
       <c r="E501" s="3"/>
     </row>
     <row r="502" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="11"/>
+      <c r="A502" s="14"/>
       <c r="E502" s="3"/>
     </row>
     <row r="503" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="11"/>
+      <c r="A503" s="14"/>
       <c r="E503" s="3"/>
     </row>
     <row r="504" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="11"/>
+      <c r="A504" s="14"/>
       <c r="E504" s="3"/>
     </row>
     <row r="505" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="11"/>
+      <c r="A505" s="14"/>
       <c r="E505" s="3"/>
     </row>
     <row r="506" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="11"/>
+      <c r="A506" s="14"/>
       <c r="E506" s="3"/>
     </row>
     <row r="507" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="11"/>
+      <c r="A507" s="14"/>
       <c r="E507" s="3"/>
     </row>
     <row r="508" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="11"/>
+      <c r="A508" s="14"/>
       <c r="E508" s="3"/>
     </row>
     <row r="509" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="11"/>
+      <c r="A509" s="14"/>
       <c r="E509" s="3"/>
     </row>
     <row r="510" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="11"/>
+      <c r="A510" s="14"/>
       <c r="E510" s="3"/>
     </row>
     <row r="511" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="11"/>
+      <c r="A511" s="14"/>
       <c r="E511" s="3"/>
     </row>
     <row r="512" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="11"/>
+      <c r="A512" s="14"/>
       <c r="E512" s="3"/>
     </row>
     <row r="513" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="11"/>
+      <c r="A513" s="14"/>
       <c r="E513" s="3"/>
     </row>
     <row r="514" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="11"/>
+      <c r="A514" s="14"/>
       <c r="E514" s="3"/>
     </row>
     <row r="515" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="11"/>
+      <c r="A515" s="14"/>
       <c r="E515" s="3"/>
     </row>
     <row r="516" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="11"/>
+      <c r="A516" s="14"/>
       <c r="E516" s="3"/>
     </row>
     <row r="517" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="11"/>
+      <c r="A517" s="14"/>
       <c r="E517" s="3"/>
     </row>
     <row r="518" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="11"/>
+      <c r="A518" s="14"/>
       <c r="E518" s="3"/>
     </row>
     <row r="519" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="11"/>
+      <c r="A519" s="14"/>
       <c r="E519" s="3"/>
     </row>
     <row r="520" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="11"/>
+      <c r="A520" s="14"/>
       <c r="E520" s="3"/>
     </row>
     <row r="521" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="11"/>
+      <c r="A521" s="14"/>
       <c r="E521" s="3"/>
     </row>
     <row r="522" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="11"/>
+      <c r="A522" s="14"/>
       <c r="E522" s="3"/>
     </row>
     <row r="523" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="11"/>
+      <c r="A523" s="14"/>
       <c r="E523" s="3"/>
     </row>
     <row r="524" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="11"/>
+      <c r="A524" s="14"/>
       <c r="E524" s="3"/>
     </row>
     <row r="525" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="11"/>
+      <c r="A525" s="14"/>
       <c r="E525" s="3"/>
     </row>
     <row r="526" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="11"/>
+      <c r="A526" s="14"/>
       <c r="E526" s="3"/>
     </row>
     <row r="527" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="11"/>
+      <c r="A527" s="14"/>
       <c r="E527" s="3"/>
     </row>
     <row r="528" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="11"/>
+      <c r="A528" s="14"/>
       <c r="E528" s="3"/>
     </row>
     <row r="529" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="11"/>
+      <c r="A529" s="14"/>
       <c r="E529" s="3"/>
     </row>
     <row r="530" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="11"/>
+      <c r="A530" s="14"/>
       <c r="E530" s="3"/>
     </row>
     <row r="531" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="11"/>
+      <c r="A531" s="14"/>
       <c r="E531" s="3"/>
     </row>
     <row r="532" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="11"/>
+      <c r="A532" s="14"/>
       <c r="E532" s="3"/>
     </row>
     <row r="533" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="11"/>
+      <c r="A533" s="14"/>
       <c r="E533" s="3"/>
     </row>
     <row r="534" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="11"/>
+      <c r="A534" s="14"/>
       <c r="E534" s="3"/>
     </row>
     <row r="535" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="11"/>
+      <c r="A535" s="14"/>
       <c r="E535" s="3"/>
     </row>
     <row r="536" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="11"/>
+      <c r="A536" s="14"/>
       <c r="E536" s="3"/>
     </row>
     <row r="537" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="11"/>
+      <c r="A537" s="14"/>
       <c r="E537" s="3"/>
     </row>
     <row r="538" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="11"/>
+      <c r="A538" s="14"/>
       <c r="E538" s="3"/>
     </row>
     <row r="539" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="11"/>
+      <c r="A539" s="14"/>
       <c r="E539" s="3"/>
     </row>
     <row r="540" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="11"/>
+      <c r="A540" s="14"/>
       <c r="E540" s="3"/>
     </row>
     <row r="541" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="11"/>
+      <c r="A541" s="14"/>
       <c r="E541" s="3"/>
     </row>
     <row r="542" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="11"/>
+      <c r="A542" s="14"/>
       <c r="E542" s="3"/>
     </row>
     <row r="543" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="11"/>
+      <c r="A543" s="14"/>
       <c r="E543" s="3"/>
     </row>
     <row r="544" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="11"/>
+      <c r="A544" s="14"/>
       <c r="E544" s="3"/>
     </row>
     <row r="545" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="11"/>
+      <c r="A545" s="14"/>
       <c r="E545" s="3"/>
     </row>
     <row r="546" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="11"/>
+      <c r="A546" s="14"/>
       <c r="E546" s="3"/>
     </row>
     <row r="547" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="11"/>
+      <c r="A547" s="14"/>
       <c r="E547" s="3"/>
     </row>
     <row r="548" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="11"/>
+      <c r="A548" s="14"/>
       <c r="E548" s="3"/>
     </row>
     <row r="549" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="11"/>
+      <c r="A549" s="14"/>
       <c r="E549" s="3"/>
     </row>
     <row r="550" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="11"/>
+      <c r="A550" s="14"/>
       <c r="E550" s="3"/>
     </row>
     <row r="551" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="11"/>
+      <c r="A551" s="14"/>
       <c r="E551" s="3"/>
     </row>
     <row r="552" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="11"/>
+      <c r="A552" s="14"/>
       <c r="E552" s="3"/>
     </row>
     <row r="553" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="11"/>
+      <c r="A553" s="14"/>
       <c r="E553" s="3"/>
     </row>
     <row r="554" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="11"/>
+      <c r="A554" s="14"/>
       <c r="E554" s="3"/>
     </row>
     <row r="555" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="11"/>
+      <c r="A555" s="14"/>
       <c r="E555" s="3"/>
     </row>
     <row r="556" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="11"/>
+      <c r="A556" s="14"/>
       <c r="E556" s="3"/>
     </row>
     <row r="557" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="11"/>
+      <c r="A557" s="14"/>
       <c r="E557" s="3"/>
     </row>
     <row r="558" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="11"/>
+      <c r="A558" s="14"/>
       <c r="E558" s="3"/>
     </row>
     <row r="559" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="11"/>
+      <c r="A559" s="14"/>
       <c r="E559" s="3"/>
     </row>
     <row r="560" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="11"/>
+      <c r="A560" s="14"/>
       <c r="E560" s="3"/>
     </row>
     <row r="561" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="11"/>
+      <c r="A561" s="14"/>
       <c r="E561" s="3"/>
     </row>
     <row r="562" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="11"/>
+      <c r="A562" s="14"/>
       <c r="E562" s="3"/>
     </row>
     <row r="563" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="11"/>
+      <c r="A563" s="14"/>
       <c r="E563" s="3"/>
     </row>
     <row r="564" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="11"/>
+      <c r="A564" s="14"/>
       <c r="E564" s="3"/>
     </row>
     <row r="565" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="11"/>
+      <c r="A565" s="14"/>
       <c r="E565" s="3"/>
     </row>
     <row r="566" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="11"/>
+      <c r="A566" s="14"/>
       <c r="E566" s="3"/>
     </row>
     <row r="567" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="11"/>
+      <c r="A567" s="14"/>
       <c r="E567" s="3"/>
     </row>
     <row r="568" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A568" s="11"/>
+      <c r="A568" s="14"/>
       <c r="E568" s="3"/>
     </row>
     <row r="569" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="11"/>
+      <c r="A569" s="14"/>
       <c r="E569" s="3"/>
     </row>
     <row r="570" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="11"/>
+      <c r="A570" s="14"/>
       <c r="E570" s="3"/>
     </row>
     <row r="571" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A571" s="11"/>
+      <c r="A571" s="14"/>
       <c r="E571" s="3"/>
     </row>
     <row r="572" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="11"/>
+      <c r="A572" s="14"/>
       <c r="E572" s="3"/>
     </row>
     <row r="573" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="11"/>
+      <c r="A573" s="14"/>
       <c r="E573" s="3"/>
     </row>
     <row r="574" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="11"/>
+      <c r="A574" s="14"/>
       <c r="E574" s="3"/>
     </row>
     <row r="575" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="11"/>
+      <c r="A575" s="14"/>
       <c r="E575" s="3"/>
     </row>
     <row r="576" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="11"/>
+      <c r="A576" s="14"/>
       <c r="E576" s="3"/>
     </row>
     <row r="577" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="11"/>
+      <c r="A577" s="14"/>
       <c r="E577" s="3"/>
     </row>
     <row r="578" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="11"/>
+      <c r="A578" s="14"/>
       <c r="E578" s="3"/>
     </row>
     <row r="579" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="11"/>
+      <c r="A579" s="14"/>
       <c r="E579" s="3"/>
     </row>
     <row r="580" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="11"/>
+      <c r="A580" s="14"/>
       <c r="E580" s="3"/>
     </row>
     <row r="581" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="11"/>
+      <c r="A581" s="14"/>
       <c r="E581" s="3"/>
     </row>
     <row r="582" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="11"/>
+      <c r="A582" s="14"/>
       <c r="E582" s="3"/>
     </row>
     <row r="583" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="11"/>
+      <c r="A583" s="14"/>
       <c r="E583" s="3"/>
     </row>
     <row r="584" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="11"/>
+      <c r="A584" s="14"/>
       <c r="E584" s="3"/>
     </row>
     <row r="585" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="11"/>
+      <c r="A585" s="14"/>
       <c r="E585" s="3"/>
     </row>
     <row r="586" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="11"/>
+      <c r="A586" s="14"/>
       <c r="E586" s="3"/>
     </row>
     <row r="587" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="11"/>
+      <c r="A587" s="14"/>
       <c r="E587" s="3"/>
     </row>
     <row r="588" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="11"/>
+      <c r="A588" s="14"/>
       <c r="E588" s="3"/>
     </row>
     <row r="589" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="11"/>
+      <c r="A589" s="14"/>
       <c r="E589" s="3"/>
     </row>
     <row r="590" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="11"/>
+      <c r="A590" s="14"/>
       <c r="E590" s="3"/>
     </row>
     <row r="591" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A591" s="11"/>
+      <c r="A591" s="14"/>
       <c r="E591" s="3"/>
     </row>
     <row r="592" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A592" s="11"/>
+      <c r="A592" s="14"/>
       <c r="E592" s="3"/>
     </row>
     <row r="593" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="11"/>
+      <c r="A593" s="14"/>
       <c r="E593" s="3"/>
     </row>
     <row r="594" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A594" s="11"/>
+      <c r="A594" s="14"/>
       <c r="E594" s="3"/>
     </row>
     <row r="595" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="11"/>
+      <c r="A595" s="14"/>
       <c r="E595" s="3"/>
     </row>
     <row r="596" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A596" s="11"/>
+      <c r="A596" s="14"/>
       <c r="E596" s="3"/>
     </row>
     <row r="597" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A597" s="11"/>
+      <c r="A597" s="14"/>
       <c r="E597" s="3"/>
     </row>
     <row r="598" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="11"/>
+      <c r="A598" s="14"/>
       <c r="E598" s="3"/>
     </row>
     <row r="599" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="11"/>
+      <c r="A599" s="14"/>
       <c r="E599" s="3"/>
     </row>
     <row r="600" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="11"/>
+      <c r="A600" s="14"/>
       <c r="E600" s="3"/>
     </row>
     <row r="601" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="11"/>
+      <c r="A601" s="14"/>
       <c r="E601" s="3"/>
     </row>
     <row r="602" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A602" s="11"/>
+      <c r="A602" s="14"/>
       <c r="E602" s="3"/>
     </row>
     <row r="603" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A603" s="11"/>
+      <c r="A603" s="14"/>
       <c r="E603" s="3"/>
     </row>
     <row r="604" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A604" s="11"/>
+      <c r="A604" s="14"/>
       <c r="E604" s="3"/>
     </row>
     <row r="605" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A605" s="11"/>
+      <c r="A605" s="14"/>
       <c r="E605" s="3"/>
     </row>
     <row r="606" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A606" s="11"/>
+      <c r="A606" s="14"/>
       <c r="E606" s="3"/>
     </row>
     <row r="607" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A607" s="11"/>
+      <c r="A607" s="14"/>
       <c r="E607" s="3"/>
     </row>
     <row r="608" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A608" s="11"/>
+      <c r="A608" s="14"/>
       <c r="E608" s="3"/>
     </row>
     <row r="609" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A609" s="11"/>
+      <c r="A609" s="14"/>
       <c r="E609" s="3"/>
     </row>
     <row r="610" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A610" s="11"/>
+      <c r="A610" s="14"/>
       <c r="E610" s="3"/>
     </row>
     <row r="611" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A611" s="11"/>
+      <c r="A611" s="14"/>
       <c r="E611" s="3"/>
     </row>
     <row r="612" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A612" s="11"/>
+      <c r="A612" s="14"/>
       <c r="E612" s="3"/>
     </row>
     <row r="613" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A613" s="11"/>
+      <c r="A613" s="14"/>
       <c r="E613" s="3"/>
     </row>
     <row r="614" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="11"/>
+      <c r="A614" s="14"/>
       <c r="E614" s="3"/>
     </row>
     <row r="615" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="11"/>
+      <c r="A615" s="14"/>
       <c r="E615" s="3"/>
     </row>
     <row r="616" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A616" s="11"/>
+      <c r="A616" s="14"/>
       <c r="E616" s="3"/>
     </row>
     <row r="617" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A617" s="11"/>
+      <c r="A617" s="14"/>
       <c r="E617" s="3"/>
     </row>
     <row r="618" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A618" s="11"/>
+      <c r="A618" s="14"/>
       <c r="E618" s="3"/>
     </row>
     <row r="619" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A619" s="11"/>
+      <c r="A619" s="14"/>
       <c r="E619" s="3"/>
     </row>
     <row r="620" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A620" s="11"/>
+      <c r="A620" s="14"/>
       <c r="E620" s="3"/>
     </row>
     <row r="621" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A621" s="11"/>
+      <c r="A621" s="14"/>
       <c r="E621" s="3"/>
     </row>
     <row r="622" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A622" s="11"/>
+      <c r="A622" s="14"/>
       <c r="E622" s="3"/>
     </row>
     <row r="623" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A623" s="11"/>
+      <c r="A623" s="14"/>
       <c r="E623" s="3"/>
     </row>
     <row r="624" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A624" s="11"/>
+      <c r="A624" s="14"/>
       <c r="E624" s="3"/>
     </row>
     <row r="625" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A625" s="11"/>
+      <c r="A625" s="14"/>
       <c r="E625" s="3"/>
     </row>
     <row r="626" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A626" s="11"/>
+      <c r="A626" s="14"/>
       <c r="E626" s="3"/>
     </row>
     <row r="627" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A627" s="11"/>
+      <c r="A627" s="14"/>
       <c r="E627" s="3"/>
     </row>
     <row r="628" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A628" s="11"/>
+      <c r="A628" s="14"/>
       <c r="E628" s="3"/>
     </row>
     <row r="629" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A629" s="11"/>
+      <c r="A629" s="14"/>
       <c r="E629" s="3"/>
     </row>
     <row r="630" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A630" s="11"/>
+      <c r="A630" s="14"/>
       <c r="E630" s="3"/>
     </row>
     <row r="631" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A631" s="11"/>
+      <c r="A631" s="14"/>
       <c r="E631" s="3"/>
     </row>
     <row r="632" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A632" s="11"/>
+      <c r="A632" s="14"/>
       <c r="E632" s="3"/>
     </row>
     <row r="633" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A633" s="11"/>
+      <c r="A633" s="14"/>
       <c r="E633" s="3"/>
     </row>
     <row r="634" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A634" s="11"/>
+      <c r="A634" s="14"/>
       <c r="E634" s="3"/>
     </row>
     <row r="635" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A635" s="11"/>
+      <c r="A635" s="14"/>
       <c r="E635" s="3"/>
     </row>
     <row r="636" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A636" s="11"/>
+      <c r="A636" s="14"/>
       <c r="E636" s="3"/>
     </row>
     <row r="637" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A637" s="11"/>
+      <c r="A637" s="14"/>
       <c r="E637" s="3"/>
     </row>
     <row r="638" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A638" s="11"/>
+      <c r="A638" s="14"/>
       <c r="E638" s="3"/>
     </row>
     <row r="639" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A639" s="11"/>
+      <c r="A639" s="14"/>
       <c r="E639" s="3"/>
     </row>
     <row r="640" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A640" s="11"/>
+      <c r="A640" s="14"/>
       <c r="E640" s="3"/>
     </row>
     <row r="641" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A641" s="11"/>
+      <c r="A641" s="14"/>
       <c r="E641" s="3"/>
     </row>
     <row r="642" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A642" s="11"/>
+      <c r="A642" s="14"/>
       <c r="E642" s="3"/>
     </row>
     <row r="643" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A643" s="11"/>
+      <c r="A643" s="14"/>
       <c r="E643" s="3"/>
     </row>
     <row r="644" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A644" s="11"/>
+      <c r="A644" s="14"/>
       <c r="E644" s="3"/>
     </row>
     <row r="645" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A645" s="11"/>
+      <c r="A645" s="14"/>
       <c r="E645" s="3"/>
     </row>
     <row r="646" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A646" s="11"/>
+      <c r="A646" s="14"/>
       <c r="E646" s="3"/>
     </row>
     <row r="647" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A647" s="11"/>
+      <c r="A647" s="14"/>
       <c r="E647" s="3"/>
     </row>
     <row r="648" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A648" s="11"/>
+      <c r="A648" s="14"/>
       <c r="E648" s="3"/>
     </row>
     <row r="649" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A649" s="11"/>
+      <c r="A649" s="14"/>
       <c r="E649" s="3"/>
     </row>
     <row r="650" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A650" s="11"/>
+      <c r="A650" s="14"/>
       <c r="E650" s="3"/>
     </row>
     <row r="651" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A651" s="11"/>
+      <c r="A651" s="14"/>
       <c r="E651" s="3"/>
     </row>
     <row r="652" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A652" s="11"/>
+      <c r="A652" s="14"/>
       <c r="E652" s="3"/>
     </row>
     <row r="653" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A653" s="11"/>
+      <c r="A653" s="14"/>
       <c r="E653" s="3"/>
     </row>
     <row r="654" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A654" s="11"/>
+      <c r="A654" s="14"/>
       <c r="E654" s="3"/>
     </row>
     <row r="655" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A655" s="11"/>
+      <c r="A655" s="14"/>
       <c r="E655" s="3"/>
     </row>
     <row r="656" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A656" s="11"/>
+      <c r="A656" s="14"/>
       <c r="E656" s="3"/>
     </row>
     <row r="657" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A657" s="11"/>
+      <c r="A657" s="14"/>
       <c r="E657" s="3"/>
     </row>
     <row r="658" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A658" s="11"/>
+      <c r="A658" s="14"/>
       <c r="E658" s="3"/>
     </row>
     <row r="659" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A659" s="11"/>
+      <c r="A659" s="14"/>
       <c r="E659" s="3"/>
     </row>
     <row r="660" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A660" s="11"/>
+      <c r="A660" s="14"/>
       <c r="E660" s="3"/>
     </row>
     <row r="661" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A661" s="11"/>
+      <c r="A661" s="14"/>
       <c r="E661" s="3"/>
     </row>
     <row r="662" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A662" s="11"/>
+      <c r="A662" s="14"/>
       <c r="E662" s="3"/>
     </row>
     <row r="663" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A663" s="11"/>
+      <c r="A663" s="14"/>
       <c r="E663" s="3"/>
     </row>
     <row r="664" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A664" s="11"/>
+      <c r="A664" s="14"/>
       <c r="E664" s="3"/>
     </row>
     <row r="665" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A665" s="11"/>
+      <c r="A665" s="14"/>
       <c r="E665" s="3"/>
     </row>
     <row r="666" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A666" s="11"/>
+      <c r="A666" s="14"/>
       <c r="E666" s="3"/>
     </row>
     <row r="667" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A667" s="11"/>
+      <c r="A667" s="14"/>
       <c r="E667" s="3"/>
     </row>
     <row r="668" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A668" s="11"/>
+      <c r="A668" s="14"/>
       <c r="E668" s="3"/>
     </row>
     <row r="669" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A669" s="11"/>
+      <c r="A669" s="14"/>
       <c r="E669" s="3"/>
     </row>
     <row r="670" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A670" s="11"/>
+      <c r="A670" s="14"/>
       <c r="E670" s="3"/>
     </row>
     <row r="671" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A671" s="11"/>
+      <c r="A671" s="14"/>
       <c r="E671" s="3"/>
     </row>
     <row r="672" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A672" s="11"/>
+      <c r="A672" s="14"/>
       <c r="E672" s="3"/>
     </row>
     <row r="673" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A673" s="11"/>
+      <c r="A673" s="14"/>
       <c r="E673" s="3"/>
     </row>
     <row r="674" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A674" s="11"/>
+      <c r="A674" s="14"/>
       <c r="E674" s="3"/>
     </row>
     <row r="675" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A675" s="11"/>
+      <c r="A675" s="14"/>
       <c r="E675" s="3"/>
     </row>
     <row r="676" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A676" s="11"/>
+      <c r="A676" s="14"/>
       <c r="E676" s="3"/>
     </row>
     <row r="677" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A677" s="11"/>
+      <c r="A677" s="14"/>
       <c r="E677" s="3"/>
     </row>
     <row r="678" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A678" s="11"/>
+      <c r="A678" s="14"/>
       <c r="E678" s="3"/>
     </row>
     <row r="679" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A679" s="11"/>
+      <c r="A679" s="14"/>
       <c r="E679" s="3"/>
     </row>
     <row r="680" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A680" s="11"/>
+      <c r="A680" s="14"/>
       <c r="E680" s="3"/>
     </row>
     <row r="681" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A681" s="11"/>
+      <c r="A681" s="14"/>
       <c r="E681" s="3"/>
     </row>
     <row r="682" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A682" s="11"/>
+      <c r="A682" s="14"/>
       <c r="E682" s="3"/>
     </row>
     <row r="683" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A683" s="11"/>
+      <c r="A683" s="14"/>
       <c r="E683" s="3"/>
     </row>
     <row r="684" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A684" s="11"/>
+      <c r="A684" s="14"/>
       <c r="E684" s="3"/>
     </row>
     <row r="685" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A685" s="11"/>
+      <c r="A685" s="14"/>
       <c r="E685" s="3"/>
     </row>
     <row r="686" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A686" s="11"/>
+      <c r="A686" s="14"/>
       <c r="E686" s="3"/>
     </row>
     <row r="687" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A687" s="11"/>
+      <c r="A687" s="14"/>
       <c r="E687" s="3"/>
     </row>
     <row r="688" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A688" s="11"/>
+      <c r="A688" s="14"/>
       <c r="E688" s="3"/>
     </row>
     <row r="689" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A689" s="11"/>
+      <c r="A689" s="14"/>
       <c r="E689" s="3"/>
     </row>
     <row r="690" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A690" s="11"/>
+      <c r="A690" s="14"/>
       <c r="E690" s="3"/>
     </row>
     <row r="691" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A691" s="11"/>
+      <c r="A691" s="14"/>
       <c r="E691" s="3"/>
     </row>
     <row r="692" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A692" s="11"/>
+      <c r="A692" s="14"/>
       <c r="E692" s="3"/>
     </row>
     <row r="693" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A693" s="11"/>
+      <c r="A693" s="14"/>
       <c r="E693" s="3"/>
     </row>
     <row r="694" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A694" s="11"/>
+      <c r="A694" s="14"/>
       <c r="E694" s="3"/>
     </row>
     <row r="695" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A695" s="11"/>
+      <c r="A695" s="14"/>
       <c r="E695" s="3"/>
     </row>
     <row r="696" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A696" s="11"/>
+      <c r="A696" s="14"/>
       <c r="E696" s="3"/>
     </row>
     <row r="697" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A697" s="11"/>
+      <c r="A697" s="14"/>
       <c r="E697" s="3"/>
     </row>
     <row r="698" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A698" s="11"/>
+      <c r="A698" s="14"/>
       <c r="E698" s="3"/>
     </row>
     <row r="699" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A699" s="11"/>
+      <c r="A699" s="14"/>
       <c r="E699" s="3"/>
     </row>
     <row r="700" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A700" s="11"/>
+      <c r="A700" s="14"/>
       <c r="E700" s="3"/>
     </row>
     <row r="701" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A701" s="11"/>
+      <c r="A701" s="14"/>
       <c r="E701" s="3"/>
     </row>
     <row r="702" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A702" s="11"/>
+      <c r="A702" s="14"/>
       <c r="E702" s="3"/>
     </row>
     <row r="703" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A703" s="11"/>
+      <c r="A703" s="14"/>
       <c r="E703" s="3"/>
     </row>
     <row r="704" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A704" s="11"/>
+      <c r="A704" s="14"/>
       <c r="E704" s="3"/>
     </row>
     <row r="705" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A705" s="11"/>
+      <c r="A705" s="14"/>
       <c r="E705" s="3"/>
     </row>
     <row r="706" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A706" s="11"/>
+      <c r="A706" s="14"/>
       <c r="E706" s="3"/>
     </row>
     <row r="707" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A707" s="11"/>
+      <c r="A707" s="14"/>
       <c r="E707" s="3"/>
     </row>
     <row r="708" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A708" s="11"/>
+      <c r="A708" s="14"/>
       <c r="E708" s="3"/>
     </row>
     <row r="709" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A709" s="11"/>
+      <c r="A709" s="14"/>
       <c r="E709" s="3"/>
     </row>
     <row r="710" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A710" s="11"/>
+      <c r="A710" s="14"/>
       <c r="E710" s="3"/>
     </row>
     <row r="711" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A711" s="11"/>
+      <c r="A711" s="14"/>
       <c r="E711" s="3"/>
     </row>
     <row r="712" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A712" s="11"/>
+      <c r="A712" s="14"/>
       <c r="E712" s="3"/>
     </row>
     <row r="713" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A713" s="11"/>
+      <c r="A713" s="14"/>
       <c r="E713" s="3"/>
     </row>
     <row r="714" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A714" s="11"/>
+      <c r="A714" s="14"/>
       <c r="E714" s="3"/>
     </row>
     <row r="715" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A715" s="11"/>
+      <c r="A715" s="14"/>
       <c r="E715" s="3"/>
     </row>
     <row r="716" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A716" s="11"/>
+      <c r="A716" s="14"/>
       <c r="E716" s="3"/>
     </row>
     <row r="717" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A717" s="11"/>
+      <c r="A717" s="14"/>
       <c r="E717" s="3"/>
     </row>
     <row r="718" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A718" s="11"/>
+      <c r="A718" s="14"/>
       <c r="E718" s="3"/>
     </row>
     <row r="719" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A719" s="11"/>
+      <c r="A719" s="14"/>
       <c r="E719" s="3"/>
     </row>
     <row r="720" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A720" s="11"/>
+      <c r="A720" s="14"/>
       <c r="E720" s="3"/>
     </row>
     <row r="721" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A721" s="11"/>
+      <c r="A721" s="14"/>
       <c r="E721" s="3"/>
     </row>
     <row r="722" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A722" s="11"/>
+      <c r="A722" s="14"/>
       <c r="E722" s="3"/>
     </row>
     <row r="723" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A723" s="11"/>
+      <c r="A723" s="14"/>
       <c r="E723" s="3"/>
     </row>
     <row r="724" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A724" s="11"/>
+      <c r="A724" s="14"/>
       <c r="E724" s="3"/>
     </row>
     <row r="725" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A725" s="11"/>
+      <c r="A725" s="14"/>
       <c r="E725" s="3"/>
     </row>
     <row r="726" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A726" s="11"/>
+      <c r="A726" s="14"/>
       <c r="E726" s="3"/>
     </row>
     <row r="727" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A727" s="11"/>
+      <c r="A727" s="14"/>
       <c r="E727" s="3"/>
     </row>
     <row r="728" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A728" s="11"/>
+      <c r="A728" s="14"/>
       <c r="E728" s="3"/>
     </row>
     <row r="729" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A729" s="11"/>
+      <c r="A729" s="14"/>
       <c r="E729" s="3"/>
     </row>
     <row r="730" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A730" s="11"/>
+      <c r="A730" s="14"/>
       <c r="E730" s="3"/>
     </row>
     <row r="731" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A731" s="11"/>
+      <c r="A731" s="14"/>
       <c r="E731" s="3"/>
     </row>
     <row r="732" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A732" s="11"/>
+      <c r="A732" s="14"/>
       <c r="E732" s="3"/>
     </row>
     <row r="733" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A733" s="11"/>
+      <c r="A733" s="14"/>
       <c r="E733" s="3"/>
     </row>
     <row r="734" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A734" s="11"/>
+      <c r="A734" s="14"/>
       <c r="E734" s="3"/>
     </row>
     <row r="735" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A735" s="11"/>
+      <c r="A735" s="14"/>
       <c r="E735" s="3"/>
     </row>
     <row r="736" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A736" s="11"/>
+      <c r="A736" s="14"/>
       <c r="E736" s="3"/>
     </row>
     <row r="737" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A737" s="11"/>
+      <c r="A737" s="14"/>
       <c r="E737" s="3"/>
     </row>
     <row r="738" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A738" s="11"/>
+      <c r="A738" s="14"/>
       <c r="E738" s="3"/>
     </row>
     <row r="739" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A739" s="11"/>
+      <c r="A739" s="14"/>
       <c r="E739" s="3"/>
     </row>
     <row r="740" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A740" s="11"/>
+      <c r="A740" s="14"/>
       <c r="E740" s="3"/>
     </row>
     <row r="741" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A741" s="11"/>
+      <c r="A741" s="14"/>
       <c r="E741" s="3"/>
     </row>
     <row r="742" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A742" s="11"/>
+      <c r="A742" s="14"/>
       <c r="E742" s="3"/>
     </row>
     <row r="743" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A743" s="11"/>
+      <c r="A743" s="14"/>
       <c r="E743" s="3"/>
     </row>
     <row r="744" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A744" s="11"/>
+      <c r="A744" s="14"/>
       <c r="E744" s="3"/>
     </row>
     <row r="745" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A745" s="11"/>
+      <c r="A745" s="14"/>
       <c r="E745" s="3"/>
     </row>
     <row r="746" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A746" s="11"/>
+      <c r="A746" s="14"/>
       <c r="E746" s="3"/>
     </row>
     <row r="747" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A747" s="11"/>
+      <c r="A747" s="14"/>
       <c r="E747" s="3"/>
     </row>
     <row r="748" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A748" s="11"/>
+      <c r="A748" s="14"/>
       <c r="E748" s="3"/>
     </row>
     <row r="749" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A749" s="11"/>
+      <c r="A749" s="14"/>
       <c r="E749" s="3"/>
     </row>
     <row r="750" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A750" s="11"/>
+      <c r="A750" s="14"/>
       <c r="E750" s="3"/>
     </row>
     <row r="751" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A751" s="11"/>
+      <c r="A751" s="14"/>
       <c r="E751" s="3"/>
     </row>
     <row r="752" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A752" s="11"/>
+      <c r="A752" s="14"/>
       <c r="E752" s="3"/>
     </row>
     <row r="753" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A753" s="11"/>
+      <c r="A753" s="14"/>
       <c r="E753" s="3"/>
     </row>
     <row r="754" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A754" s="11"/>
+      <c r="A754" s="14"/>
       <c r="E754" s="3"/>
     </row>
     <row r="755" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A755" s="11"/>
+      <c r="A755" s="14"/>
       <c r="E755" s="3"/>
     </row>
     <row r="756" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A756" s="11"/>
+      <c r="A756" s="14"/>
       <c r="E756" s="3"/>
     </row>
     <row r="757" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A757" s="11"/>
+      <c r="A757" s="14"/>
       <c r="E757" s="3"/>
     </row>
     <row r="758" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A758" s="11"/>
+      <c r="A758" s="14"/>
       <c r="E758" s="3"/>
     </row>
     <row r="759" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A759" s="11"/>
+      <c r="A759" s="14"/>
       <c r="E759" s="3"/>
     </row>
     <row r="760" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A760" s="11"/>
+      <c r="A760" s="14"/>
       <c r="E760" s="3"/>
     </row>
     <row r="761" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A761" s="11"/>
+      <c r="A761" s="14"/>
       <c r="E761" s="3"/>
     </row>
     <row r="762" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A762" s="11"/>
+      <c r="A762" s="14"/>
       <c r="E762" s="3"/>
     </row>
     <row r="763" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A763" s="11"/>
+      <c r="A763" s="14"/>
       <c r="E763" s="3"/>
     </row>
     <row r="764" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A764" s="11"/>
+      <c r="A764" s="14"/>
       <c r="E764" s="3"/>
     </row>
     <row r="765" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A765" s="11"/>
+      <c r="A765" s="14"/>
       <c r="E765" s="3"/>
     </row>
     <row r="766" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A766" s="11"/>
+      <c r="A766" s="14"/>
       <c r="E766" s="3"/>
     </row>
     <row r="767" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A767" s="11"/>
+      <c r="A767" s="14"/>
       <c r="E767" s="3"/>
     </row>
     <row r="768" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A768" s="11"/>
+      <c r="A768" s="14"/>
       <c r="E768" s="3"/>
     </row>
     <row r="769" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A769" s="11"/>
+      <c r="A769" s="14"/>
       <c r="E769" s="3"/>
     </row>
     <row r="770" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A770" s="11"/>
+      <c r="A770" s="14"/>
       <c r="E770" s="3"/>
     </row>
     <row r="771" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A771" s="11"/>
+      <c r="A771" s="14"/>
       <c r="E771" s="3"/>
     </row>
     <row r="772" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A772" s="11"/>
+      <c r="A772" s="14"/>
       <c r="E772" s="3"/>
     </row>
     <row r="773" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A773" s="11"/>
+      <c r="A773" s="14"/>
       <c r="E773" s="3"/>
     </row>
     <row r="774" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A774" s="11"/>
+      <c r="A774" s="14"/>
       <c r="E774" s="3"/>
     </row>
     <row r="775" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A775" s="11"/>
+      <c r="A775" s="14"/>
       <c r="E775" s="3"/>
     </row>
     <row r="776" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A776" s="11"/>
+      <c r="A776" s="14"/>
       <c r="E776" s="3"/>
     </row>
     <row r="777" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A777" s="11"/>
+      <c r="A777" s="14"/>
       <c r="E777" s="3"/>
     </row>
     <row r="778" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A778" s="11"/>
+      <c r="A778" s="14"/>
       <c r="E778" s="3"/>
     </row>
     <row r="779" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A779" s="11"/>
+      <c r="A779" s="14"/>
       <c r="E779" s="3"/>
     </row>
     <row r="780" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A780" s="11"/>
+      <c r="A780" s="14"/>
       <c r="E780" s="3"/>
     </row>
     <row r="781" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A781" s="11"/>
+      <c r="A781" s="14"/>
       <c r="E781" s="3"/>
     </row>
     <row r="782" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A782" s="11"/>
+      <c r="A782" s="14"/>
       <c r="E782" s="3"/>
     </row>
     <row r="783" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A783" s="11"/>
+      <c r="A783" s="14"/>
       <c r="E783" s="3"/>
     </row>
     <row r="784" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A784" s="11"/>
+      <c r="A784" s="14"/>
       <c r="E784" s="3"/>
     </row>
     <row r="785" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A785" s="11"/>
+      <c r="A785" s="14"/>
       <c r="E785" s="3"/>
     </row>
     <row r="786" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A786" s="11"/>
+      <c r="A786" s="14"/>
       <c r="E786" s="3"/>
     </row>
     <row r="787" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A787" s="11"/>
+      <c r="A787" s="14"/>
       <c r="E787" s="3"/>
     </row>
     <row r="788" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A788" s="11"/>
+      <c r="A788" s="14"/>
       <c r="E788" s="3"/>
     </row>
     <row r="789" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A789" s="11"/>
+      <c r="A789" s="14"/>
       <c r="E789" s="3"/>
     </row>
     <row r="790" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A790" s="11"/>
+      <c r="A790" s="14"/>
       <c r="E790" s="3"/>
     </row>
     <row r="791" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A791" s="11"/>
+      <c r="A791" s="14"/>
       <c r="E791" s="3"/>
     </row>
     <row r="792" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A792" s="11"/>
+      <c r="A792" s="14"/>
       <c r="E792" s="3"/>
     </row>
     <row r="793" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A793" s="11"/>
+      <c r="A793" s="14"/>
       <c r="E793" s="3"/>
     </row>
     <row r="794" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A794" s="11"/>
+      <c r="A794" s="14"/>
       <c r="E794" s="3"/>
     </row>
     <row r="795" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A795" s="11"/>
+      <c r="A795" s="14"/>
       <c r="E795" s="3"/>
     </row>
     <row r="796" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A796" s="11"/>
+      <c r="A796" s="14"/>
       <c r="E796" s="3"/>
     </row>
     <row r="797" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A797" s="11"/>
+      <c r="A797" s="14"/>
       <c r="E797" s="3"/>
     </row>
     <row r="798" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A798" s="11"/>
+      <c r="A798" s="14"/>
       <c r="E798" s="3"/>
     </row>
     <row r="799" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A799" s="11"/>
+      <c r="A799" s="14"/>
       <c r="E799" s="3"/>
     </row>
     <row r="800" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A800" s="11"/>
+      <c r="A800" s="14"/>
       <c r="E800" s="3"/>
     </row>
     <row r="801" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A801" s="11"/>
+      <c r="A801" s="14"/>
       <c r="E801" s="3"/>
     </row>
     <row r="802" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A802" s="11"/>
+      <c r="A802" s="14"/>
       <c r="E802" s="3"/>
     </row>
     <row r="803" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A803" s="11"/>
+      <c r="A803" s="14"/>
       <c r="E803" s="3"/>
     </row>
     <row r="804" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A804" s="11"/>
+      <c r="A804" s="14"/>
       <c r="E804" s="3"/>
     </row>
     <row r="805" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A805" s="11"/>
+      <c r="A805" s="14"/>
       <c r="E805" s="3"/>
     </row>
     <row r="806" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A806" s="11"/>
+      <c r="A806" s="14"/>
       <c r="E806" s="3"/>
     </row>
     <row r="807" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A807" s="11"/>
+      <c r="A807" s="14"/>
       <c r="E807" s="3"/>
     </row>
     <row r="808" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A808" s="11"/>
+      <c r="A808" s="14"/>
       <c r="E808" s="3"/>
     </row>
     <row r="809" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A809" s="11"/>
+      <c r="A809" s="14"/>
       <c r="E809" s="3"/>
     </row>
     <row r="810" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A810" s="11"/>
+      <c r="A810" s="14"/>
       <c r="E810" s="3"/>
     </row>
     <row r="811" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A811" s="11"/>
+      <c r="A811" s="14"/>
       <c r="E811" s="3"/>
     </row>
     <row r="812" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A812" s="11"/>
+      <c r="A812" s="14"/>
       <c r="E812" s="3"/>
     </row>
     <row r="813" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A813" s="11"/>
+      <c r="A813" s="14"/>
       <c r="E813" s="3"/>
     </row>
     <row r="814" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A814" s="11"/>
+      <c r="A814" s="14"/>
       <c r="E814" s="3"/>
     </row>
     <row r="815" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A815" s="11"/>
+      <c r="A815" s="14"/>
       <c r="E815" s="3"/>
     </row>
     <row r="816" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A816" s="11"/>
+      <c r="A816" s="14"/>
       <c r="E816" s="3"/>
     </row>
     <row r="817" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A817" s="11"/>
+      <c r="A817" s="14"/>
       <c r="E817" s="3"/>
     </row>
     <row r="818" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A818" s="11"/>
+      <c r="A818" s="14"/>
       <c r="E818" s="3"/>
     </row>
     <row r="819" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A819" s="11"/>
+      <c r="A819" s="14"/>
       <c r="E819" s="3"/>
     </row>
     <row r="820" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A820" s="11"/>
+      <c r="A820" s="14"/>
       <c r="E820" s="3"/>
     </row>
     <row r="821" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A821" s="11"/>
+      <c r="A821" s="14"/>
       <c r="E821" s="3"/>
     </row>
     <row r="822" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A822" s="11"/>
+      <c r="A822" s="14"/>
       <c r="E822" s="3"/>
     </row>
     <row r="823" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A823" s="11"/>
+      <c r="A823" s="14"/>
       <c r="E823" s="3"/>
     </row>
     <row r="824" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A824" s="11"/>
+      <c r="A824" s="14"/>
       <c r="E824" s="3"/>
     </row>
     <row r="825" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A825" s="11"/>
+      <c r="A825" s="14"/>
       <c r="E825" s="3"/>
     </row>
     <row r="826" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A826" s="11"/>
+      <c r="A826" s="14"/>
       <c r="E826" s="3"/>
     </row>
     <row r="827" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A827" s="11"/>
+      <c r="A827" s="14"/>
       <c r="E827" s="3"/>
     </row>
     <row r="828" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A828" s="11"/>
+      <c r="A828" s="14"/>
       <c r="E828" s="3"/>
     </row>
     <row r="829" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A829" s="11"/>
+      <c r="A829" s="14"/>
       <c r="E829" s="3"/>
     </row>
     <row r="830" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A830" s="11"/>
+      <c r="A830" s="14"/>
       <c r="E830" s="3"/>
     </row>
     <row r="831" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A831" s="11"/>
+      <c r="A831" s="14"/>
       <c r="E831" s="3"/>
     </row>
     <row r="832" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A832" s="11"/>
+      <c r="A832" s="14"/>
       <c r="E832" s="3"/>
     </row>
     <row r="833" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A833" s="11"/>
+      <c r="A833" s="14"/>
       <c r="E833" s="3"/>
     </row>
     <row r="834" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A834" s="11"/>
+      <c r="A834" s="14"/>
       <c r="E834" s="3"/>
     </row>
     <row r="835" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A835" s="11"/>
+      <c r="A835" s="14"/>
       <c r="E835" s="3"/>
     </row>
     <row r="836" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A836" s="11"/>
+      <c r="A836" s="14"/>
       <c r="E836" s="3"/>
     </row>
     <row r="837" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A837" s="11"/>
+      <c r="A837" s="14"/>
       <c r="E837" s="3"/>
     </row>
     <row r="838" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A838" s="11"/>
+      <c r="A838" s="14"/>
       <c r="E838" s="3"/>
     </row>
     <row r="839" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A839" s="11"/>
+      <c r="A839" s="14"/>
       <c r="E839" s="3"/>
     </row>
     <row r="840" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A840" s="11"/>
+      <c r="A840" s="14"/>
       <c r="E840" s="3"/>
     </row>
     <row r="841" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A841" s="11"/>
+      <c r="A841" s="14"/>
       <c r="E841" s="3"/>
     </row>
     <row r="842" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A842" s="11"/>
+      <c r="A842" s="14"/>
       <c r="E842" s="3"/>
     </row>
     <row r="843" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A843" s="11"/>
+      <c r="A843" s="14"/>
       <c r="E843" s="3"/>
     </row>
     <row r="844" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A844" s="11"/>
+      <c r="A844" s="14"/>
       <c r="E844" s="3"/>
     </row>
     <row r="845" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A845" s="11"/>
+      <c r="A845" s="14"/>
       <c r="E845" s="3"/>
     </row>
     <row r="846" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A846" s="11"/>
+      <c r="A846" s="14"/>
       <c r="E846" s="3"/>
     </row>
     <row r="847" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A847" s="11"/>
+      <c r="A847" s="14"/>
       <c r="E847" s="3"/>
     </row>
     <row r="848" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A848" s="11"/>
+      <c r="A848" s="14"/>
       <c r="E848" s="3"/>
     </row>
     <row r="849" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A849" s="11"/>
+      <c r="A849" s="14"/>
       <c r="E849" s="3"/>
     </row>
     <row r="850" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A850" s="11"/>
+      <c r="A850" s="14"/>
       <c r="E850" s="3"/>
     </row>
     <row r="851" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A851" s="11"/>
+      <c r="A851" s="14"/>
       <c r="E851" s="3"/>
     </row>
     <row r="852" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A852" s="11"/>
+      <c r="A852" s="14"/>
       <c r="E852" s="3"/>
     </row>
     <row r="853" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A853" s="11"/>
+      <c r="A853" s="14"/>
       <c r="E853" s="3"/>
     </row>
     <row r="854" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A854" s="11"/>
+      <c r="A854" s="14"/>
       <c r="E854" s="3"/>
     </row>
     <row r="855" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A855" s="11"/>
+      <c r="A855" s="14"/>
       <c r="E855" s="3"/>
     </row>
     <row r="856" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A856" s="11"/>
+      <c r="A856" s="14"/>
       <c r="E856" s="3"/>
     </row>
     <row r="857" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A857" s="11"/>
+      <c r="A857" s="14"/>
       <c r="E857" s="3"/>
     </row>
     <row r="858" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A858" s="11"/>
+      <c r="A858" s="14"/>
       <c r="E858" s="3"/>
     </row>
     <row r="859" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A859" s="11"/>
+      <c r="A859" s="14"/>
       <c r="E859" s="3"/>
     </row>
     <row r="860" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A860" s="11"/>
+      <c r="A860" s="14"/>
       <c r="E860" s="3"/>
     </row>
     <row r="861" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A861" s="11"/>
+      <c r="A861" s="14"/>
       <c r="E861" s="3"/>
     </row>
     <row r="862" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A862" s="11"/>
+      <c r="A862" s="14"/>
       <c r="E862" s="3"/>
     </row>
     <row r="863" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A863" s="11"/>
+      <c r="A863" s="14"/>
       <c r="E863" s="3"/>
     </row>
     <row r="864" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A864" s="11"/>
+      <c r="A864" s="14"/>
       <c r="E864" s="3"/>
     </row>
     <row r="865" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A865" s="11"/>
+      <c r="A865" s="14"/>
       <c r="E865" s="3"/>
     </row>
     <row r="866" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A866" s="11"/>
+      <c r="A866" s="14"/>
       <c r="E866" s="3"/>
     </row>
     <row r="867" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A867" s="11"/>
+      <c r="A867" s="14"/>
       <c r="E867" s="3"/>
     </row>
     <row r="868" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A868" s="11"/>
+      <c r="A868" s="14"/>
       <c r="E868" s="3"/>
     </row>
     <row r="869" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A869" s="11"/>
+      <c r="A869" s="14"/>
       <c r="E869" s="3"/>
     </row>
     <row r="870" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A870" s="11"/>
+      <c r="A870" s="14"/>
       <c r="E870" s="3"/>
     </row>
     <row r="871" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A871" s="11"/>
+      <c r="A871" s="14"/>
       <c r="E871" s="3"/>
     </row>
     <row r="872" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A872" s="11"/>
+      <c r="A872" s="14"/>
       <c r="E872" s="3"/>
     </row>
     <row r="873" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A873" s="11"/>
+      <c r="A873" s="14"/>
       <c r="E873" s="3"/>
     </row>
     <row r="874" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A874" s="11"/>
+      <c r="A874" s="14"/>
       <c r="E874" s="3"/>
     </row>
     <row r="875" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A875" s="11"/>
+      <c r="A875" s="14"/>
       <c r="E875" s="3"/>
     </row>
     <row r="876" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A876" s="11"/>
+      <c r="A876" s="14"/>
       <c r="E876" s="3"/>
     </row>
     <row r="877" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A877" s="11"/>
+      <c r="A877" s="14"/>
       <c r="E877" s="3"/>
     </row>
     <row r="878" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A878" s="11"/>
+      <c r="A878" s="14"/>
       <c r="E878" s="3"/>
     </row>
     <row r="879" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A879" s="11"/>
+      <c r="A879" s="14"/>
       <c r="E879" s="3"/>
     </row>
     <row r="880" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A880" s="11"/>
+      <c r="A880" s="14"/>
       <c r="E880" s="3"/>
     </row>
     <row r="881" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A881" s="11"/>
+      <c r="A881" s="14"/>
       <c r="E881" s="3"/>
     </row>
     <row r="882" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A882" s="11"/>
+      <c r="A882" s="14"/>
       <c r="E882" s="3"/>
     </row>
     <row r="883" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A883" s="11"/>
+      <c r="A883" s="14"/>
       <c r="E883" s="3"/>
     </row>
     <row r="884" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A884" s="11"/>
+      <c r="A884" s="14"/>
       <c r="E884" s="3"/>
     </row>
     <row r="885" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A885" s="11"/>
+      <c r="A885" s="14"/>
       <c r="E885" s="3"/>
     </row>
     <row r="886" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A886" s="11"/>
+      <c r="A886" s="14"/>
       <c r="E886" s="3"/>
     </row>
     <row r="887" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A887" s="11"/>
+      <c r="A887" s="14"/>
       <c r="E887" s="3"/>
     </row>
     <row r="888" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A888" s="11"/>
+      <c r="A888" s="14"/>
       <c r="E888" s="3"/>
     </row>
     <row r="889" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A889" s="11"/>
+      <c r="A889" s="14"/>
       <c r="E889" s="3"/>
     </row>
     <row r="890" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A890" s="11"/>
+      <c r="A890" s="14"/>
       <c r="E890" s="3"/>
     </row>
     <row r="891" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A891" s="11"/>
+      <c r="A891" s="14"/>
       <c r="E891" s="3"/>
     </row>
     <row r="892" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A892" s="11"/>
+      <c r="A892" s="14"/>
       <c r="E892" s="3"/>
     </row>
     <row r="893" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A893" s="11"/>
+      <c r="A893" s="14"/>
       <c r="E893" s="3"/>
     </row>
     <row r="894" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A894" s="11"/>
+      <c r="A894" s="14"/>
       <c r="E894" s="3"/>
     </row>
     <row r="895" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A895" s="11"/>
+      <c r="A895" s="14"/>
       <c r="E895" s="3"/>
     </row>
     <row r="896" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A896" s="11"/>
+      <c r="A896" s="14"/>
       <c r="E896" s="3"/>
     </row>
     <row r="897" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A897" s="11"/>
+      <c r="A897" s="14"/>
       <c r="E897" s="3"/>
     </row>
     <row r="898" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A898" s="11"/>
+      <c r="A898" s="14"/>
       <c r="E898" s="3"/>
     </row>
     <row r="899" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A899" s="11"/>
+      <c r="A899" s="14"/>
       <c r="E899" s="3"/>
     </row>
     <row r="900" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A900" s="11"/>
+      <c r="A900" s="14"/>
       <c r="E900" s="3"/>
     </row>
     <row r="901" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A901" s="11"/>
+      <c r="A901" s="14"/>
       <c r="E901" s="3"/>
     </row>
     <row r="902" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A902" s="11"/>
+      <c r="A902" s="14"/>
       <c r="E902" s="3"/>
     </row>
     <row r="903" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A903" s="11"/>
+      <c r="A903" s="14"/>
       <c r="E903" s="3"/>
     </row>
     <row r="904" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A904" s="11"/>
+      <c r="A904" s="14"/>
       <c r="E904" s="3"/>
     </row>
     <row r="905" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A905" s="11"/>
+      <c r="A905" s="14"/>
       <c r="E905" s="3"/>
     </row>
     <row r="906" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A906" s="11"/>
+      <c r="A906" s="14"/>
       <c r="E906" s="3"/>
     </row>
     <row r="907" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A907" s="11"/>
+      <c r="A907" s="14"/>
       <c r="E907" s="3"/>
     </row>
     <row r="908" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A908" s="11"/>
+      <c r="A908" s="14"/>
       <c r="E908" s="3"/>
     </row>
     <row r="909" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A909" s="11"/>
+      <c r="A909" s="14"/>
       <c r="E909" s="3"/>
     </row>
     <row r="910" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A910" s="11"/>
+      <c r="A910" s="14"/>
       <c r="E910" s="3"/>
     </row>
     <row r="911" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A911" s="11"/>
+      <c r="A911" s="14"/>
       <c r="E911" s="3"/>
     </row>
     <row r="912" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A912" s="11"/>
+      <c r="A912" s="14"/>
       <c r="E912" s="3"/>
     </row>
     <row r="913" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A913" s="11"/>
+      <c r="A913" s="14"/>
       <c r="E913" s="3"/>
     </row>
     <row r="914" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A914" s="11"/>
+      <c r="A914" s="14"/>
       <c r="E914" s="3"/>
     </row>
     <row r="915" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A915" s="11"/>
+      <c r="A915" s="14"/>
       <c r="E915" s="3"/>
     </row>
     <row r="916" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A916" s="11"/>
+      <c r="A916" s="14"/>
       <c r="E916" s="3"/>
     </row>
     <row r="917" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A917" s="11"/>
+      <c r="A917" s="14"/>
       <c r="E917" s="3"/>
     </row>
     <row r="918" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A918" s="11"/>
+      <c r="A918" s="14"/>
       <c r="E918" s="3"/>
     </row>
     <row r="919" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A919" s="11"/>
+      <c r="A919" s="14"/>
       <c r="E919" s="3"/>
     </row>
     <row r="920" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A920" s="11"/>
+      <c r="A920" s="14"/>
       <c r="E920" s="3"/>
     </row>
     <row r="921" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A921" s="11"/>
+      <c r="A921" s="14"/>
       <c r="E921" s="3"/>
     </row>
     <row r="922" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A922" s="11"/>
+      <c r="A922" s="14"/>
       <c r="E922" s="3"/>
     </row>
     <row r="923" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A923" s="11"/>
+      <c r="A923" s="14"/>
       <c r="E923" s="3"/>
     </row>
     <row r="924" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A924" s="11"/>
+      <c r="A924" s="14"/>
       <c r="E924" s="3"/>
     </row>
     <row r="925" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A925" s="11"/>
+      <c r="A925" s="14"/>
       <c r="E925" s="3"/>
     </row>
     <row r="926" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A926" s="11"/>
+      <c r="A926" s="14"/>
       <c r="E926" s="3"/>
     </row>
     <row r="927" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A927" s="11"/>
+      <c r="A927" s="14"/>
       <c r="E927" s="3"/>
     </row>
     <row r="928" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A928" s="11"/>
+      <c r="A928" s="14"/>
       <c r="E928" s="3"/>
     </row>
     <row r="929" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A929" s="11"/>
+      <c r="A929" s="14"/>
       <c r="E929" s="3"/>
     </row>
     <row r="930" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A930" s="11"/>
+      <c r="A930" s="14"/>
       <c r="E930" s="3"/>
     </row>
     <row r="931" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A931" s="11"/>
+      <c r="A931" s="14"/>
       <c r="E931" s="3"/>
     </row>
     <row r="932" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A932" s="11"/>
+      <c r="A932" s="14"/>
       <c r="E932" s="3"/>
     </row>
     <row r="933" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A933" s="11"/>
+      <c r="A933" s="14"/>
       <c r="E933" s="3"/>
     </row>
     <row r="934" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A934" s="11"/>
+      <c r="A934" s="14"/>
       <c r="E934" s="3"/>
     </row>
     <row r="935" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A935" s="11"/>
+      <c r="A935" s="14"/>
       <c r="E935" s="3"/>
     </row>
     <row r="936" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A936" s="11"/>
+      <c r="A936" s="14"/>
       <c r="E936" s="3"/>
     </row>
     <row r="937" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A937" s="11"/>
+      <c r="A937" s="14"/>
       <c r="E937" s="3"/>
     </row>
     <row r="938" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A938" s="11"/>
+      <c r="A938" s="14"/>
       <c r="E938" s="3"/>
     </row>
     <row r="939" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A939" s="11"/>
+      <c r="A939" s="14"/>
       <c r="E939" s="3"/>
     </row>
     <row r="940" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A940" s="11"/>
+      <c r="A940" s="14"/>
       <c r="E940" s="3"/>
     </row>
     <row r="941" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A941" s="11"/>
+      <c r="A941" s="14"/>
       <c r="E941" s="3"/>
     </row>
     <row r="942" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A942" s="11"/>
+      <c r="A942" s="14"/>
       <c r="E942" s="3"/>
     </row>
     <row r="943" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A943" s="11"/>
+      <c r="A943" s="14"/>
       <c r="E943" s="3"/>
     </row>
     <row r="944" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A944" s="11"/>
+      <c r="A944" s="14"/>
       <c r="E944" s="3"/>
     </row>
     <row r="945" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A945" s="11"/>
+      <c r="A945" s="14"/>
       <c r="E945" s="3"/>
     </row>
     <row r="946" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A946" s="11"/>
+      <c r="A946" s="14"/>
       <c r="E946" s="3"/>
     </row>
     <row r="947" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A947" s="11"/>
+      <c r="A947" s="14"/>
       <c r="E947" s="3"/>
     </row>
     <row r="948" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A948" s="11"/>
+      <c r="A948" s="14"/>
       <c r="E948" s="3"/>
     </row>
     <row r="949" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A949" s="11"/>
+      <c r="A949" s="14"/>
       <c r="E949" s="3"/>
     </row>
     <row r="950" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A950" s="11"/>
+      <c r="A950" s="14"/>
       <c r="E950" s="3"/>
     </row>
     <row r="951" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A951" s="11"/>
+      <c r="A951" s="14"/>
       <c r="E951" s="3"/>
     </row>
     <row r="952" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A952" s="11"/>
+      <c r="A952" s="14"/>
       <c r="E952" s="3"/>
     </row>
     <row r="953" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A953" s="11"/>
+      <c r="A953" s="14"/>
       <c r="E953" s="3"/>
     </row>
     <row r="954" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A954" s="11"/>
+      <c r="A954" s="14"/>
       <c r="E954" s="3"/>
     </row>
     <row r="955" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A955" s="11"/>
+      <c r="A955" s="14"/>
       <c r="E955" s="3"/>
     </row>
     <row r="956" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A956" s="11"/>
+      <c r="A956" s="14"/>
       <c r="E956" s="3"/>
     </row>
     <row r="957" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A957" s="11"/>
+      <c r="A957" s="14"/>
       <c r="E957" s="3"/>
     </row>
     <row r="958" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A958" s="11"/>
+      <c r="A958" s="14"/>
       <c r="E958" s="3"/>
     </row>
     <row r="959" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A959" s="11"/>
+      <c r="A959" s="14"/>
       <c r="E959" s="3"/>
     </row>
     <row r="960" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A960" s="11"/>
+      <c r="A960" s="14"/>
       <c r="E960" s="3"/>
     </row>
     <row r="961" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A961" s="11"/>
+      <c r="A961" s="14"/>
       <c r="E961" s="3"/>
     </row>
     <row r="962" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A962" s="11"/>
+      <c r="A962" s="14"/>
       <c r="E962" s="3"/>
     </row>
     <row r="963" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A963" s="11"/>
+      <c r="A963" s="14"/>
       <c r="E963" s="3"/>
     </row>
     <row r="964" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A964" s="11"/>
+      <c r="A964" s="14"/>
       <c r="E964" s="3"/>
     </row>
     <row r="965" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A965" s="11"/>
+      <c r="A965" s="14"/>
       <c r="E965" s="3"/>
     </row>
     <row r="966" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A966" s="11"/>
+      <c r="A966" s="14"/>
       <c r="E966" s="3"/>
     </row>
     <row r="967" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A967" s="11"/>
+      <c r="A967" s="14"/>
       <c r="E967" s="3"/>
     </row>
     <row r="968" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A968" s="11"/>
+      <c r="A968" s="14"/>
       <c r="E968" s="3"/>
     </row>
     <row r="969" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A969" s="11"/>
+      <c r="A969" s="14"/>
       <c r="E969" s="3"/>
     </row>
     <row r="970" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A970" s="11"/>
+      <c r="A970" s="14"/>
       <c r="E970" s="3"/>
     </row>
     <row r="971" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A971" s="11"/>
+      <c r="A971" s="14"/>
       <c r="E971" s="3"/>
     </row>
     <row r="972" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A972" s="11"/>
+      <c r="A972" s="14"/>
       <c r="E972" s="3"/>
     </row>
     <row r="973" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A973" s="11"/>
+      <c r="A973" s="14"/>
       <c r="E973" s="3"/>
     </row>
     <row r="974" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A974" s="11"/>
+      <c r="A974" s="14"/>
       <c r="E974" s="3"/>
     </row>
     <row r="975" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A975" s="11"/>
+      <c r="A975" s="14"/>
       <c r="E975" s="3"/>
     </row>
     <row r="976" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A976" s="11"/>
+      <c r="A976" s="14"/>
       <c r="E976" s="3"/>
     </row>
     <row r="977" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A977" s="11"/>
+      <c r="A977" s="14"/>
       <c r="E977" s="3"/>
     </row>
     <row r="978" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A978" s="11"/>
+      <c r="A978" s="14"/>
       <c r="E978" s="3"/>
     </row>
     <row r="979" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A979" s="11"/>
+      <c r="A979" s="14"/>
       <c r="E979" s="3"/>
     </row>
     <row r="980" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A980" s="11"/>
+      <c r="A980" s="14"/>
       <c r="E980" s="3"/>
     </row>
     <row r="981" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A981" s="11"/>
+      <c r="A981" s="14"/>
       <c r="E981" s="3"/>
     </row>
     <row r="982" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A982" s="11"/>
+      <c r="A982" s="14"/>
       <c r="E982" s="3"/>
     </row>
     <row r="983" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A983" s="11"/>
+      <c r="A983" s="14"/>
       <c r="E983" s="3"/>
     </row>
     <row r="984" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A984" s="11"/>
+      <c r="A984" s="14"/>
       <c r="E984" s="3"/>
     </row>
     <row r="985" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A985" s="11"/>
+      <c r="A985" s="14"/>
       <c r="E985" s="3"/>
     </row>
     <row r="986" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A986" s="11"/>
+      <c r="A986" s="14"/>
       <c r="E986" s="3"/>
     </row>
     <row r="987" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A987" s="11"/>
+      <c r="A987" s="14"/>
       <c r="E987" s="3"/>
     </row>
     <row r="988" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A988" s="11"/>
+      <c r="A988" s="14"/>
       <c r="E988" s="3"/>
     </row>
     <row r="989" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A989" s="11"/>
+      <c r="A989" s="14"/>
       <c r="E989" s="3"/>
     </row>
     <row r="990" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A990" s="11"/>
+      <c r="A990" s="14"/>
       <c r="E990" s="3"/>
     </row>
     <row r="991" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A991" s="11"/>
+      <c r="A991" s="14"/>
       <c r="E991" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A45:E45"/>
-    <mergeCell ref="B49:D49"/>
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
